--- a/PIYAF/Шаблон.XLSX
+++ b/PIYAF/Шаблон.XLSX
@@ -3,10 +3,11 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Работники" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Настройки" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1" refMode="R1C1" concurrentCalc="0"/>
@@ -16,9 +17,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -41,6 +50,15 @@
       <u val="single"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -50,7 +68,29 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -72,50 +112,44 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -462,1250 +496,1252 @@
   </sheetPr>
   <dimension ref="A1:Y26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="19.140625" customWidth="1" style="4" min="1" max="1"/>
-    <col width="19.5703125" customWidth="1" style="5" min="2" max="2"/>
-    <col width="19.5703125" customWidth="1" style="4" min="3" max="4"/>
-    <col width="35.5703125" customWidth="1" style="4" min="5" max="5"/>
-    <col width="19.5703125" customWidth="1" style="4" min="6" max="7"/>
-    <col width="26.42578125" customWidth="1" style="4" min="8" max="8"/>
+    <col width="19.140625" customWidth="1" style="2" min="1" max="1"/>
+    <col width="19.5703125" customWidth="1" style="3" min="2" max="2"/>
+    <col width="19.5703125" customWidth="1" style="2" min="3" max="4"/>
+    <col width="35.5703125" customWidth="1" style="2" min="5" max="5"/>
+    <col width="19.5703125" customWidth="1" style="2" min="6" max="7"/>
+    <col width="26.42578125" customWidth="1" style="2" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="3">
-      <c r="A1" s="15" t="inlineStr">
+    <row r="1" customFormat="1" s="1">
+      <c r="A1" s="14" t="inlineStr">
         <is>
           <t>Группа</t>
         </is>
       </c>
-      <c r="B1" s="15" t="inlineStr">
+      <c r="B1" s="14" t="inlineStr">
         <is>
           <t>Фамилия</t>
         </is>
       </c>
-      <c r="C1" s="15" t="inlineStr">
+      <c r="C1" s="14" t="inlineStr">
         <is>
           <t>Имя</t>
         </is>
       </c>
-      <c r="D1" s="15" t="inlineStr">
+      <c r="D1" s="14" t="inlineStr">
         <is>
           <t>Отчество</t>
         </is>
       </c>
-      <c r="E1" s="15" t="inlineStr">
+      <c r="E1" s="14" t="inlineStr">
         <is>
           <t>Должность</t>
         </is>
       </c>
-      <c r="F1" s="15" t="inlineStr">
+      <c r="F1" s="14" t="inlineStr">
         <is>
           <t>Табельный номер</t>
         </is>
       </c>
-      <c r="G1" s="15" t="inlineStr">
+      <c r="G1" s="14" t="inlineStr">
         <is>
           <t>Дата рождения</t>
         </is>
       </c>
-      <c r="H1" s="15" t="inlineStr">
+      <c r="H1" s="14" t="inlineStr">
         <is>
           <t>e-mail</t>
         </is>
       </c>
-      <c r="I1" s="16" t="n"/>
-      <c r="J1" s="16" t="n"/>
-      <c r="K1" s="16" t="n"/>
-      <c r="L1" s="16" t="n"/>
-      <c r="M1" s="16" t="n"/>
-      <c r="N1" s="16" t="n"/>
-      <c r="O1" s="16" t="n"/>
-      <c r="P1" s="16" t="n"/>
-      <c r="Q1" s="16" t="n"/>
-      <c r="R1" s="16" t="n"/>
-      <c r="S1" s="16" t="n"/>
-      <c r="T1" s="16" t="n"/>
-      <c r="U1" s="16" t="n"/>
-      <c r="V1" s="16" t="n"/>
-      <c r="W1" s="16" t="n"/>
-      <c r="X1" s="16" t="n"/>
-      <c r="Y1" s="16" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="16" t="inlineStr">
+      <c r="I1" s="4" t="n"/>
+      <c r="J1" s="4" t="n"/>
+      <c r="K1" s="4" t="n"/>
+      <c r="L1" s="4" t="n"/>
+      <c r="M1" s="4" t="n"/>
+      <c r="N1" s="4" t="n"/>
+      <c r="O1" s="4" t="n"/>
+      <c r="P1" s="4" t="n"/>
+      <c r="Q1" s="4" t="n"/>
+      <c r="R1" s="4" t="n"/>
+      <c r="S1" s="4" t="n"/>
+      <c r="T1" s="4" t="n"/>
+      <c r="U1" s="4" t="n"/>
+      <c r="V1" s="4" t="n"/>
+      <c r="W1" s="4" t="n"/>
+      <c r="X1" s="4" t="n"/>
+      <c r="Y1" s="4" t="n"/>
+    </row>
+    <row r="2" customFormat="1" s="6">
+      <c r="A2" s="15" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B2" s="17" t="inlineStr">
+      <c r="B2" s="16" t="inlineStr">
         <is>
           <t>Вилков</t>
         </is>
       </c>
-      <c r="C2" s="16" t="inlineStr">
+      <c r="C2" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve">Евгений </t>
         </is>
       </c>
-      <c r="D2" s="16" t="inlineStr">
+      <c r="D2" s="15" t="inlineStr">
         <is>
           <t>Александрович</t>
         </is>
       </c>
-      <c r="E2" s="16" t="inlineStr">
+      <c r="E2" s="15" t="inlineStr">
         <is>
           <t>инженер-программист 1 категории</t>
         </is>
       </c>
-      <c r="F2" s="18" t="n">
+      <c r="F2" s="17" t="n">
         <v>1146</v>
       </c>
-      <c r="G2" s="19" t="n">
+      <c r="G2" s="18" t="n">
         <v>31382</v>
       </c>
-      <c r="H2" s="16" t="n"/>
-      <c r="I2" s="16" t="n"/>
-      <c r="J2" s="16" t="n"/>
-      <c r="K2" s="16" t="n"/>
-      <c r="L2" s="16" t="n"/>
-      <c r="M2" s="16" t="n"/>
-      <c r="N2" s="16" t="n"/>
-      <c r="O2" s="16" t="n"/>
-      <c r="P2" s="16" t="n"/>
-      <c r="Q2" s="16" t="n"/>
-      <c r="R2" s="16" t="n"/>
-      <c r="S2" s="16" t="n"/>
-      <c r="T2" s="16" t="n"/>
-      <c r="U2" s="16" t="n"/>
-      <c r="V2" s="16" t="n"/>
-      <c r="W2" s="16" t="n"/>
-      <c r="X2" s="16" t="n"/>
-      <c r="Y2" s="16" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="16" t="inlineStr">
+      <c r="H2" s="15" t="n"/>
+      <c r="I2" s="5" t="n"/>
+      <c r="J2" s="5" t="n"/>
+      <c r="K2" s="5" t="n"/>
+      <c r="L2" s="5" t="n"/>
+      <c r="M2" s="5" t="n"/>
+      <c r="N2" s="5" t="n"/>
+      <c r="O2" s="5" t="n"/>
+      <c r="P2" s="5" t="n"/>
+      <c r="Q2" s="5" t="n"/>
+      <c r="R2" s="5" t="n"/>
+      <c r="S2" s="5" t="n"/>
+      <c r="T2" s="5" t="n"/>
+      <c r="U2" s="5" t="n"/>
+      <c r="V2" s="5" t="n"/>
+      <c r="W2" s="5" t="n"/>
+      <c r="X2" s="5" t="n"/>
+      <c r="Y2" s="5" t="n"/>
+    </row>
+    <row r="3" customFormat="1" s="6">
+      <c r="A3" s="15" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B3" s="17" t="inlineStr">
+      <c r="B3" s="16" t="inlineStr">
         <is>
           <t>Гаврилова</t>
         </is>
       </c>
-      <c r="C3" s="16" t="inlineStr">
+      <c r="C3" s="15" t="inlineStr">
         <is>
           <t>Наталия</t>
         </is>
       </c>
-      <c r="D3" s="16" t="inlineStr">
+      <c r="D3" s="15" t="inlineStr">
         <is>
           <t>Николаевна</t>
         </is>
       </c>
-      <c r="E3" s="16" t="inlineStr">
+      <c r="E3" s="15" t="inlineStr">
         <is>
           <t>техник 1 категории</t>
         </is>
       </c>
-      <c r="F3" s="18" t="n">
+      <c r="F3" s="17" t="n">
         <v>1803</v>
       </c>
-      <c r="G3" s="19" t="n">
+      <c r="G3" s="18" t="n">
         <v>25776</v>
       </c>
-      <c r="H3" s="16" t="n"/>
-      <c r="I3" s="16" t="n"/>
-      <c r="J3" s="16" t="n"/>
-      <c r="K3" s="16" t="n"/>
-      <c r="L3" s="16" t="n"/>
-      <c r="M3" s="16" t="n"/>
-      <c r="N3" s="16" t="n"/>
-      <c r="O3" s="16" t="n"/>
-      <c r="P3" s="16" t="n"/>
-      <c r="Q3" s="16" t="n"/>
-      <c r="R3" s="16" t="n"/>
-      <c r="S3" s="16" t="n"/>
-      <c r="T3" s="16" t="n"/>
-      <c r="U3" s="16" t="n"/>
-      <c r="V3" s="16" t="n"/>
-      <c r="W3" s="16" t="n"/>
-      <c r="X3" s="16" t="n"/>
-      <c r="Y3" s="16" t="n"/>
+      <c r="H3" s="15" t="n"/>
+      <c r="I3" s="5" t="n"/>
+      <c r="J3" s="5" t="n"/>
+      <c r="K3" s="5" t="n"/>
+      <c r="L3" s="5" t="n"/>
+      <c r="M3" s="5" t="n"/>
+      <c r="N3" s="5" t="n"/>
+      <c r="O3" s="5" t="n"/>
+      <c r="P3" s="5" t="n"/>
+      <c r="Q3" s="5" t="n"/>
+      <c r="R3" s="5" t="n"/>
+      <c r="S3" s="5" t="n"/>
+      <c r="T3" s="5" t="n"/>
+      <c r="U3" s="5" t="n"/>
+      <c r="V3" s="5" t="n"/>
+      <c r="W3" s="5" t="n"/>
+      <c r="X3" s="5" t="n"/>
+      <c r="Y3" s="5" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="16" t="inlineStr">
+      <c r="A4" s="15" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B4" s="17" t="inlineStr">
+      <c r="B4" s="16" t="inlineStr">
         <is>
           <t>Гордеев</t>
         </is>
       </c>
-      <c r="C4" s="16" t="inlineStr">
+      <c r="C4" s="15" t="inlineStr">
         <is>
           <t>Сергей</t>
         </is>
       </c>
-      <c r="D4" s="16" t="inlineStr">
+      <c r="D4" s="15" t="inlineStr">
         <is>
           <t>Владимирович</t>
         </is>
       </c>
-      <c r="E4" s="16" t="inlineStr">
+      <c r="E4" s="15" t="inlineStr">
         <is>
           <t>ведущий инженер-программист</t>
         </is>
       </c>
-      <c r="F4" s="18" t="n">
+      <c r="F4" s="17" t="n">
         <v>54711</v>
       </c>
-      <c r="G4" s="19" t="n">
+      <c r="G4" s="18" t="n">
         <v>20903</v>
       </c>
-      <c r="H4" s="16" t="n"/>
-      <c r="I4" s="16" t="n"/>
-      <c r="J4" s="16" t="n"/>
-      <c r="K4" s="16" t="n"/>
-      <c r="L4" s="16" t="n"/>
-      <c r="M4" s="16" t="n"/>
-      <c r="N4" s="16" t="n"/>
-      <c r="O4" s="16" t="n"/>
-      <c r="P4" s="16" t="n"/>
-      <c r="Q4" s="16" t="n"/>
-      <c r="R4" s="16" t="n"/>
-      <c r="S4" s="16" t="n"/>
-      <c r="T4" s="16" t="n"/>
-      <c r="U4" s="16" t="n"/>
-      <c r="V4" s="16" t="n"/>
-      <c r="W4" s="16" t="n"/>
-      <c r="X4" s="16" t="n"/>
-      <c r="Y4" s="16" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="16" t="inlineStr">
+      <c r="H4" s="15" t="n"/>
+      <c r="I4" s="4" t="n"/>
+      <c r="J4" s="4" t="n"/>
+      <c r="K4" s="4" t="n"/>
+      <c r="L4" s="4" t="n"/>
+      <c r="M4" s="4" t="n"/>
+      <c r="N4" s="4" t="n"/>
+      <c r="O4" s="4" t="n"/>
+      <c r="P4" s="4" t="n"/>
+      <c r="Q4" s="4" t="n"/>
+      <c r="R4" s="4" t="n"/>
+      <c r="S4" s="4" t="n"/>
+      <c r="T4" s="4" t="n"/>
+      <c r="U4" s="4" t="n"/>
+      <c r="V4" s="4" t="n"/>
+      <c r="W4" s="4" t="n"/>
+      <c r="X4" s="4" t="n"/>
+      <c r="Y4" s="4" t="n"/>
+    </row>
+    <row r="5" customFormat="1" s="6">
+      <c r="A5" s="15" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B5" s="17" t="inlineStr">
+      <c r="B5" s="16" t="inlineStr">
         <is>
           <t>Добырн</t>
         </is>
       </c>
-      <c r="C5" s="16" t="inlineStr">
+      <c r="C5" s="15" t="inlineStr">
         <is>
           <t>Владислав</t>
         </is>
       </c>
-      <c r="D5" s="16" t="inlineStr">
+      <c r="D5" s="15" t="inlineStr">
         <is>
           <t>Вениаминович</t>
         </is>
       </c>
-      <c r="E5" s="16" t="inlineStr">
+      <c r="E5" s="15" t="inlineStr">
         <is>
           <t>эксперт</t>
         </is>
       </c>
-      <c r="F5" s="18" t="n">
+      <c r="F5" s="17" t="n">
         <v>983</v>
       </c>
-      <c r="G5" s="19" t="n">
+      <c r="G5" s="18" t="n">
         <v>12513</v>
       </c>
-      <c r="H5" s="16" t="n"/>
-      <c r="I5" s="16" t="n"/>
-      <c r="J5" s="16" t="n"/>
-      <c r="K5" s="16" t="n"/>
-      <c r="L5" s="16" t="n"/>
-      <c r="M5" s="16" t="n"/>
-      <c r="N5" s="16" t="n"/>
-      <c r="O5" s="16" t="n"/>
-      <c r="P5" s="16" t="n"/>
-      <c r="Q5" s="16" t="n"/>
-      <c r="R5" s="16" t="n"/>
-      <c r="S5" s="16" t="n"/>
-      <c r="T5" s="16" t="n"/>
-      <c r="U5" s="16" t="n"/>
-      <c r="V5" s="16" t="n"/>
-      <c r="W5" s="16" t="n"/>
-      <c r="X5" s="16" t="n"/>
-      <c r="Y5" s="16" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="16" t="inlineStr">
+      <c r="H5" s="15" t="n"/>
+      <c r="I5" s="5" t="n"/>
+      <c r="J5" s="5" t="n"/>
+      <c r="K5" s="5" t="n"/>
+      <c r="L5" s="5" t="n"/>
+      <c r="M5" s="5" t="n"/>
+      <c r="N5" s="5" t="n"/>
+      <c r="O5" s="5" t="n"/>
+      <c r="P5" s="5" t="n"/>
+      <c r="Q5" s="5" t="n"/>
+      <c r="R5" s="5" t="n"/>
+      <c r="S5" s="5" t="n"/>
+      <c r="T5" s="5" t="n"/>
+      <c r="U5" s="5" t="n"/>
+      <c r="V5" s="5" t="n"/>
+      <c r="W5" s="5" t="n"/>
+      <c r="X5" s="5" t="n"/>
+      <c r="Y5" s="5" t="n"/>
+    </row>
+    <row r="6" customFormat="1" s="6">
+      <c r="A6" s="15" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B6" s="17" t="inlineStr">
+      <c r="B6" s="16" t="inlineStr">
         <is>
           <t>Ермоленко</t>
         </is>
       </c>
-      <c r="C6" s="16" t="inlineStr">
+      <c r="C6" s="15" t="inlineStr">
         <is>
           <t>Оксана</t>
         </is>
       </c>
-      <c r="D6" s="16" t="inlineStr">
+      <c r="D6" s="15" t="inlineStr">
         <is>
           <t>Георгиевна</t>
         </is>
       </c>
-      <c r="E6" s="16" t="inlineStr">
+      <c r="E6" s="15" t="inlineStr">
         <is>
           <t>вед. инженер-технолог</t>
         </is>
       </c>
-      <c r="F6" s="18" t="n">
+      <c r="F6" s="17" t="n">
         <v>1804</v>
       </c>
-      <c r="G6" s="19" t="n">
+      <c r="G6" s="18" t="n">
         <v>23861</v>
       </c>
-      <c r="H6" s="16" t="n"/>
-      <c r="I6" s="16" t="n"/>
-      <c r="J6" s="16" t="n"/>
-      <c r="K6" s="16" t="n"/>
-      <c r="L6" s="16" t="n"/>
-      <c r="M6" s="16" t="n"/>
-      <c r="N6" s="16" t="n"/>
-      <c r="O6" s="16" t="n"/>
-      <c r="P6" s="16" t="n"/>
-      <c r="Q6" s="16" t="n"/>
-      <c r="R6" s="16" t="n"/>
-      <c r="S6" s="16" t="n"/>
-      <c r="T6" s="16" t="n"/>
-      <c r="U6" s="16" t="n"/>
-      <c r="V6" s="16" t="n"/>
-      <c r="W6" s="16" t="n"/>
-      <c r="X6" s="16" t="n"/>
-      <c r="Y6" s="16" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="16" t="inlineStr">
+      <c r="H6" s="15" t="n"/>
+      <c r="I6" s="5" t="n"/>
+      <c r="J6" s="5" t="n"/>
+      <c r="K6" s="5" t="n"/>
+      <c r="L6" s="5" t="n"/>
+      <c r="M6" s="5" t="n"/>
+      <c r="N6" s="5" t="n"/>
+      <c r="O6" s="5" t="n"/>
+      <c r="P6" s="5" t="n"/>
+      <c r="Q6" s="5" t="n"/>
+      <c r="R6" s="5" t="n"/>
+      <c r="S6" s="5" t="n"/>
+      <c r="T6" s="5" t="n"/>
+      <c r="U6" s="5" t="n"/>
+      <c r="V6" s="5" t="n"/>
+      <c r="W6" s="5" t="n"/>
+      <c r="X6" s="5" t="n"/>
+      <c r="Y6" s="5" t="n"/>
+    </row>
+    <row r="7" customFormat="1" s="6">
+      <c r="A7" s="15" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B7" s="17" t="inlineStr">
+      <c r="B7" s="16" t="inlineStr">
         <is>
           <t>Кадыров</t>
         </is>
       </c>
-      <c r="C7" s="16" t="inlineStr">
+      <c r="C7" s="15" t="inlineStr">
         <is>
           <t>Андрей</t>
         </is>
       </c>
-      <c r="D7" s="16" t="inlineStr">
+      <c r="D7" s="15" t="inlineStr">
         <is>
           <t>Садыкович</t>
         </is>
       </c>
-      <c r="E7" s="16" t="inlineStr">
+      <c r="E7" s="15" t="inlineStr">
         <is>
           <t>зав. отделом</t>
         </is>
       </c>
-      <c r="F7" s="18" t="n">
+      <c r="F7" s="17" t="n">
         <v>3347</v>
       </c>
-      <c r="G7" s="19" t="n">
+      <c r="G7" s="18" t="n">
         <v>25733</v>
       </c>
-      <c r="H7" s="16" t="n"/>
-      <c r="I7" s="16" t="n"/>
-      <c r="J7" s="16" t="n"/>
-      <c r="K7" s="16" t="n"/>
-      <c r="L7" s="16" t="n"/>
-      <c r="M7" s="16" t="n"/>
-      <c r="N7" s="16" t="n"/>
-      <c r="O7" s="16" t="n"/>
-      <c r="P7" s="16" t="n"/>
-      <c r="Q7" s="16" t="n"/>
-      <c r="R7" s="16" t="n"/>
-      <c r="S7" s="16" t="n"/>
-      <c r="T7" s="16" t="n"/>
-      <c r="U7" s="16" t="n"/>
-      <c r="V7" s="16" t="n"/>
-      <c r="W7" s="16" t="n"/>
-      <c r="X7" s="16" t="n"/>
-      <c r="Y7" s="16" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="16" t="inlineStr">
+      <c r="H7" s="15" t="n"/>
+      <c r="I7" s="5" t="n"/>
+      <c r="J7" s="5" t="n"/>
+      <c r="K7" s="5" t="n"/>
+      <c r="L7" s="5" t="n"/>
+      <c r="M7" s="5" t="n"/>
+      <c r="N7" s="5" t="n"/>
+      <c r="O7" s="5" t="n"/>
+      <c r="P7" s="5" t="n"/>
+      <c r="Q7" s="5" t="n"/>
+      <c r="R7" s="5" t="n"/>
+      <c r="S7" s="5" t="n"/>
+      <c r="T7" s="5" t="n"/>
+      <c r="U7" s="5" t="n"/>
+      <c r="V7" s="5" t="n"/>
+      <c r="W7" s="5" t="n"/>
+      <c r="X7" s="5" t="n"/>
+      <c r="Y7" s="5" t="n"/>
+    </row>
+    <row r="8" customFormat="1" s="6">
+      <c r="A8" s="15" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B8" s="17" t="inlineStr">
+      <c r="B8" s="16" t="inlineStr">
         <is>
           <t>Константинов</t>
         </is>
       </c>
-      <c r="C8" s="16" t="inlineStr">
+      <c r="C8" s="15" t="inlineStr">
         <is>
           <t>Леонид</t>
         </is>
       </c>
-      <c r="D8" s="16" t="inlineStr">
+      <c r="D8" s="15" t="inlineStr">
         <is>
           <t>Александрович</t>
         </is>
       </c>
-      <c r="E8" s="16" t="inlineStr">
+      <c r="E8" s="15" t="inlineStr">
         <is>
           <t>ведущий инженер</t>
         </is>
       </c>
-      <c r="F8" s="18" t="n">
+      <c r="F8" s="17" t="n">
         <v>2403</v>
       </c>
-      <c r="G8" s="19" t="n">
+      <c r="G8" s="18" t="n">
         <v>22113</v>
       </c>
-      <c r="H8" s="16" t="n"/>
-      <c r="I8" s="16" t="n"/>
-      <c r="J8" s="16" t="n"/>
-      <c r="K8" s="16" t="n"/>
-      <c r="L8" s="16" t="n"/>
-      <c r="M8" s="16" t="n"/>
-      <c r="N8" s="16" t="n"/>
-      <c r="O8" s="16" t="n"/>
-      <c r="P8" s="16" t="n"/>
-      <c r="Q8" s="16" t="n"/>
-      <c r="R8" s="16" t="n"/>
-      <c r="S8" s="16" t="n"/>
-      <c r="T8" s="16" t="n"/>
-      <c r="U8" s="16" t="n"/>
-      <c r="V8" s="16" t="n"/>
-      <c r="W8" s="16" t="n"/>
-      <c r="X8" s="16" t="n"/>
-      <c r="Y8" s="16" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="16" t="inlineStr">
+      <c r="H8" s="15" t="n"/>
+      <c r="I8" s="5" t="n"/>
+      <c r="J8" s="5" t="n"/>
+      <c r="K8" s="5" t="n"/>
+      <c r="L8" s="5" t="n"/>
+      <c r="M8" s="5" t="n"/>
+      <c r="N8" s="5" t="n"/>
+      <c r="O8" s="5" t="n"/>
+      <c r="P8" s="5" t="n"/>
+      <c r="Q8" s="5" t="n"/>
+      <c r="R8" s="5" t="n"/>
+      <c r="S8" s="5" t="n"/>
+      <c r="T8" s="5" t="n"/>
+      <c r="U8" s="5" t="n"/>
+      <c r="V8" s="5" t="n"/>
+      <c r="W8" s="5" t="n"/>
+      <c r="X8" s="5" t="n"/>
+      <c r="Y8" s="5" t="n"/>
+    </row>
+    <row r="9" customFormat="1" s="6">
+      <c r="A9" s="15" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B9" s="17" t="inlineStr">
+      <c r="B9" s="16" t="inlineStr">
         <is>
           <t>Кормин</t>
         </is>
       </c>
-      <c r="C9" s="16" t="inlineStr">
+      <c r="C9" s="15" t="inlineStr">
         <is>
           <t>Владимир</t>
         </is>
       </c>
-      <c r="D9" s="16" t="inlineStr">
+      <c r="D9" s="15" t="inlineStr">
         <is>
           <t>Евгеньевич</t>
         </is>
       </c>
-      <c r="E9" s="16" t="inlineStr">
+      <c r="E9" s="15" t="inlineStr">
         <is>
           <t>инженер-программист</t>
         </is>
       </c>
-      <c r="F9" s="18" t="n">
+      <c r="F9" s="17" t="n">
         <v>55867</v>
       </c>
-      <c r="G9" s="19" t="n">
+      <c r="G9" s="18" t="n">
         <v>28787</v>
       </c>
-      <c r="H9" s="16" t="n"/>
-      <c r="I9" s="16" t="n"/>
-      <c r="J9" s="16" t="n"/>
-      <c r="K9" s="16" t="n"/>
-      <c r="L9" s="16" t="n"/>
-      <c r="M9" s="16" t="n"/>
-      <c r="N9" s="16" t="n"/>
-      <c r="O9" s="16" t="n"/>
-      <c r="P9" s="16" t="n"/>
-      <c r="Q9" s="16" t="n"/>
-      <c r="R9" s="16" t="n"/>
-      <c r="S9" s="16" t="n"/>
-      <c r="T9" s="16" t="n"/>
-      <c r="U9" s="16" t="n"/>
-      <c r="V9" s="16" t="n"/>
-      <c r="W9" s="16" t="n"/>
-      <c r="X9" s="16" t="n"/>
-      <c r="Y9" s="16" t="n"/>
+      <c r="H9" s="15" t="n"/>
+      <c r="I9" s="5" t="n"/>
+      <c r="J9" s="5" t="n"/>
+      <c r="K9" s="5" t="n"/>
+      <c r="L9" s="5" t="n"/>
+      <c r="M9" s="5" t="n"/>
+      <c r="N9" s="5" t="n"/>
+      <c r="O9" s="5" t="n"/>
+      <c r="P9" s="5" t="n"/>
+      <c r="Q9" s="5" t="n"/>
+      <c r="R9" s="5" t="n"/>
+      <c r="S9" s="5" t="n"/>
+      <c r="T9" s="5" t="n"/>
+      <c r="U9" s="5" t="n"/>
+      <c r="V9" s="5" t="n"/>
+      <c r="W9" s="5" t="n"/>
+      <c r="X9" s="5" t="n"/>
+      <c r="Y9" s="5" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="16" t="inlineStr">
+      <c r="A10" s="15" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B10" s="17" t="inlineStr">
+      <c r="B10" s="16" t="inlineStr">
         <is>
           <t>Лавров</t>
         </is>
       </c>
-      <c r="C10" s="16" t="inlineStr">
+      <c r="C10" s="15" t="inlineStr">
         <is>
           <t>Юрий</t>
         </is>
       </c>
-      <c r="D10" s="16" t="inlineStr">
+      <c r="D10" s="15" t="inlineStr">
         <is>
           <t>Михайлович</t>
         </is>
       </c>
-      <c r="E10" s="16" t="inlineStr">
+      <c r="E10" s="15" t="inlineStr">
         <is>
           <t>эксперт</t>
         </is>
       </c>
-      <c r="F10" s="18" t="n">
+      <c r="F10" s="17" t="n">
         <v>1777</v>
       </c>
-      <c r="G10" s="19" t="n">
+      <c r="G10" s="18" t="n">
         <v>22779</v>
       </c>
-      <c r="H10" s="16" t="n"/>
-      <c r="I10" s="16" t="n"/>
-      <c r="J10" s="16" t="n"/>
-      <c r="K10" s="16" t="n"/>
-      <c r="L10" s="16" t="n"/>
-      <c r="M10" s="16" t="n"/>
-      <c r="N10" s="16" t="n"/>
-      <c r="O10" s="16" t="n"/>
-      <c r="P10" s="16" t="n"/>
-      <c r="Q10" s="16" t="n"/>
-      <c r="R10" s="16" t="n"/>
-      <c r="S10" s="16" t="n"/>
-      <c r="T10" s="16" t="n"/>
-      <c r="U10" s="16" t="n"/>
-      <c r="V10" s="16" t="n"/>
-      <c r="W10" s="16" t="n"/>
-      <c r="X10" s="16" t="n"/>
-      <c r="Y10" s="16" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="16" t="inlineStr">
+      <c r="H10" s="15" t="n"/>
+      <c r="I10" s="4" t="n"/>
+      <c r="J10" s="4" t="n"/>
+      <c r="K10" s="4" t="n"/>
+      <c r="L10" s="4" t="n"/>
+      <c r="M10" s="4" t="n"/>
+      <c r="N10" s="4" t="n"/>
+      <c r="O10" s="4" t="n"/>
+      <c r="P10" s="4" t="n"/>
+      <c r="Q10" s="4" t="n"/>
+      <c r="R10" s="4" t="n"/>
+      <c r="S10" s="4" t="n"/>
+      <c r="T10" s="4" t="n"/>
+      <c r="U10" s="4" t="n"/>
+      <c r="V10" s="4" t="n"/>
+      <c r="W10" s="4" t="n"/>
+      <c r="X10" s="4" t="n"/>
+      <c r="Y10" s="4" t="n"/>
+    </row>
+    <row r="11" customFormat="1" s="6">
+      <c r="A11" s="15" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B11" s="17" t="inlineStr">
+      <c r="B11" s="16" t="inlineStr">
         <is>
           <t>Ладатко</t>
         </is>
       </c>
-      <c r="C11" s="16" t="inlineStr">
+      <c r="C11" s="15" t="inlineStr">
         <is>
           <t>Игорь</t>
         </is>
       </c>
-      <c r="D11" s="16" t="inlineStr">
+      <c r="D11" s="15" t="inlineStr">
         <is>
           <t>Викторович</t>
         </is>
       </c>
-      <c r="E11" s="16" t="inlineStr">
+      <c r="E11" s="15" t="inlineStr">
         <is>
           <t>инженер-программист 2 категории</t>
         </is>
       </c>
-      <c r="F11" s="18" t="n">
+      <c r="F11" s="17" t="n">
         <v>1135</v>
       </c>
-      <c r="G11" s="19" t="n">
+      <c r="G11" s="18" t="n">
         <v>27010</v>
       </c>
-      <c r="H11" s="16" t="n"/>
-      <c r="I11" s="16" t="n"/>
-      <c r="J11" s="16" t="n"/>
-      <c r="K11" s="16" t="n"/>
-      <c r="L11" s="16" t="n"/>
-      <c r="M11" s="16" t="n"/>
-      <c r="N11" s="16" t="n"/>
-      <c r="O11" s="16" t="n"/>
-      <c r="P11" s="16" t="n"/>
-      <c r="Q11" s="16" t="n"/>
-      <c r="R11" s="16" t="n"/>
-      <c r="S11" s="16" t="n"/>
-      <c r="T11" s="16" t="n"/>
-      <c r="U11" s="16" t="n"/>
-      <c r="V11" s="16" t="n"/>
-      <c r="W11" s="16" t="n"/>
-      <c r="X11" s="16" t="n"/>
-      <c r="Y11" s="16" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="16" t="inlineStr">
+      <c r="H11" s="15" t="n"/>
+      <c r="I11" s="5" t="n"/>
+      <c r="J11" s="5" t="n"/>
+      <c r="K11" s="5" t="n"/>
+      <c r="L11" s="5" t="n"/>
+      <c r="M11" s="5" t="n"/>
+      <c r="N11" s="5" t="n"/>
+      <c r="O11" s="5" t="n"/>
+      <c r="P11" s="5" t="n"/>
+      <c r="Q11" s="5" t="n"/>
+      <c r="R11" s="5" t="n"/>
+      <c r="S11" s="5" t="n"/>
+      <c r="T11" s="5" t="n"/>
+      <c r="U11" s="5" t="n"/>
+      <c r="V11" s="5" t="n"/>
+      <c r="W11" s="5" t="n"/>
+      <c r="X11" s="5" t="n"/>
+      <c r="Y11" s="5" t="n"/>
+    </row>
+    <row r="12" customFormat="1" s="6">
+      <c r="A12" s="15" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B12" s="17" t="inlineStr">
+      <c r="B12" s="16" t="inlineStr">
         <is>
           <t>Тупиленко</t>
         </is>
       </c>
-      <c r="C12" s="16" t="inlineStr">
+      <c r="C12" s="15" t="inlineStr">
         <is>
           <t>Ольга</t>
         </is>
       </c>
-      <c r="D12" s="16" t="inlineStr">
+      <c r="D12" s="15" t="inlineStr">
         <is>
           <t>Евгеньевна</t>
         </is>
       </c>
-      <c r="E12" s="16" t="inlineStr">
+      <c r="E12" s="15" t="inlineStr">
         <is>
           <t>старший лаборант</t>
         </is>
       </c>
-      <c r="F12" s="18" t="n">
+      <c r="F12" s="17" t="n">
         <v>2946</v>
       </c>
-      <c r="G12" s="19" t="n">
+      <c r="G12" s="18" t="n">
         <v>23895</v>
       </c>
-      <c r="H12" s="16" t="n"/>
-      <c r="I12" s="16" t="n"/>
-      <c r="J12" s="16" t="n"/>
-      <c r="K12" s="16" t="n"/>
-      <c r="L12" s="16" t="n"/>
-      <c r="M12" s="16" t="n"/>
-      <c r="N12" s="16" t="n"/>
-      <c r="O12" s="16" t="n"/>
-      <c r="P12" s="16" t="n"/>
-      <c r="Q12" s="16" t="n"/>
-      <c r="R12" s="16" t="n"/>
-      <c r="S12" s="16" t="n"/>
-      <c r="T12" s="16" t="n"/>
-      <c r="U12" s="16" t="n"/>
-      <c r="V12" s="16" t="n"/>
-      <c r="W12" s="16" t="n"/>
-      <c r="X12" s="16" t="n"/>
-      <c r="Y12" s="16" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="16" t="inlineStr">
+      <c r="H12" s="15" t="n"/>
+      <c r="I12" s="5" t="n"/>
+      <c r="J12" s="5" t="n"/>
+      <c r="K12" s="5" t="n"/>
+      <c r="L12" s="5" t="n"/>
+      <c r="M12" s="5" t="n"/>
+      <c r="N12" s="5" t="n"/>
+      <c r="O12" s="5" t="n"/>
+      <c r="P12" s="5" t="n"/>
+      <c r="Q12" s="5" t="n"/>
+      <c r="R12" s="5" t="n"/>
+      <c r="S12" s="5" t="n"/>
+      <c r="T12" s="5" t="n"/>
+      <c r="U12" s="5" t="n"/>
+      <c r="V12" s="5" t="n"/>
+      <c r="W12" s="5" t="n"/>
+      <c r="X12" s="5" t="n"/>
+      <c r="Y12" s="5" t="n"/>
+    </row>
+    <row r="13" customFormat="1" s="6">
+      <c r="A13" s="15" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B13" s="17" t="inlineStr">
+      <c r="B13" s="16" t="inlineStr">
         <is>
           <t>Турухано</t>
         </is>
       </c>
-      <c r="C13" s="16" t="inlineStr">
+      <c r="C13" s="15" t="inlineStr">
         <is>
           <t>Борис</t>
         </is>
       </c>
-      <c r="D13" s="16" t="inlineStr">
+      <c r="D13" s="15" t="inlineStr">
         <is>
           <t>Ганьевич</t>
         </is>
       </c>
-      <c r="E13" s="16" t="inlineStr">
+      <c r="E13" s="15" t="inlineStr">
         <is>
           <t>вед. научный сотрудник</t>
         </is>
       </c>
-      <c r="F13" s="18" t="n">
+      <c r="F13" s="17" t="n">
         <v>1767</v>
       </c>
-      <c r="G13" s="19" t="n">
+      <c r="G13" s="18" t="n">
         <v>13817</v>
       </c>
-      <c r="H13" s="16" t="n"/>
-      <c r="I13" s="16" t="n"/>
-      <c r="J13" s="16" t="n"/>
-      <c r="K13" s="16" t="n"/>
-      <c r="L13" s="16" t="n"/>
-      <c r="M13" s="16" t="n"/>
-      <c r="N13" s="16" t="n"/>
-      <c r="O13" s="16" t="n"/>
-      <c r="P13" s="16" t="n"/>
-      <c r="Q13" s="16" t="n"/>
-      <c r="R13" s="16" t="n"/>
-      <c r="S13" s="16" t="n"/>
-      <c r="T13" s="16" t="n"/>
-      <c r="U13" s="16" t="n"/>
-      <c r="V13" s="16" t="n"/>
-      <c r="W13" s="16" t="n"/>
-      <c r="X13" s="16" t="n"/>
-      <c r="Y13" s="16" t="n"/>
+      <c r="H13" s="15" t="n"/>
+      <c r="I13" s="5" t="n"/>
+      <c r="J13" s="5" t="n"/>
+      <c r="K13" s="5" t="n"/>
+      <c r="L13" s="5" t="n"/>
+      <c r="M13" s="5" t="n"/>
+      <c r="N13" s="5" t="n"/>
+      <c r="O13" s="5" t="n"/>
+      <c r="P13" s="5" t="n"/>
+      <c r="Q13" s="5" t="n"/>
+      <c r="R13" s="5" t="n"/>
+      <c r="S13" s="5" t="n"/>
+      <c r="T13" s="5" t="n"/>
+      <c r="U13" s="5" t="n"/>
+      <c r="V13" s="5" t="n"/>
+      <c r="W13" s="5" t="n"/>
+      <c r="X13" s="5" t="n"/>
+      <c r="Y13" s="5" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="16" t="inlineStr">
+      <c r="A14" s="15" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B14" s="17" t="inlineStr">
+      <c r="B14" s="16" t="inlineStr">
         <is>
           <t>Турухано</t>
         </is>
       </c>
-      <c r="C14" s="16" t="inlineStr">
+      <c r="C14" s="15" t="inlineStr">
         <is>
           <t>Никулина</t>
         </is>
       </c>
-      <c r="D14" s="16" t="n"/>
-      <c r="E14" s="16" t="inlineStr">
+      <c r="D14" s="15" t="n"/>
+      <c r="E14" s="15" t="inlineStr">
         <is>
           <t>эксперт</t>
         </is>
       </c>
-      <c r="F14" s="18" t="n">
+      <c r="F14" s="17" t="n">
         <v>162</v>
       </c>
-      <c r="G14" s="19" t="n">
+      <c r="G14" s="18" t="n">
         <v>13837</v>
       </c>
-      <c r="H14" s="16" t="n"/>
-      <c r="I14" s="16" t="n"/>
-      <c r="J14" s="16" t="n"/>
-      <c r="K14" s="16" t="n"/>
-      <c r="L14" s="16" t="n"/>
-      <c r="M14" s="16" t="n"/>
-      <c r="N14" s="16" t="n"/>
-      <c r="O14" s="16" t="n"/>
-      <c r="P14" s="16" t="n"/>
-      <c r="Q14" s="16" t="n"/>
-      <c r="R14" s="16" t="n"/>
-      <c r="S14" s="16" t="n"/>
-      <c r="T14" s="16" t="n"/>
-      <c r="U14" s="16" t="n"/>
-      <c r="V14" s="16" t="n"/>
-      <c r="W14" s="16" t="n"/>
-      <c r="X14" s="16" t="n"/>
-      <c r="Y14" s="16" t="n"/>
+      <c r="H14" s="15" t="n"/>
+      <c r="I14" s="4" t="n"/>
+      <c r="J14" s="4" t="n"/>
+      <c r="K14" s="4" t="n"/>
+      <c r="L14" s="4" t="n"/>
+      <c r="M14" s="4" t="n"/>
+      <c r="N14" s="4" t="n"/>
+      <c r="O14" s="4" t="n"/>
+      <c r="P14" s="4" t="n"/>
+      <c r="Q14" s="4" t="n"/>
+      <c r="R14" s="4" t="n"/>
+      <c r="S14" s="4" t="n"/>
+      <c r="T14" s="4" t="n"/>
+      <c r="U14" s="4" t="n"/>
+      <c r="V14" s="4" t="n"/>
+      <c r="W14" s="4" t="n"/>
+      <c r="X14" s="4" t="n"/>
+      <c r="Y14" s="4" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="16" t="inlineStr">
+      <c r="A15" s="15" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B15" s="17" t="inlineStr">
+      <c r="B15" s="16" t="inlineStr">
         <is>
           <t>Ханов</t>
         </is>
       </c>
-      <c r="C15" s="16" t="inlineStr">
+      <c r="C15" s="15" t="inlineStr">
         <is>
           <t>Сергей</t>
         </is>
       </c>
-      <c r="D15" s="16" t="inlineStr">
+      <c r="D15" s="15" t="inlineStr">
         <is>
           <t>Николаевич</t>
         </is>
       </c>
-      <c r="E15" s="16" t="inlineStr">
+      <c r="E15" s="15" t="inlineStr">
         <is>
           <t>ведущий конструктор</t>
         </is>
       </c>
-      <c r="F15" s="18" t="n">
+      <c r="F15" s="17" t="n">
         <v>1792</v>
       </c>
-      <c r="G15" s="19" t="n">
+      <c r="G15" s="18" t="n">
         <v>17727</v>
       </c>
-      <c r="H15" s="16" t="n"/>
-      <c r="I15" s="16" t="n"/>
-      <c r="J15" s="16" t="n"/>
-      <c r="K15" s="16" t="n"/>
-      <c r="L15" s="16" t="n"/>
-      <c r="M15" s="16" t="n"/>
-      <c r="N15" s="16" t="n"/>
-      <c r="O15" s="16" t="n"/>
-      <c r="P15" s="16" t="n"/>
-      <c r="Q15" s="16" t="n"/>
-      <c r="R15" s="16" t="n"/>
-      <c r="S15" s="16" t="n"/>
-      <c r="T15" s="16" t="n"/>
-      <c r="U15" s="16" t="n"/>
-      <c r="V15" s="16" t="n"/>
-      <c r="W15" s="16" t="n"/>
-      <c r="X15" s="16" t="n"/>
-      <c r="Y15" s="16" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="16" t="inlineStr">
+      <c r="H15" s="15" t="n"/>
+      <c r="I15" s="4" t="n"/>
+      <c r="J15" s="4" t="n"/>
+      <c r="K15" s="4" t="n"/>
+      <c r="L15" s="4" t="n"/>
+      <c r="M15" s="4" t="n"/>
+      <c r="N15" s="4" t="n"/>
+      <c r="O15" s="4" t="n"/>
+      <c r="P15" s="4" t="n"/>
+      <c r="Q15" s="4" t="n"/>
+      <c r="R15" s="4" t="n"/>
+      <c r="S15" s="4" t="n"/>
+      <c r="T15" s="4" t="n"/>
+      <c r="U15" s="4" t="n"/>
+      <c r="V15" s="4" t="n"/>
+      <c r="W15" s="4" t="n"/>
+      <c r="X15" s="4" t="n"/>
+      <c r="Y15" s="4" t="n"/>
+    </row>
+    <row r="16" customFormat="1" s="6">
+      <c r="A16" s="15" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B16" s="17" t="inlineStr">
+      <c r="B16" s="16" t="inlineStr">
         <is>
           <t>Христачев</t>
         </is>
       </c>
-      <c r="C16" s="16" t="inlineStr">
+      <c r="C16" s="15" t="inlineStr">
         <is>
           <t>Александр</t>
         </is>
       </c>
-      <c r="D16" s="16" t="inlineStr">
+      <c r="D16" s="15" t="inlineStr">
         <is>
           <t>Евгеньевич</t>
         </is>
       </c>
-      <c r="E16" s="16" t="inlineStr">
+      <c r="E16" s="15" t="inlineStr">
         <is>
           <t>ведущий инженер-программист</t>
         </is>
       </c>
-      <c r="F16" s="18" t="n">
+      <c r="F16" s="17" t="n">
         <v>67383</v>
       </c>
-      <c r="G16" s="19" t="n">
+      <c r="G16" s="18" t="n">
         <v>22691</v>
       </c>
-      <c r="H16" s="16" t="n"/>
-      <c r="I16" s="16" t="n"/>
-      <c r="J16" s="16" t="n"/>
-      <c r="K16" s="16" t="n"/>
-      <c r="L16" s="16" t="n"/>
-      <c r="M16" s="16" t="n"/>
-      <c r="N16" s="16" t="n"/>
-      <c r="O16" s="16" t="n"/>
-      <c r="P16" s="16" t="n"/>
-      <c r="Q16" s="16" t="n"/>
-      <c r="R16" s="16" t="n"/>
-      <c r="S16" s="16" t="n"/>
-      <c r="T16" s="16" t="n"/>
-      <c r="U16" s="16" t="n"/>
-      <c r="V16" s="16" t="n"/>
-      <c r="W16" s="16" t="n"/>
-      <c r="X16" s="16" t="n"/>
-      <c r="Y16" s="16" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="16" t="inlineStr">
+      <c r="H16" s="15" t="n"/>
+      <c r="I16" s="5" t="n"/>
+      <c r="J16" s="5" t="n"/>
+      <c r="K16" s="5" t="n"/>
+      <c r="L16" s="5" t="n"/>
+      <c r="M16" s="5" t="n"/>
+      <c r="N16" s="5" t="n"/>
+      <c r="O16" s="5" t="n"/>
+      <c r="P16" s="5" t="n"/>
+      <c r="Q16" s="5" t="n"/>
+      <c r="R16" s="5" t="n"/>
+      <c r="S16" s="5" t="n"/>
+      <c r="T16" s="5" t="n"/>
+      <c r="U16" s="5" t="n"/>
+      <c r="V16" s="5" t="n"/>
+      <c r="W16" s="5" t="n"/>
+      <c r="X16" s="5" t="n"/>
+      <c r="Y16" s="5" t="n"/>
+    </row>
+    <row r="17" customFormat="1" s="6">
+      <c r="A17" s="15" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B17" s="17" t="inlineStr">
+      <c r="B17" s="16" t="inlineStr">
         <is>
           <t>Щипунова</t>
         </is>
       </c>
-      <c r="C17" s="16" t="inlineStr">
+      <c r="C17" s="15" t="inlineStr">
         <is>
           <t>Надежда</t>
         </is>
       </c>
-      <c r="D17" s="16" t="inlineStr">
+      <c r="D17" s="15" t="inlineStr">
         <is>
           <t>Алексеевна</t>
         </is>
       </c>
-      <c r="E17" s="16" t="inlineStr">
+      <c r="E17" s="15" t="inlineStr">
         <is>
           <t>вед. инженер-технолог</t>
         </is>
       </c>
-      <c r="F17" s="18" t="n">
+      <c r="F17" s="17" t="n">
         <v>1783</v>
       </c>
-      <c r="G17" s="19" t="n">
+      <c r="G17" s="18" t="n">
         <v>19582</v>
       </c>
-      <c r="H17" s="16" t="n"/>
-      <c r="I17" s="16" t="n"/>
-      <c r="J17" s="16" t="n"/>
-      <c r="K17" s="16" t="n"/>
-      <c r="L17" s="16" t="n"/>
-      <c r="M17" s="16" t="n"/>
-      <c r="N17" s="16" t="n"/>
-      <c r="O17" s="16" t="n"/>
-      <c r="P17" s="16" t="n"/>
-      <c r="Q17" s="16" t="n"/>
-      <c r="R17" s="16" t="n"/>
-      <c r="S17" s="16" t="n"/>
-      <c r="T17" s="16" t="n"/>
-      <c r="U17" s="16" t="n"/>
-      <c r="V17" s="16" t="n"/>
-      <c r="W17" s="16" t="n"/>
-      <c r="X17" s="16" t="n"/>
-      <c r="Y17" s="16" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="16" t="inlineStr">
+      <c r="H17" s="15" t="n"/>
+      <c r="I17" s="5" t="n"/>
+      <c r="J17" s="5" t="n"/>
+      <c r="K17" s="5" t="n"/>
+      <c r="L17" s="5" t="n"/>
+      <c r="M17" s="5" t="n"/>
+      <c r="N17" s="5" t="n"/>
+      <c r="O17" s="5" t="n"/>
+      <c r="P17" s="5" t="n"/>
+      <c r="Q17" s="5" t="n"/>
+      <c r="R17" s="5" t="n"/>
+      <c r="S17" s="5" t="n"/>
+      <c r="T17" s="5" t="n"/>
+      <c r="U17" s="5" t="n"/>
+      <c r="V17" s="5" t="n"/>
+      <c r="W17" s="5" t="n"/>
+      <c r="X17" s="5" t="n"/>
+      <c r="Y17" s="5" t="n"/>
+    </row>
+    <row r="18" customFormat="1" s="6">
+      <c r="A18" s="15" t="inlineStr">
         <is>
           <t>ГТВ</t>
         </is>
       </c>
-      <c r="B18" s="17" t="inlineStr">
+      <c r="B18" s="16" t="inlineStr">
         <is>
           <t>Бенин</t>
         </is>
       </c>
-      <c r="C18" s="16" t="inlineStr">
+      <c r="C18" s="15" t="inlineStr">
         <is>
           <t>Александр</t>
         </is>
       </c>
-      <c r="D18" s="16" t="inlineStr">
+      <c r="D18" s="15" t="inlineStr">
         <is>
           <t>Исаакович</t>
         </is>
       </c>
-      <c r="E18" s="16" t="inlineStr">
+      <c r="E18" s="15" t="inlineStr">
         <is>
           <t>вед. научный сотрудник</t>
         </is>
       </c>
-      <c r="F18" s="18" t="n"/>
-      <c r="G18" s="16" t="n"/>
-      <c r="H18" s="20" t="inlineStr">
+      <c r="F18" s="17" t="n">
+        <v>5310</v>
+      </c>
+      <c r="G18" s="15" t="n"/>
+      <c r="H18" s="19" t="inlineStr">
         <is>
           <t>benin@cisp.spb.ru</t>
         </is>
       </c>
-      <c r="I18" s="16" t="n"/>
-      <c r="J18" s="16" t="n"/>
-      <c r="K18" s="16" t="n"/>
-      <c r="L18" s="16" t="n"/>
-      <c r="M18" s="16" t="n"/>
-      <c r="N18" s="16" t="n"/>
-      <c r="O18" s="16" t="n"/>
-      <c r="P18" s="16" t="n"/>
-      <c r="Q18" s="16" t="n"/>
-      <c r="R18" s="16" t="n"/>
-      <c r="S18" s="16" t="n"/>
-      <c r="T18" s="16" t="n"/>
-      <c r="U18" s="16" t="n"/>
-      <c r="V18" s="16" t="n"/>
-      <c r="W18" s="16" t="n"/>
-      <c r="X18" s="16" t="n"/>
-      <c r="Y18" s="16" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="16" t="inlineStr">
+      <c r="I18" s="5" t="n"/>
+      <c r="J18" s="5" t="n"/>
+      <c r="K18" s="5" t="n"/>
+      <c r="L18" s="5" t="n"/>
+      <c r="M18" s="5" t="n"/>
+      <c r="N18" s="5" t="n"/>
+      <c r="O18" s="5" t="n"/>
+      <c r="P18" s="5" t="n"/>
+      <c r="Q18" s="5" t="n"/>
+      <c r="R18" s="5" t="n"/>
+      <c r="S18" s="5" t="n"/>
+      <c r="T18" s="5" t="n"/>
+      <c r="U18" s="5" t="n"/>
+      <c r="V18" s="5" t="n"/>
+      <c r="W18" s="5" t="n"/>
+      <c r="X18" s="5" t="n"/>
+      <c r="Y18" s="5" t="n"/>
+    </row>
+    <row r="19" customFormat="1" s="6">
+      <c r="A19" s="15" t="inlineStr">
         <is>
           <t>ГФФ</t>
         </is>
       </c>
-      <c r="B19" s="17" t="inlineStr">
+      <c r="B19" s="16" t="inlineStr">
         <is>
           <t>Барнаш</t>
         </is>
       </c>
-      <c r="C19" s="16" t="inlineStr">
+      <c r="C19" s="15" t="inlineStr">
         <is>
           <t>Ярослав</t>
         </is>
       </c>
-      <c r="D19" s="16" t="inlineStr">
+      <c r="D19" s="15" t="inlineStr">
         <is>
           <t>Валерьевич</t>
         </is>
       </c>
-      <c r="E19" s="16" t="inlineStr">
+      <c r="E19" s="15" t="inlineStr">
         <is>
           <t>лаборант-исследователь</t>
         </is>
       </c>
-      <c r="F19" s="18" t="n">
+      <c r="F19" s="17" t="n">
         <v>4848</v>
       </c>
-      <c r="G19" s="16" t="n"/>
-      <c r="H19" s="16" t="n"/>
-      <c r="I19" s="16" t="n"/>
-      <c r="J19" s="16" t="n"/>
-      <c r="K19" s="16" t="n"/>
-      <c r="L19" s="16" t="n"/>
-      <c r="M19" s="16" t="n"/>
-      <c r="N19" s="16" t="n"/>
-      <c r="O19" s="16" t="n"/>
-      <c r="P19" s="16" t="n"/>
-      <c r="Q19" s="16" t="n"/>
-      <c r="R19" s="16" t="n"/>
-      <c r="S19" s="16" t="n"/>
-      <c r="T19" s="16" t="n"/>
-      <c r="U19" s="16" t="n"/>
-      <c r="V19" s="16" t="n"/>
-      <c r="W19" s="16" t="n"/>
-      <c r="X19" s="16" t="n"/>
-      <c r="Y19" s="16" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="16" t="inlineStr">
+      <c r="G19" s="15" t="n"/>
+      <c r="H19" s="15" t="n"/>
+      <c r="I19" s="5" t="n"/>
+      <c r="J19" s="5" t="n"/>
+      <c r="K19" s="5" t="n"/>
+      <c r="L19" s="5" t="n"/>
+      <c r="M19" s="5" t="n"/>
+      <c r="N19" s="5" t="n"/>
+      <c r="O19" s="5" t="n"/>
+      <c r="P19" s="5" t="n"/>
+      <c r="Q19" s="5" t="n"/>
+      <c r="R19" s="5" t="n"/>
+      <c r="S19" s="5" t="n"/>
+      <c r="T19" s="5" t="n"/>
+      <c r="U19" s="5" t="n"/>
+      <c r="V19" s="5" t="n"/>
+      <c r="W19" s="5" t="n"/>
+      <c r="X19" s="5" t="n"/>
+      <c r="Y19" s="5" t="n"/>
+    </row>
+    <row r="20" customFormat="1" s="6">
+      <c r="A20" s="15" t="inlineStr">
         <is>
           <t>ГФФ</t>
         </is>
       </c>
-      <c r="B20" s="17" t="inlineStr">
+      <c r="B20" s="16" t="inlineStr">
         <is>
           <t>Зубцова</t>
         </is>
       </c>
-      <c r="C20" s="16" t="inlineStr">
+      <c r="C20" s="15" t="inlineStr">
         <is>
           <t>Юлия</t>
         </is>
       </c>
-      <c r="D20" s="16" t="inlineStr">
+      <c r="D20" s="15" t="inlineStr">
         <is>
           <t>Александровна</t>
         </is>
       </c>
-      <c r="E20" s="16" t="inlineStr">
+      <c r="E20" s="15" t="inlineStr">
         <is>
           <t>научный сотрудник</t>
         </is>
       </c>
-      <c r="F20" s="18" t="n">
+      <c r="F20" s="17" t="n">
         <v>4584</v>
       </c>
-      <c r="G20" s="16" t="n"/>
-      <c r="H20" s="16" t="n"/>
-      <c r="I20" s="16" t="n"/>
-      <c r="J20" s="16" t="n"/>
-      <c r="K20" s="16" t="n"/>
-      <c r="L20" s="16" t="n"/>
-      <c r="M20" s="16" t="n"/>
-      <c r="N20" s="16" t="n"/>
-      <c r="O20" s="16" t="n"/>
-      <c r="P20" s="16" t="n"/>
-      <c r="Q20" s="16" t="n"/>
-      <c r="R20" s="16" t="n"/>
-      <c r="S20" s="16" t="n"/>
-      <c r="T20" s="16" t="n"/>
-      <c r="U20" s="16" t="n"/>
-      <c r="V20" s="16" t="n"/>
-      <c r="W20" s="16" t="n"/>
-      <c r="X20" s="16" t="n"/>
-      <c r="Y20" s="16" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="16" t="inlineStr">
+      <c r="G20" s="15" t="n"/>
+      <c r="H20" s="15" t="n"/>
+      <c r="I20" s="5" t="n"/>
+      <c r="J20" s="5" t="n"/>
+      <c r="K20" s="5" t="n"/>
+      <c r="L20" s="5" t="n"/>
+      <c r="M20" s="5" t="n"/>
+      <c r="N20" s="5" t="n"/>
+      <c r="O20" s="5" t="n"/>
+      <c r="P20" s="5" t="n"/>
+      <c r="Q20" s="5" t="n"/>
+      <c r="R20" s="5" t="n"/>
+      <c r="S20" s="5" t="n"/>
+      <c r="T20" s="5" t="n"/>
+      <c r="U20" s="5" t="n"/>
+      <c r="V20" s="5" t="n"/>
+      <c r="W20" s="5" t="n"/>
+      <c r="X20" s="5" t="n"/>
+      <c r="Y20" s="5" t="n"/>
+    </row>
+    <row r="21" customFormat="1" s="6">
+      <c r="A21" s="15" t="inlineStr">
         <is>
           <t>ГФФ</t>
         </is>
       </c>
-      <c r="B21" s="17" t="inlineStr">
+      <c r="B21" s="16" t="inlineStr">
         <is>
           <t>Каманина</t>
         </is>
       </c>
-      <c r="C21" s="16" t="inlineStr">
+      <c r="C21" s="15" t="inlineStr">
         <is>
           <t>Наталия</t>
         </is>
       </c>
-      <c r="D21" s="16" t="inlineStr">
+      <c r="D21" s="15" t="inlineStr">
         <is>
           <t>Владимировна</t>
         </is>
       </c>
-      <c r="E21" s="16" t="inlineStr">
+      <c r="E21" s="15" t="inlineStr">
         <is>
           <t>вед. научный сотрудник</t>
         </is>
       </c>
-      <c r="F21" s="18" t="n">
+      <c r="F21" s="17" t="n">
         <v>4583</v>
       </c>
-      <c r="G21" s="16" t="n"/>
-      <c r="H21" s="16" t="n"/>
-      <c r="I21" s="16" t="n"/>
-      <c r="J21" s="16" t="n"/>
-      <c r="K21" s="16" t="n"/>
-      <c r="L21" s="16" t="n"/>
-      <c r="M21" s="16" t="n"/>
-      <c r="N21" s="16" t="n"/>
-      <c r="O21" s="16" t="n"/>
-      <c r="P21" s="16" t="n"/>
-      <c r="Q21" s="16" t="n"/>
-      <c r="R21" s="16" t="n"/>
-      <c r="S21" s="16" t="n"/>
-      <c r="T21" s="16" t="n"/>
-      <c r="U21" s="16" t="n"/>
-      <c r="V21" s="16" t="n"/>
-      <c r="W21" s="16" t="n"/>
-      <c r="X21" s="16" t="n"/>
-      <c r="Y21" s="16" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="16" t="inlineStr">
+      <c r="G21" s="15" t="n"/>
+      <c r="H21" s="15" t="n"/>
+      <c r="I21" s="5" t="n"/>
+      <c r="J21" s="5" t="n"/>
+      <c r="K21" s="5" t="n"/>
+      <c r="L21" s="5" t="n"/>
+      <c r="M21" s="5" t="n"/>
+      <c r="N21" s="5" t="n"/>
+      <c r="O21" s="5" t="n"/>
+      <c r="P21" s="5" t="n"/>
+      <c r="Q21" s="5" t="n"/>
+      <c r="R21" s="5" t="n"/>
+      <c r="S21" s="5" t="n"/>
+      <c r="T21" s="5" t="n"/>
+      <c r="U21" s="5" t="n"/>
+      <c r="V21" s="5" t="n"/>
+      <c r="W21" s="5" t="n"/>
+      <c r="X21" s="5" t="n"/>
+      <c r="Y21" s="5" t="n"/>
+    </row>
+    <row r="22" customFormat="1" s="6">
+      <c r="A22" s="15" t="inlineStr">
         <is>
           <t>ГФФ</t>
         </is>
       </c>
-      <c r="B22" s="16" t="inlineStr">
+      <c r="B22" s="15" t="inlineStr">
         <is>
           <t>Кужаков</t>
         </is>
       </c>
-      <c r="C22" s="16" t="inlineStr">
+      <c r="C22" s="15" t="inlineStr">
         <is>
           <t>Павел</t>
         </is>
       </c>
-      <c r="D22" s="16" t="inlineStr">
+      <c r="D22" s="15" t="inlineStr">
         <is>
           <t>Викторович</t>
         </is>
       </c>
-      <c r="E22" s="16" t="inlineStr">
+      <c r="E22" s="15" t="inlineStr">
         <is>
           <t>научный сотрудник</t>
         </is>
       </c>
-      <c r="F22" s="18" t="n">
+      <c r="F22" s="17" t="n">
         <v>4585</v>
       </c>
-      <c r="G22" s="16" t="n"/>
-      <c r="H22" s="16" t="n"/>
-      <c r="I22" s="16" t="n"/>
-      <c r="J22" s="16" t="n"/>
-      <c r="K22" s="16" t="n"/>
-      <c r="L22" s="16" t="n"/>
-      <c r="M22" s="16" t="n"/>
-      <c r="N22" s="16" t="n"/>
-      <c r="O22" s="16" t="n"/>
-      <c r="P22" s="16" t="n"/>
-      <c r="Q22" s="16" t="n"/>
-      <c r="R22" s="16" t="n"/>
-      <c r="S22" s="16" t="n"/>
-      <c r="T22" s="16" t="n"/>
-      <c r="U22" s="16" t="n"/>
-      <c r="V22" s="16" t="n"/>
-      <c r="W22" s="16" t="n"/>
-      <c r="X22" s="16" t="n"/>
-      <c r="Y22" s="16" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="10" t="inlineStr">
+      <c r="G22" s="15" t="n"/>
+      <c r="H22" s="15" t="n"/>
+      <c r="I22" s="5" t="n"/>
+      <c r="J22" s="5" t="n"/>
+      <c r="K22" s="5" t="n"/>
+      <c r="L22" s="5" t="n"/>
+      <c r="M22" s="5" t="n"/>
+      <c r="N22" s="5" t="n"/>
+      <c r="O22" s="5" t="n"/>
+      <c r="P22" s="5" t="n"/>
+      <c r="Q22" s="5" t="n"/>
+      <c r="R22" s="5" t="n"/>
+      <c r="S22" s="5" t="n"/>
+      <c r="T22" s="5" t="n"/>
+      <c r="U22" s="5" t="n"/>
+      <c r="V22" s="5" t="n"/>
+      <c r="W22" s="5" t="n"/>
+      <c r="X22" s="5" t="n"/>
+      <c r="Y22" s="5" t="n"/>
+    </row>
+    <row r="23" customFormat="1" s="6">
+      <c r="A23" s="15" t="inlineStr">
         <is>
           <t>ГФФ</t>
         </is>
       </c>
-      <c r="B23" s="11" t="inlineStr">
+      <c r="B23" s="16" t="inlineStr">
         <is>
           <t>Лихоманова</t>
         </is>
       </c>
-      <c r="C23" s="10" t="inlineStr">
+      <c r="C23" s="15" t="inlineStr">
         <is>
           <t>Светлана</t>
         </is>
       </c>
-      <c r="D23" s="10" t="inlineStr">
+      <c r="D23" s="15" t="inlineStr">
         <is>
           <t>Владимировна</t>
         </is>
       </c>
-      <c r="E23" s="10" t="inlineStr">
+      <c r="E23" s="15" t="inlineStr">
         <is>
           <t>научный сотрудник</t>
         </is>
       </c>
-      <c r="F23" s="12" t="n">
+      <c r="F23" s="17" t="n">
         <v>4669</v>
       </c>
-      <c r="G23" s="10" t="n"/>
-      <c r="H23" s="10" t="n"/>
-      <c r="I23" s="16" t="n"/>
-      <c r="J23" s="16" t="n"/>
-      <c r="K23" s="16" t="n"/>
-      <c r="L23" s="16" t="n"/>
-      <c r="M23" s="16" t="n"/>
-      <c r="N23" s="16" t="n"/>
-      <c r="O23" s="16" t="n"/>
-      <c r="P23" s="16" t="n"/>
-      <c r="Q23" s="16" t="n"/>
-      <c r="R23" s="16" t="n"/>
-      <c r="S23" s="16" t="n"/>
-      <c r="T23" s="16" t="n"/>
-      <c r="U23" s="16" t="n"/>
-      <c r="V23" s="16" t="n"/>
-      <c r="W23" s="16" t="n"/>
-      <c r="X23" s="16" t="n"/>
-      <c r="Y23" s="16" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="10" t="inlineStr">
+      <c r="G23" s="15" t="n"/>
+      <c r="H23" s="15" t="n"/>
+      <c r="I23" s="5" t="n"/>
+      <c r="J23" s="5" t="n"/>
+      <c r="K23" s="5" t="n"/>
+      <c r="L23" s="5" t="n"/>
+      <c r="M23" s="5" t="n"/>
+      <c r="N23" s="5" t="n"/>
+      <c r="O23" s="5" t="n"/>
+      <c r="P23" s="5" t="n"/>
+      <c r="Q23" s="5" t="n"/>
+      <c r="R23" s="5" t="n"/>
+      <c r="S23" s="5" t="n"/>
+      <c r="T23" s="5" t="n"/>
+      <c r="U23" s="5" t="n"/>
+      <c r="V23" s="5" t="n"/>
+      <c r="W23" s="5" t="n"/>
+      <c r="X23" s="5" t="n"/>
+      <c r="Y23" s="5" t="n"/>
+    </row>
+    <row r="24" customFormat="1" s="6">
+      <c r="A24" s="15" t="inlineStr">
         <is>
           <t>ГФФ</t>
         </is>
       </c>
-      <c r="B24" s="11" t="inlineStr">
+      <c r="B24" s="16" t="inlineStr">
         <is>
           <t>Тойкка</t>
         </is>
       </c>
-      <c r="C24" s="10" t="inlineStr">
+      <c r="C24" s="15" t="inlineStr">
         <is>
           <t>Андрей</t>
         </is>
       </c>
-      <c r="D24" s="10" t="inlineStr">
+      <c r="D24" s="15" t="inlineStr">
         <is>
           <t>Сергеевич</t>
         </is>
       </c>
-      <c r="E24" s="10" t="inlineStr">
+      <c r="E24" s="15" t="inlineStr">
         <is>
           <t>лаборант-исследователь</t>
         </is>
       </c>
-      <c r="F24" s="12" t="n">
+      <c r="F24" s="17" t="n">
         <v>4587</v>
       </c>
-      <c r="G24" s="10" t="n"/>
-      <c r="H24" s="10" t="n"/>
+      <c r="G24" s="15" t="n"/>
+      <c r="H24" s="15" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="inlineStr">
+      <c r="A25" s="15" t="inlineStr">
         <is>
           <t>ГФФ</t>
         </is>
       </c>
-      <c r="B25" s="11" t="inlineStr">
+      <c r="B25" s="16" t="inlineStr">
         <is>
           <t>Федерова</t>
         </is>
       </c>
-      <c r="C25" s="10" t="inlineStr">
+      <c r="C25" s="15" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="D25" s="10" t="inlineStr">
+      <c r="D25" s="15" t="inlineStr">
         <is>
           <t>Олеговна</t>
         </is>
       </c>
-      <c r="E25" s="10" t="inlineStr">
+      <c r="E25" s="15" t="inlineStr">
         <is>
           <t>лаборант-исследователь</t>
         </is>
       </c>
-      <c r="F25" s="12" t="n">
+      <c r="F25" s="17" t="n">
         <v>5198</v>
       </c>
-      <c r="G25" s="10" t="n"/>
-      <c r="H25" s="10" t="n"/>
+      <c r="G25" s="15" t="n"/>
+      <c r="H25" s="15" t="n"/>
     </row>
     <row r="26"/>
   </sheetData>
@@ -1715,4 +1751,86 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="29.85546875" customWidth="1" style="2" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Табельный номер</t>
+        </is>
+      </c>
+      <c r="B2" s="13" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Премия</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Должность</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Итого</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PIYAF/Шаблон.XLSX
+++ b/PIYAF/Шаблон.XLSX
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Работники" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <name val="Calibri"/>
@@ -68,7 +70,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -92,10 +101,18 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -114,42 +131,46 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -500,1248 +521,1256 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="19.140625" customWidth="1" style="2" min="1" max="1"/>
-    <col width="19.5703125" customWidth="1" style="3" min="2" max="2"/>
-    <col width="19.5703125" customWidth="1" style="2" min="3" max="4"/>
-    <col width="35.5703125" customWidth="1" style="2" min="5" max="5"/>
-    <col width="19.5703125" customWidth="1" style="2" min="6" max="7"/>
-    <col width="26.42578125" customWidth="1" style="2" min="8" max="8"/>
+    <col width="19.109375" customWidth="1" min="1" max="1"/>
+    <col width="19.5546875" customWidth="1" style="2" min="2" max="2"/>
+    <col width="19.5546875" customWidth="1" min="3" max="4"/>
+    <col width="35.5546875" customWidth="1" min="5" max="5"/>
+    <col width="19.5546875" customWidth="1" min="6" max="7"/>
+    <col width="26.44140625" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="1">
-      <c r="A1" s="14" t="inlineStr">
+      <c r="A1" s="15" t="inlineStr">
         <is>
           <t>Группа</t>
         </is>
       </c>
-      <c r="B1" s="14" t="inlineStr">
+      <c r="B1" s="15" t="inlineStr">
         <is>
           <t>Фамилия</t>
         </is>
       </c>
-      <c r="C1" s="14" t="inlineStr">
+      <c r="C1" s="15" t="inlineStr">
         <is>
           <t>Имя</t>
         </is>
       </c>
-      <c r="D1" s="14" t="inlineStr">
+      <c r="D1" s="15" t="inlineStr">
         <is>
           <t>Отчество</t>
         </is>
       </c>
-      <c r="E1" s="14" t="inlineStr">
+      <c r="E1" s="15" t="inlineStr">
         <is>
           <t>Должность</t>
         </is>
       </c>
-      <c r="F1" s="14" t="inlineStr">
+      <c r="F1" s="15" t="inlineStr">
         <is>
           <t>Табельный номер</t>
         </is>
       </c>
-      <c r="G1" s="14" t="inlineStr">
+      <c r="G1" s="15" t="inlineStr">
         <is>
           <t>Дата рождения</t>
         </is>
       </c>
-      <c r="H1" s="14" t="inlineStr">
+      <c r="H1" s="15" t="inlineStr">
         <is>
           <t>e-mail</t>
         </is>
       </c>
-      <c r="I1" s="4" t="n"/>
-      <c r="J1" s="4" t="n"/>
-      <c r="K1" s="4" t="n"/>
-      <c r="L1" s="4" t="n"/>
-      <c r="M1" s="4" t="n"/>
-      <c r="N1" s="4" t="n"/>
-      <c r="O1" s="4" t="n"/>
-      <c r="P1" s="4" t="n"/>
-      <c r="Q1" s="4" t="n"/>
-      <c r="R1" s="4" t="n"/>
-      <c r="S1" s="4" t="n"/>
-      <c r="T1" s="4" t="n"/>
-      <c r="U1" s="4" t="n"/>
-      <c r="V1" s="4" t="n"/>
-      <c r="W1" s="4" t="n"/>
-      <c r="X1" s="4" t="n"/>
-      <c r="Y1" s="4" t="n"/>
-    </row>
-    <row r="2" customFormat="1" s="6">
-      <c r="A2" s="15" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+      <c r="X1" s="3" t="n"/>
+      <c r="Y1" s="3" t="n"/>
+    </row>
+    <row r="2" customFormat="1" s="5">
+      <c r="A2" s="16" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B2" s="16" t="inlineStr">
+      <c r="B2" s="17" t="inlineStr">
         <is>
           <t>Вилков</t>
         </is>
       </c>
-      <c r="C2" s="15" t="inlineStr">
+      <c r="C2" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve">Евгений </t>
         </is>
       </c>
-      <c r="D2" s="15" t="inlineStr">
+      <c r="D2" s="16" t="inlineStr">
         <is>
           <t>Александрович</t>
         </is>
       </c>
-      <c r="E2" s="15" t="inlineStr">
+      <c r="E2" s="16" t="inlineStr">
         <is>
           <t>инженер-программист 1 категории</t>
         </is>
       </c>
-      <c r="F2" s="17" t="n">
+      <c r="F2" s="18" t="n">
         <v>1146</v>
       </c>
-      <c r="G2" s="18" t="n">
+      <c r="G2" s="19" t="n">
         <v>31382</v>
       </c>
-      <c r="H2" s="15" t="n"/>
-      <c r="I2" s="5" t="n"/>
-      <c r="J2" s="5" t="n"/>
-      <c r="K2" s="5" t="n"/>
-      <c r="L2" s="5" t="n"/>
-      <c r="M2" s="5" t="n"/>
-      <c r="N2" s="5" t="n"/>
-      <c r="O2" s="5" t="n"/>
-      <c r="P2" s="5" t="n"/>
-      <c r="Q2" s="5" t="n"/>
-      <c r="R2" s="5" t="n"/>
-      <c r="S2" s="5" t="n"/>
-      <c r="T2" s="5" t="n"/>
-      <c r="U2" s="5" t="n"/>
-      <c r="V2" s="5" t="n"/>
-      <c r="W2" s="5" t="n"/>
-      <c r="X2" s="5" t="n"/>
-      <c r="Y2" s="5" t="n"/>
-    </row>
-    <row r="3" customFormat="1" s="6">
-      <c r="A3" s="15" t="inlineStr">
+      <c r="H2" s="16" t="n"/>
+      <c r="I2" s="4" t="n"/>
+      <c r="J2" s="4" t="n"/>
+      <c r="K2" s="4" t="n"/>
+      <c r="L2" s="4" t="n"/>
+      <c r="M2" s="4" t="n"/>
+      <c r="N2" s="4" t="n"/>
+      <c r="O2" s="4" t="n"/>
+      <c r="P2" s="4" t="n"/>
+      <c r="Q2" s="4" t="n"/>
+      <c r="R2" s="4" t="n"/>
+      <c r="S2" s="4" t="n"/>
+      <c r="T2" s="4" t="n"/>
+      <c r="U2" s="4" t="n"/>
+      <c r="V2" s="4" t="n"/>
+      <c r="W2" s="4" t="n"/>
+      <c r="X2" s="4" t="n"/>
+      <c r="Y2" s="4" t="n"/>
+    </row>
+    <row r="3" customFormat="1" s="5">
+      <c r="A3" s="16" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B3" s="16" t="inlineStr">
+      <c r="B3" s="17" t="inlineStr">
         <is>
           <t>Гаврилова</t>
         </is>
       </c>
-      <c r="C3" s="15" t="inlineStr">
+      <c r="C3" s="16" t="inlineStr">
         <is>
           <t>Наталия</t>
         </is>
       </c>
-      <c r="D3" s="15" t="inlineStr">
+      <c r="D3" s="16" t="inlineStr">
         <is>
           <t>Николаевна</t>
         </is>
       </c>
-      <c r="E3" s="15" t="inlineStr">
+      <c r="E3" s="16" t="inlineStr">
         <is>
           <t>техник 1 категории</t>
         </is>
       </c>
-      <c r="F3" s="17" t="n">
+      <c r="F3" s="18" t="n">
         <v>1803</v>
       </c>
-      <c r="G3" s="18" t="n">
+      <c r="G3" s="19" t="n">
         <v>25776</v>
       </c>
-      <c r="H3" s="15" t="n"/>
-      <c r="I3" s="5" t="n"/>
-      <c r="J3" s="5" t="n"/>
-      <c r="K3" s="5" t="n"/>
-      <c r="L3" s="5" t="n"/>
-      <c r="M3" s="5" t="n"/>
-      <c r="N3" s="5" t="n"/>
-      <c r="O3" s="5" t="n"/>
-      <c r="P3" s="5" t="n"/>
-      <c r="Q3" s="5" t="n"/>
-      <c r="R3" s="5" t="n"/>
-      <c r="S3" s="5" t="n"/>
-      <c r="T3" s="5" t="n"/>
-      <c r="U3" s="5" t="n"/>
-      <c r="V3" s="5" t="n"/>
-      <c r="W3" s="5" t="n"/>
-      <c r="X3" s="5" t="n"/>
-      <c r="Y3" s="5" t="n"/>
+      <c r="H3" s="16" t="n"/>
+      <c r="I3" s="4" t="n"/>
+      <c r="J3" s="4" t="n"/>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="4" t="n"/>
+      <c r="M3" s="4" t="n"/>
+      <c r="N3" s="4" t="n"/>
+      <c r="O3" s="4" t="n"/>
+      <c r="P3" s="4" t="n"/>
+      <c r="Q3" s="4" t="n"/>
+      <c r="R3" s="4" t="n"/>
+      <c r="S3" s="4" t="n"/>
+      <c r="T3" s="4" t="n"/>
+      <c r="U3" s="4" t="n"/>
+      <c r="V3" s="4" t="n"/>
+      <c r="W3" s="4" t="n"/>
+      <c r="X3" s="4" t="n"/>
+      <c r="Y3" s="4" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="15" t="inlineStr">
+      <c r="A4" s="16" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B4" s="16" t="inlineStr">
+      <c r="B4" s="17" t="inlineStr">
         <is>
           <t>Гордеев</t>
         </is>
       </c>
-      <c r="C4" s="15" t="inlineStr">
+      <c r="C4" s="16" t="inlineStr">
         <is>
           <t>Сергей</t>
         </is>
       </c>
-      <c r="D4" s="15" t="inlineStr">
+      <c r="D4" s="16" t="inlineStr">
         <is>
           <t>Владимирович</t>
         </is>
       </c>
-      <c r="E4" s="15" t="inlineStr">
+      <c r="E4" s="16" t="inlineStr">
         <is>
           <t>ведущий инженер-программист</t>
         </is>
       </c>
-      <c r="F4" s="17" t="n">
+      <c r="F4" s="18" t="n">
         <v>54711</v>
       </c>
-      <c r="G4" s="18" t="n">
+      <c r="G4" s="19" t="n">
         <v>20903</v>
       </c>
-      <c r="H4" s="15" t="n"/>
-      <c r="I4" s="4" t="n"/>
-      <c r="J4" s="4" t="n"/>
-      <c r="K4" s="4" t="n"/>
-      <c r="L4" s="4" t="n"/>
-      <c r="M4" s="4" t="n"/>
-      <c r="N4" s="4" t="n"/>
-      <c r="O4" s="4" t="n"/>
-      <c r="P4" s="4" t="n"/>
-      <c r="Q4" s="4" t="n"/>
-      <c r="R4" s="4" t="n"/>
-      <c r="S4" s="4" t="n"/>
-      <c r="T4" s="4" t="n"/>
-      <c r="U4" s="4" t="n"/>
-      <c r="V4" s="4" t="n"/>
-      <c r="W4" s="4" t="n"/>
-      <c r="X4" s="4" t="n"/>
-      <c r="Y4" s="4" t="n"/>
-    </row>
-    <row r="5" customFormat="1" s="6">
-      <c r="A5" s="15" t="inlineStr">
+      <c r="H4" s="16" t="n"/>
+      <c r="I4" s="3" t="n"/>
+      <c r="J4" s="3" t="n"/>
+      <c r="K4" s="3" t="n"/>
+      <c r="L4" s="3" t="n"/>
+      <c r="M4" s="3" t="n"/>
+      <c r="N4" s="3" t="n"/>
+      <c r="O4" s="3" t="n"/>
+      <c r="P4" s="3" t="n"/>
+      <c r="Q4" s="3" t="n"/>
+      <c r="R4" s="3" t="n"/>
+      <c r="S4" s="3" t="n"/>
+      <c r="T4" s="3" t="n"/>
+      <c r="U4" s="3" t="n"/>
+      <c r="V4" s="3" t="n"/>
+      <c r="W4" s="3" t="n"/>
+      <c r="X4" s="3" t="n"/>
+      <c r="Y4" s="3" t="n"/>
+    </row>
+    <row r="5" customFormat="1" s="5">
+      <c r="A5" s="16" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B5" s="16" t="inlineStr">
+      <c r="B5" s="17" t="inlineStr">
         <is>
           <t>Добырн</t>
         </is>
       </c>
-      <c r="C5" s="15" t="inlineStr">
+      <c r="C5" s="16" t="inlineStr">
         <is>
           <t>Владислав</t>
         </is>
       </c>
-      <c r="D5" s="15" t="inlineStr">
+      <c r="D5" s="16" t="inlineStr">
         <is>
           <t>Вениаминович</t>
         </is>
       </c>
-      <c r="E5" s="15" t="inlineStr">
+      <c r="E5" s="16" t="inlineStr">
         <is>
           <t>эксперт</t>
         </is>
       </c>
-      <c r="F5" s="17" t="n">
+      <c r="F5" s="18" t="n">
         <v>983</v>
       </c>
-      <c r="G5" s="18" t="n">
+      <c r="G5" s="19" t="n">
         <v>12513</v>
       </c>
-      <c r="H5" s="15" t="n"/>
-      <c r="I5" s="5" t="n"/>
-      <c r="J5" s="5" t="n"/>
-      <c r="K5" s="5" t="n"/>
-      <c r="L5" s="5" t="n"/>
-      <c r="M5" s="5" t="n"/>
-      <c r="N5" s="5" t="n"/>
-      <c r="O5" s="5" t="n"/>
-      <c r="P5" s="5" t="n"/>
-      <c r="Q5" s="5" t="n"/>
-      <c r="R5" s="5" t="n"/>
-      <c r="S5" s="5" t="n"/>
-      <c r="T5" s="5" t="n"/>
-      <c r="U5" s="5" t="n"/>
-      <c r="V5" s="5" t="n"/>
-      <c r="W5" s="5" t="n"/>
-      <c r="X5" s="5" t="n"/>
-      <c r="Y5" s="5" t="n"/>
-    </row>
-    <row r="6" customFormat="1" s="6">
-      <c r="A6" s="15" t="inlineStr">
+      <c r="H5" s="16" t="n"/>
+      <c r="I5" s="4" t="n"/>
+      <c r="J5" s="4" t="n"/>
+      <c r="K5" s="4" t="n"/>
+      <c r="L5" s="4" t="n"/>
+      <c r="M5" s="4" t="n"/>
+      <c r="N5" s="4" t="n"/>
+      <c r="O5" s="4" t="n"/>
+      <c r="P5" s="4" t="n"/>
+      <c r="Q5" s="4" t="n"/>
+      <c r="R5" s="4" t="n"/>
+      <c r="S5" s="4" t="n"/>
+      <c r="T5" s="4" t="n"/>
+      <c r="U5" s="4" t="n"/>
+      <c r="V5" s="4" t="n"/>
+      <c r="W5" s="4" t="n"/>
+      <c r="X5" s="4" t="n"/>
+      <c r="Y5" s="4" t="n"/>
+    </row>
+    <row r="6" customFormat="1" s="5">
+      <c r="A6" s="16" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B6" s="16" t="inlineStr">
+      <c r="B6" s="17" t="inlineStr">
         <is>
           <t>Ермоленко</t>
         </is>
       </c>
-      <c r="C6" s="15" t="inlineStr">
+      <c r="C6" s="16" t="inlineStr">
         <is>
           <t>Оксана</t>
         </is>
       </c>
-      <c r="D6" s="15" t="inlineStr">
+      <c r="D6" s="16" t="inlineStr">
         <is>
           <t>Георгиевна</t>
         </is>
       </c>
-      <c r="E6" s="15" t="inlineStr">
+      <c r="E6" s="16" t="inlineStr">
         <is>
           <t>вед. инженер-технолог</t>
         </is>
       </c>
-      <c r="F6" s="17" t="n">
+      <c r="F6" s="18" t="n">
         <v>1804</v>
       </c>
-      <c r="G6" s="18" t="n">
+      <c r="G6" s="19" t="n">
         <v>23861</v>
       </c>
-      <c r="H6" s="15" t="n"/>
-      <c r="I6" s="5" t="n"/>
-      <c r="J6" s="5" t="n"/>
-      <c r="K6" s="5" t="n"/>
-      <c r="L6" s="5" t="n"/>
-      <c r="M6" s="5" t="n"/>
-      <c r="N6" s="5" t="n"/>
-      <c r="O6" s="5" t="n"/>
-      <c r="P6" s="5" t="n"/>
-      <c r="Q6" s="5" t="n"/>
-      <c r="R6" s="5" t="n"/>
-      <c r="S6" s="5" t="n"/>
-      <c r="T6" s="5" t="n"/>
-      <c r="U6" s="5" t="n"/>
-      <c r="V6" s="5" t="n"/>
-      <c r="W6" s="5" t="n"/>
-      <c r="X6" s="5" t="n"/>
-      <c r="Y6" s="5" t="n"/>
-    </row>
-    <row r="7" customFormat="1" s="6">
-      <c r="A7" s="15" t="inlineStr">
+      <c r="H6" s="16" t="n"/>
+      <c r="I6" s="4" t="n"/>
+      <c r="J6" s="4" t="n"/>
+      <c r="K6" s="4" t="n"/>
+      <c r="L6" s="4" t="n"/>
+      <c r="M6" s="4" t="n"/>
+      <c r="N6" s="4" t="n"/>
+      <c r="O6" s="4" t="n"/>
+      <c r="P6" s="4" t="n"/>
+      <c r="Q6" s="4" t="n"/>
+      <c r="R6" s="4" t="n"/>
+      <c r="S6" s="4" t="n"/>
+      <c r="T6" s="4" t="n"/>
+      <c r="U6" s="4" t="n"/>
+      <c r="V6" s="4" t="n"/>
+      <c r="W6" s="4" t="n"/>
+      <c r="X6" s="4" t="n"/>
+      <c r="Y6" s="4" t="n"/>
+    </row>
+    <row r="7" customFormat="1" s="5">
+      <c r="A7" s="16" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B7" s="16" t="inlineStr">
+      <c r="B7" s="17" t="inlineStr">
         <is>
           <t>Кадыров</t>
         </is>
       </c>
-      <c r="C7" s="15" t="inlineStr">
+      <c r="C7" s="16" t="inlineStr">
         <is>
           <t>Андрей</t>
         </is>
       </c>
-      <c r="D7" s="15" t="inlineStr">
+      <c r="D7" s="16" t="inlineStr">
         <is>
           <t>Садыкович</t>
         </is>
       </c>
-      <c r="E7" s="15" t="inlineStr">
+      <c r="E7" s="16" t="inlineStr">
         <is>
           <t>зав. отделом</t>
         </is>
       </c>
-      <c r="F7" s="17" t="n">
+      <c r="F7" s="18" t="n">
         <v>3347</v>
       </c>
-      <c r="G7" s="18" t="n">
+      <c r="G7" s="19" t="n">
         <v>25733</v>
       </c>
-      <c r="H7" s="15" t="n"/>
-      <c r="I7" s="5" t="n"/>
-      <c r="J7" s="5" t="n"/>
-      <c r="K7" s="5" t="n"/>
-      <c r="L7" s="5" t="n"/>
-      <c r="M7" s="5" t="n"/>
-      <c r="N7" s="5" t="n"/>
-      <c r="O7" s="5" t="n"/>
-      <c r="P7" s="5" t="n"/>
-      <c r="Q7" s="5" t="n"/>
-      <c r="R7" s="5" t="n"/>
-      <c r="S7" s="5" t="n"/>
-      <c r="T7" s="5" t="n"/>
-      <c r="U7" s="5" t="n"/>
-      <c r="V7" s="5" t="n"/>
-      <c r="W7" s="5" t="n"/>
-      <c r="X7" s="5" t="n"/>
-      <c r="Y7" s="5" t="n"/>
-    </row>
-    <row r="8" customFormat="1" s="6">
-      <c r="A8" s="15" t="inlineStr">
+      <c r="H7" s="16" t="n"/>
+      <c r="I7" s="4" t="n"/>
+      <c r="J7" s="4" t="n"/>
+      <c r="K7" s="4" t="n"/>
+      <c r="L7" s="4" t="n"/>
+      <c r="M7" s="4" t="n"/>
+      <c r="N7" s="4" t="n"/>
+      <c r="O7" s="4" t="n"/>
+      <c r="P7" s="4" t="n"/>
+      <c r="Q7" s="4" t="n"/>
+      <c r="R7" s="4" t="n"/>
+      <c r="S7" s="4" t="n"/>
+      <c r="T7" s="4" t="n"/>
+      <c r="U7" s="4" t="n"/>
+      <c r="V7" s="4" t="n"/>
+      <c r="W7" s="4" t="n"/>
+      <c r="X7" s="4" t="n"/>
+      <c r="Y7" s="4" t="n"/>
+    </row>
+    <row r="8" customFormat="1" s="5">
+      <c r="A8" s="16" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B8" s="16" t="inlineStr">
+      <c r="B8" s="17" t="inlineStr">
         <is>
           <t>Константинов</t>
         </is>
       </c>
-      <c r="C8" s="15" t="inlineStr">
+      <c r="C8" s="16" t="inlineStr">
         <is>
           <t>Леонид</t>
         </is>
       </c>
-      <c r="D8" s="15" t="inlineStr">
+      <c r="D8" s="16" t="inlineStr">
         <is>
           <t>Александрович</t>
         </is>
       </c>
-      <c r="E8" s="15" t="inlineStr">
+      <c r="E8" s="16" t="inlineStr">
         <is>
           <t>ведущий инженер</t>
         </is>
       </c>
-      <c r="F8" s="17" t="n">
+      <c r="F8" s="18" t="n">
         <v>2403</v>
       </c>
-      <c r="G8" s="18" t="n">
+      <c r="G8" s="19" t="n">
         <v>22113</v>
       </c>
-      <c r="H8" s="15" t="n"/>
-      <c r="I8" s="5" t="n"/>
-      <c r="J8" s="5" t="n"/>
-      <c r="K8" s="5" t="n"/>
-      <c r="L8" s="5" t="n"/>
-      <c r="M8" s="5" t="n"/>
-      <c r="N8" s="5" t="n"/>
-      <c r="O8" s="5" t="n"/>
-      <c r="P8" s="5" t="n"/>
-      <c r="Q8" s="5" t="n"/>
-      <c r="R8" s="5" t="n"/>
-      <c r="S8" s="5" t="n"/>
-      <c r="T8" s="5" t="n"/>
-      <c r="U8" s="5" t="n"/>
-      <c r="V8" s="5" t="n"/>
-      <c r="W8" s="5" t="n"/>
-      <c r="X8" s="5" t="n"/>
-      <c r="Y8" s="5" t="n"/>
-    </row>
-    <row r="9" customFormat="1" s="6">
-      <c r="A9" s="15" t="inlineStr">
+      <c r="H8" s="16" t="n"/>
+      <c r="I8" s="4" t="n"/>
+      <c r="J8" s="4" t="n"/>
+      <c r="K8" s="4" t="n"/>
+      <c r="L8" s="4" t="n"/>
+      <c r="M8" s="4" t="n"/>
+      <c r="N8" s="4" t="n"/>
+      <c r="O8" s="4" t="n"/>
+      <c r="P8" s="4" t="n"/>
+      <c r="Q8" s="4" t="n"/>
+      <c r="R8" s="4" t="n"/>
+      <c r="S8" s="4" t="n"/>
+      <c r="T8" s="4" t="n"/>
+      <c r="U8" s="4" t="n"/>
+      <c r="V8" s="4" t="n"/>
+      <c r="W8" s="4" t="n"/>
+      <c r="X8" s="4" t="n"/>
+      <c r="Y8" s="4" t="n"/>
+    </row>
+    <row r="9" customFormat="1" s="5">
+      <c r="A9" s="16" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B9" s="16" t="inlineStr">
+      <c r="B9" s="17" t="inlineStr">
         <is>
           <t>Кормин</t>
         </is>
       </c>
-      <c r="C9" s="15" t="inlineStr">
+      <c r="C9" s="16" t="inlineStr">
         <is>
           <t>Владимир</t>
         </is>
       </c>
-      <c r="D9" s="15" t="inlineStr">
+      <c r="D9" s="16" t="inlineStr">
         <is>
           <t>Евгеньевич</t>
         </is>
       </c>
-      <c r="E9" s="15" t="inlineStr">
+      <c r="E9" s="16" t="inlineStr">
         <is>
           <t>инженер-программист</t>
         </is>
       </c>
-      <c r="F9" s="17" t="n">
+      <c r="F9" s="18" t="n">
         <v>55867</v>
       </c>
-      <c r="G9" s="18" t="n">
+      <c r="G9" s="19" t="n">
         <v>28787</v>
       </c>
-      <c r="H9" s="15" t="n"/>
-      <c r="I9" s="5" t="n"/>
-      <c r="J9" s="5" t="n"/>
-      <c r="K9" s="5" t="n"/>
-      <c r="L9" s="5" t="n"/>
-      <c r="M9" s="5" t="n"/>
-      <c r="N9" s="5" t="n"/>
-      <c r="O9" s="5" t="n"/>
-      <c r="P9" s="5" t="n"/>
-      <c r="Q9" s="5" t="n"/>
-      <c r="R9" s="5" t="n"/>
-      <c r="S9" s="5" t="n"/>
-      <c r="T9" s="5" t="n"/>
-      <c r="U9" s="5" t="n"/>
-      <c r="V9" s="5" t="n"/>
-      <c r="W9" s="5" t="n"/>
-      <c r="X9" s="5" t="n"/>
-      <c r="Y9" s="5" t="n"/>
+      <c r="H9" s="16" t="n"/>
+      <c r="I9" s="4" t="n"/>
+      <c r="J9" s="4" t="n"/>
+      <c r="K9" s="4" t="n"/>
+      <c r="L9" s="4" t="n"/>
+      <c r="M9" s="4" t="n"/>
+      <c r="N9" s="4" t="n"/>
+      <c r="O9" s="4" t="n"/>
+      <c r="P9" s="4" t="n"/>
+      <c r="Q9" s="4" t="n"/>
+      <c r="R9" s="4" t="n"/>
+      <c r="S9" s="4" t="n"/>
+      <c r="T9" s="4" t="n"/>
+      <c r="U9" s="4" t="n"/>
+      <c r="V9" s="4" t="n"/>
+      <c r="W9" s="4" t="n"/>
+      <c r="X9" s="4" t="n"/>
+      <c r="Y9" s="4" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="15" t="inlineStr">
+      <c r="A10" s="16" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B10" s="16" t="inlineStr">
+      <c r="B10" s="17" t="inlineStr">
         <is>
           <t>Лавров</t>
         </is>
       </c>
-      <c r="C10" s="15" t="inlineStr">
+      <c r="C10" s="16" t="inlineStr">
         <is>
           <t>Юрий</t>
         </is>
       </c>
-      <c r="D10" s="15" t="inlineStr">
+      <c r="D10" s="16" t="inlineStr">
         <is>
           <t>Михайлович</t>
         </is>
       </c>
-      <c r="E10" s="15" t="inlineStr">
+      <c r="E10" s="16" t="inlineStr">
         <is>
           <t>эксперт</t>
         </is>
       </c>
-      <c r="F10" s="17" t="n">
+      <c r="F10" s="18" t="n">
         <v>1777</v>
       </c>
-      <c r="G10" s="18" t="n">
+      <c r="G10" s="19" t="n">
         <v>22779</v>
       </c>
-      <c r="H10" s="15" t="n"/>
-      <c r="I10" s="4" t="n"/>
-      <c r="J10" s="4" t="n"/>
-      <c r="K10" s="4" t="n"/>
-      <c r="L10" s="4" t="n"/>
-      <c r="M10" s="4" t="n"/>
-      <c r="N10" s="4" t="n"/>
-      <c r="O10" s="4" t="n"/>
-      <c r="P10" s="4" t="n"/>
-      <c r="Q10" s="4" t="n"/>
-      <c r="R10" s="4" t="n"/>
-      <c r="S10" s="4" t="n"/>
-      <c r="T10" s="4" t="n"/>
-      <c r="U10" s="4" t="n"/>
-      <c r="V10" s="4" t="n"/>
-      <c r="W10" s="4" t="n"/>
-      <c r="X10" s="4" t="n"/>
-      <c r="Y10" s="4" t="n"/>
-    </row>
-    <row r="11" customFormat="1" s="6">
-      <c r="A11" s="15" t="inlineStr">
+      <c r="H10" s="16" t="n"/>
+      <c r="I10" s="3" t="n"/>
+      <c r="J10" s="3" t="n"/>
+      <c r="K10" s="3" t="n"/>
+      <c r="L10" s="3" t="n"/>
+      <c r="M10" s="3" t="n"/>
+      <c r="N10" s="3" t="n"/>
+      <c r="O10" s="3" t="n"/>
+      <c r="P10" s="3" t="n"/>
+      <c r="Q10" s="3" t="n"/>
+      <c r="R10" s="3" t="n"/>
+      <c r="S10" s="3" t="n"/>
+      <c r="T10" s="3" t="n"/>
+      <c r="U10" s="3" t="n"/>
+      <c r="V10" s="3" t="n"/>
+      <c r="W10" s="3" t="n"/>
+      <c r="X10" s="3" t="n"/>
+      <c r="Y10" s="3" t="n"/>
+    </row>
+    <row r="11" customFormat="1" s="5">
+      <c r="A11" s="16" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B11" s="16" t="inlineStr">
+      <c r="B11" s="17" t="inlineStr">
         <is>
           <t>Ладатко</t>
         </is>
       </c>
-      <c r="C11" s="15" t="inlineStr">
+      <c r="C11" s="16" t="inlineStr">
         <is>
           <t>Игорь</t>
         </is>
       </c>
-      <c r="D11" s="15" t="inlineStr">
+      <c r="D11" s="16" t="inlineStr">
         <is>
           <t>Викторович</t>
         </is>
       </c>
-      <c r="E11" s="15" t="inlineStr">
+      <c r="E11" s="16" t="inlineStr">
         <is>
           <t>инженер-программист 2 категории</t>
         </is>
       </c>
-      <c r="F11" s="17" t="n">
+      <c r="F11" s="18" t="n">
         <v>1135</v>
       </c>
-      <c r="G11" s="18" t="n">
+      <c r="G11" s="19" t="n">
         <v>27010</v>
       </c>
-      <c r="H11" s="15" t="n"/>
-      <c r="I11" s="5" t="n"/>
-      <c r="J11" s="5" t="n"/>
-      <c r="K11" s="5" t="n"/>
-      <c r="L11" s="5" t="n"/>
-      <c r="M11" s="5" t="n"/>
-      <c r="N11" s="5" t="n"/>
-      <c r="O11" s="5" t="n"/>
-      <c r="P11" s="5" t="n"/>
-      <c r="Q11" s="5" t="n"/>
-      <c r="R11" s="5" t="n"/>
-      <c r="S11" s="5" t="n"/>
-      <c r="T11" s="5" t="n"/>
-      <c r="U11" s="5" t="n"/>
-      <c r="V11" s="5" t="n"/>
-      <c r="W11" s="5" t="n"/>
-      <c r="X11" s="5" t="n"/>
-      <c r="Y11" s="5" t="n"/>
-    </row>
-    <row r="12" customFormat="1" s="6">
-      <c r="A12" s="15" t="inlineStr">
+      <c r="H11" s="16" t="n"/>
+      <c r="I11" s="4" t="n"/>
+      <c r="J11" s="4" t="n"/>
+      <c r="K11" s="4" t="n"/>
+      <c r="L11" s="4" t="n"/>
+      <c r="M11" s="4" t="n"/>
+      <c r="N11" s="4" t="n"/>
+      <c r="O11" s="4" t="n"/>
+      <c r="P11" s="4" t="n"/>
+      <c r="Q11" s="4" t="n"/>
+      <c r="R11" s="4" t="n"/>
+      <c r="S11" s="4" t="n"/>
+      <c r="T11" s="4" t="n"/>
+      <c r="U11" s="4" t="n"/>
+      <c r="V11" s="4" t="n"/>
+      <c r="W11" s="4" t="n"/>
+      <c r="X11" s="4" t="n"/>
+      <c r="Y11" s="4" t="n"/>
+    </row>
+    <row r="12" customFormat="1" s="5">
+      <c r="A12" s="16" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B12" s="16" t="inlineStr">
+      <c r="B12" s="17" t="inlineStr">
         <is>
           <t>Тупиленко</t>
         </is>
       </c>
-      <c r="C12" s="15" t="inlineStr">
+      <c r="C12" s="16" t="inlineStr">
         <is>
           <t>Ольга</t>
         </is>
       </c>
-      <c r="D12" s="15" t="inlineStr">
+      <c r="D12" s="16" t="inlineStr">
         <is>
           <t>Евгеньевна</t>
         </is>
       </c>
-      <c r="E12" s="15" t="inlineStr">
+      <c r="E12" s="16" t="inlineStr">
         <is>
           <t>старший лаборант</t>
         </is>
       </c>
-      <c r="F12" s="17" t="n">
+      <c r="F12" s="18" t="n">
         <v>2946</v>
       </c>
-      <c r="G12" s="18" t="n">
+      <c r="G12" s="19" t="n">
         <v>23895</v>
       </c>
-      <c r="H12" s="15" t="n"/>
-      <c r="I12" s="5" t="n"/>
-      <c r="J12" s="5" t="n"/>
-      <c r="K12" s="5" t="n"/>
-      <c r="L12" s="5" t="n"/>
-      <c r="M12" s="5" t="n"/>
-      <c r="N12" s="5" t="n"/>
-      <c r="O12" s="5" t="n"/>
-      <c r="P12" s="5" t="n"/>
-      <c r="Q12" s="5" t="n"/>
-      <c r="R12" s="5" t="n"/>
-      <c r="S12" s="5" t="n"/>
-      <c r="T12" s="5" t="n"/>
-      <c r="U12" s="5" t="n"/>
-      <c r="V12" s="5" t="n"/>
-      <c r="W12" s="5" t="n"/>
-      <c r="X12" s="5" t="n"/>
-      <c r="Y12" s="5" t="n"/>
-    </row>
-    <row r="13" customFormat="1" s="6">
-      <c r="A13" s="15" t="inlineStr">
+      <c r="H12" s="16" t="n"/>
+      <c r="I12" s="4" t="n"/>
+      <c r="J12" s="4" t="n"/>
+      <c r="K12" s="4" t="n"/>
+      <c r="L12" s="4" t="n"/>
+      <c r="M12" s="4" t="n"/>
+      <c r="N12" s="4" t="n"/>
+      <c r="O12" s="4" t="n"/>
+      <c r="P12" s="4" t="n"/>
+      <c r="Q12" s="4" t="n"/>
+      <c r="R12" s="4" t="n"/>
+      <c r="S12" s="4" t="n"/>
+      <c r="T12" s="4" t="n"/>
+      <c r="U12" s="4" t="n"/>
+      <c r="V12" s="4" t="n"/>
+      <c r="W12" s="4" t="n"/>
+      <c r="X12" s="4" t="n"/>
+      <c r="Y12" s="4" t="n"/>
+    </row>
+    <row r="13" customFormat="1" s="5">
+      <c r="A13" s="16" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B13" s="16" t="inlineStr">
+      <c r="B13" s="17" t="inlineStr">
         <is>
           <t>Турухано</t>
         </is>
       </c>
-      <c r="C13" s="15" t="inlineStr">
+      <c r="C13" s="16" t="inlineStr">
         <is>
           <t>Борис</t>
         </is>
       </c>
-      <c r="D13" s="15" t="inlineStr">
+      <c r="D13" s="16" t="inlineStr">
         <is>
           <t>Ганьевич</t>
         </is>
       </c>
-      <c r="E13" s="15" t="inlineStr">
+      <c r="E13" s="16" t="inlineStr">
         <is>
           <t>вед. научный сотрудник</t>
         </is>
       </c>
-      <c r="F13" s="17" t="n">
+      <c r="F13" s="18" t="n">
         <v>1767</v>
       </c>
-      <c r="G13" s="18" t="n">
+      <c r="G13" s="19" t="n">
         <v>13817</v>
       </c>
-      <c r="H13" s="15" t="n"/>
-      <c r="I13" s="5" t="n"/>
-      <c r="J13" s="5" t="n"/>
-      <c r="K13" s="5" t="n"/>
-      <c r="L13" s="5" t="n"/>
-      <c r="M13" s="5" t="n"/>
-      <c r="N13" s="5" t="n"/>
-      <c r="O13" s="5" t="n"/>
-      <c r="P13" s="5" t="n"/>
-      <c r="Q13" s="5" t="n"/>
-      <c r="R13" s="5" t="n"/>
-      <c r="S13" s="5" t="n"/>
-      <c r="T13" s="5" t="n"/>
-      <c r="U13" s="5" t="n"/>
-      <c r="V13" s="5" t="n"/>
-      <c r="W13" s="5" t="n"/>
-      <c r="X13" s="5" t="n"/>
-      <c r="Y13" s="5" t="n"/>
+      <c r="H13" s="16" t="n"/>
+      <c r="I13" s="4" t="n"/>
+      <c r="J13" s="4" t="n"/>
+      <c r="K13" s="4" t="n"/>
+      <c r="L13" s="4" t="n"/>
+      <c r="M13" s="4" t="n"/>
+      <c r="N13" s="4" t="n"/>
+      <c r="O13" s="4" t="n"/>
+      <c r="P13" s="4" t="n"/>
+      <c r="Q13" s="4" t="n"/>
+      <c r="R13" s="4" t="n"/>
+      <c r="S13" s="4" t="n"/>
+      <c r="T13" s="4" t="n"/>
+      <c r="U13" s="4" t="n"/>
+      <c r="V13" s="4" t="n"/>
+      <c r="W13" s="4" t="n"/>
+      <c r="X13" s="4" t="n"/>
+      <c r="Y13" s="4" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="15" t="inlineStr">
+      <c r="A14" s="16" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B14" s="16" t="inlineStr">
+      <c r="B14" s="17" t="inlineStr">
         <is>
           <t>Турухано</t>
         </is>
       </c>
-      <c r="C14" s="15" t="inlineStr">
+      <c r="C14" s="16" t="inlineStr">
         <is>
           <t>Никулина</t>
         </is>
       </c>
-      <c r="D14" s="15" t="n"/>
-      <c r="E14" s="15" t="inlineStr">
+      <c r="D14" s="16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E14" s="16" t="inlineStr">
         <is>
           <t>эксперт</t>
         </is>
       </c>
-      <c r="F14" s="17" t="n">
+      <c r="F14" s="18" t="n">
         <v>162</v>
       </c>
-      <c r="G14" s="18" t="n">
+      <c r="G14" s="19" t="n">
         <v>13837</v>
       </c>
-      <c r="H14" s="15" t="n"/>
-      <c r="I14" s="4" t="n"/>
-      <c r="J14" s="4" t="n"/>
-      <c r="K14" s="4" t="n"/>
-      <c r="L14" s="4" t="n"/>
-      <c r="M14" s="4" t="n"/>
-      <c r="N14" s="4" t="n"/>
-      <c r="O14" s="4" t="n"/>
-      <c r="P14" s="4" t="n"/>
-      <c r="Q14" s="4" t="n"/>
-      <c r="R14" s="4" t="n"/>
-      <c r="S14" s="4" t="n"/>
-      <c r="T14" s="4" t="n"/>
-      <c r="U14" s="4" t="n"/>
-      <c r="V14" s="4" t="n"/>
-      <c r="W14" s="4" t="n"/>
-      <c r="X14" s="4" t="n"/>
-      <c r="Y14" s="4" t="n"/>
+      <c r="H14" s="16" t="n"/>
+      <c r="I14" s="3" t="n"/>
+      <c r="J14" s="3" t="n"/>
+      <c r="K14" s="3" t="n"/>
+      <c r="L14" s="3" t="n"/>
+      <c r="M14" s="3" t="n"/>
+      <c r="N14" s="3" t="n"/>
+      <c r="O14" s="3" t="n"/>
+      <c r="P14" s="3" t="n"/>
+      <c r="Q14" s="3" t="n"/>
+      <c r="R14" s="3" t="n"/>
+      <c r="S14" s="3" t="n"/>
+      <c r="T14" s="3" t="n"/>
+      <c r="U14" s="3" t="n"/>
+      <c r="V14" s="3" t="n"/>
+      <c r="W14" s="3" t="n"/>
+      <c r="X14" s="3" t="n"/>
+      <c r="Y14" s="3" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="15" t="inlineStr">
+      <c r="A15" s="16" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B15" s="16" t="inlineStr">
+      <c r="B15" s="17" t="inlineStr">
         <is>
           <t>Ханов</t>
         </is>
       </c>
-      <c r="C15" s="15" t="inlineStr">
+      <c r="C15" s="16" t="inlineStr">
         <is>
           <t>Сергей</t>
         </is>
       </c>
-      <c r="D15" s="15" t="inlineStr">
+      <c r="D15" s="16" t="inlineStr">
         <is>
           <t>Николаевич</t>
         </is>
       </c>
-      <c r="E15" s="15" t="inlineStr">
+      <c r="E15" s="16" t="inlineStr">
         <is>
           <t>ведущий конструктор</t>
         </is>
       </c>
-      <c r="F15" s="17" t="n">
+      <c r="F15" s="18" t="n">
         <v>1792</v>
       </c>
-      <c r="G15" s="18" t="n">
+      <c r="G15" s="19" t="n">
         <v>17727</v>
       </c>
-      <c r="H15" s="15" t="n"/>
-      <c r="I15" s="4" t="n"/>
-      <c r="J15" s="4" t="n"/>
-      <c r="K15" s="4" t="n"/>
-      <c r="L15" s="4" t="n"/>
-      <c r="M15" s="4" t="n"/>
-      <c r="N15" s="4" t="n"/>
-      <c r="O15" s="4" t="n"/>
-      <c r="P15" s="4" t="n"/>
-      <c r="Q15" s="4" t="n"/>
-      <c r="R15" s="4" t="n"/>
-      <c r="S15" s="4" t="n"/>
-      <c r="T15" s="4" t="n"/>
-      <c r="U15" s="4" t="n"/>
-      <c r="V15" s="4" t="n"/>
-      <c r="W15" s="4" t="n"/>
-      <c r="X15" s="4" t="n"/>
-      <c r="Y15" s="4" t="n"/>
-    </row>
-    <row r="16" customFormat="1" s="6">
-      <c r="A16" s="15" t="inlineStr">
+      <c r="H15" s="16" t="n"/>
+      <c r="I15" s="3" t="n"/>
+      <c r="J15" s="3" t="n"/>
+      <c r="K15" s="3" t="n"/>
+      <c r="L15" s="3" t="n"/>
+      <c r="M15" s="3" t="n"/>
+      <c r="N15" s="3" t="n"/>
+      <c r="O15" s="3" t="n"/>
+      <c r="P15" s="3" t="n"/>
+      <c r="Q15" s="3" t="n"/>
+      <c r="R15" s="3" t="n"/>
+      <c r="S15" s="3" t="n"/>
+      <c r="T15" s="3" t="n"/>
+      <c r="U15" s="3" t="n"/>
+      <c r="V15" s="3" t="n"/>
+      <c r="W15" s="3" t="n"/>
+      <c r="X15" s="3" t="n"/>
+      <c r="Y15" s="3" t="n"/>
+    </row>
+    <row r="16" customFormat="1" s="5">
+      <c r="A16" s="16" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B16" s="16" t="inlineStr">
+      <c r="B16" s="17" t="inlineStr">
         <is>
           <t>Христачев</t>
         </is>
       </c>
-      <c r="C16" s="15" t="inlineStr">
+      <c r="C16" s="16" t="inlineStr">
         <is>
           <t>Александр</t>
         </is>
       </c>
-      <c r="D16" s="15" t="inlineStr">
+      <c r="D16" s="16" t="inlineStr">
         <is>
           <t>Евгеньевич</t>
         </is>
       </c>
-      <c r="E16" s="15" t="inlineStr">
+      <c r="E16" s="16" t="inlineStr">
         <is>
           <t>ведущий инженер-программист</t>
         </is>
       </c>
-      <c r="F16" s="17" t="n">
+      <c r="F16" s="18" t="n">
         <v>67383</v>
       </c>
-      <c r="G16" s="18" t="n">
+      <c r="G16" s="19" t="n">
         <v>22691</v>
       </c>
-      <c r="H16" s="15" t="n"/>
-      <c r="I16" s="5" t="n"/>
-      <c r="J16" s="5" t="n"/>
-      <c r="K16" s="5" t="n"/>
-      <c r="L16" s="5" t="n"/>
-      <c r="M16" s="5" t="n"/>
-      <c r="N16" s="5" t="n"/>
-      <c r="O16" s="5" t="n"/>
-      <c r="P16" s="5" t="n"/>
-      <c r="Q16" s="5" t="n"/>
-      <c r="R16" s="5" t="n"/>
-      <c r="S16" s="5" t="n"/>
-      <c r="T16" s="5" t="n"/>
-      <c r="U16" s="5" t="n"/>
-      <c r="V16" s="5" t="n"/>
-      <c r="W16" s="5" t="n"/>
-      <c r="X16" s="5" t="n"/>
-      <c r="Y16" s="5" t="n"/>
-    </row>
-    <row r="17" customFormat="1" s="6">
-      <c r="A17" s="15" t="inlineStr">
+      <c r="H16" s="16" t="n"/>
+      <c r="I16" s="4" t="n"/>
+      <c r="J16" s="4" t="n"/>
+      <c r="K16" s="4" t="n"/>
+      <c r="L16" s="4" t="n"/>
+      <c r="M16" s="4" t="n"/>
+      <c r="N16" s="4" t="n"/>
+      <c r="O16" s="4" t="n"/>
+      <c r="P16" s="4" t="n"/>
+      <c r="Q16" s="4" t="n"/>
+      <c r="R16" s="4" t="n"/>
+      <c r="S16" s="4" t="n"/>
+      <c r="T16" s="4" t="n"/>
+      <c r="U16" s="4" t="n"/>
+      <c r="V16" s="4" t="n"/>
+      <c r="W16" s="4" t="n"/>
+      <c r="X16" s="4" t="n"/>
+      <c r="Y16" s="4" t="n"/>
+    </row>
+    <row r="17" customFormat="1" s="5">
+      <c r="A17" s="16" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B17" s="16" t="inlineStr">
+      <c r="B17" s="17" t="inlineStr">
         <is>
           <t>Щипунова</t>
         </is>
       </c>
-      <c r="C17" s="15" t="inlineStr">
+      <c r="C17" s="16" t="inlineStr">
         <is>
           <t>Надежда</t>
         </is>
       </c>
-      <c r="D17" s="15" t="inlineStr">
+      <c r="D17" s="16" t="inlineStr">
         <is>
           <t>Алексеевна</t>
         </is>
       </c>
-      <c r="E17" s="15" t="inlineStr">
+      <c r="E17" s="16" t="inlineStr">
         <is>
           <t>вед. инженер-технолог</t>
         </is>
       </c>
-      <c r="F17" s="17" t="n">
+      <c r="F17" s="18" t="n">
         <v>1783</v>
       </c>
-      <c r="G17" s="18" t="n">
+      <c r="G17" s="19" t="n">
         <v>19582</v>
       </c>
-      <c r="H17" s="15" t="n"/>
-      <c r="I17" s="5" t="n"/>
-      <c r="J17" s="5" t="n"/>
-      <c r="K17" s="5" t="n"/>
-      <c r="L17" s="5" t="n"/>
-      <c r="M17" s="5" t="n"/>
-      <c r="N17" s="5" t="n"/>
-      <c r="O17" s="5" t="n"/>
-      <c r="P17" s="5" t="n"/>
-      <c r="Q17" s="5" t="n"/>
-      <c r="R17" s="5" t="n"/>
-      <c r="S17" s="5" t="n"/>
-      <c r="T17" s="5" t="n"/>
-      <c r="U17" s="5" t="n"/>
-      <c r="V17" s="5" t="n"/>
-      <c r="W17" s="5" t="n"/>
-      <c r="X17" s="5" t="n"/>
-      <c r="Y17" s="5" t="n"/>
-    </row>
-    <row r="18" customFormat="1" s="6">
-      <c r="A18" s="15" t="inlineStr">
+      <c r="H17" s="16" t="n"/>
+      <c r="I17" s="4" t="n"/>
+      <c r="J17" s="4" t="n"/>
+      <c r="K17" s="4" t="n"/>
+      <c r="L17" s="4" t="n"/>
+      <c r="M17" s="4" t="n"/>
+      <c r="N17" s="4" t="n"/>
+      <c r="O17" s="4" t="n"/>
+      <c r="P17" s="4" t="n"/>
+      <c r="Q17" s="4" t="n"/>
+      <c r="R17" s="4" t="n"/>
+      <c r="S17" s="4" t="n"/>
+      <c r="T17" s="4" t="n"/>
+      <c r="U17" s="4" t="n"/>
+      <c r="V17" s="4" t="n"/>
+      <c r="W17" s="4" t="n"/>
+      <c r="X17" s="4" t="n"/>
+      <c r="Y17" s="4" t="n"/>
+    </row>
+    <row r="18" customFormat="1" s="5">
+      <c r="A18" s="16" t="inlineStr">
         <is>
           <t>ГТВ</t>
         </is>
       </c>
-      <c r="B18" s="16" t="inlineStr">
+      <c r="B18" s="17" t="inlineStr">
         <is>
           <t>Бенин</t>
         </is>
       </c>
-      <c r="C18" s="15" t="inlineStr">
+      <c r="C18" s="16" t="inlineStr">
         <is>
           <t>Александр</t>
         </is>
       </c>
-      <c r="D18" s="15" t="inlineStr">
+      <c r="D18" s="16" t="inlineStr">
         <is>
           <t>Исаакович</t>
         </is>
       </c>
-      <c r="E18" s="15" t="inlineStr">
+      <c r="E18" s="16" t="inlineStr">
         <is>
           <t>вед. научный сотрудник</t>
         </is>
       </c>
-      <c r="F18" s="17" t="n">
+      <c r="F18" s="18" t="n">
         <v>5310</v>
       </c>
-      <c r="G18" s="15" t="n"/>
-      <c r="H18" s="19" t="inlineStr">
+      <c r="G18" s="16" t="n"/>
+      <c r="H18" s="20" t="inlineStr">
         <is>
           <t>benin@cisp.spb.ru</t>
         </is>
       </c>
-      <c r="I18" s="5" t="n"/>
-      <c r="J18" s="5" t="n"/>
-      <c r="K18" s="5" t="n"/>
-      <c r="L18" s="5" t="n"/>
-      <c r="M18" s="5" t="n"/>
-      <c r="N18" s="5" t="n"/>
-      <c r="O18" s="5" t="n"/>
-      <c r="P18" s="5" t="n"/>
-      <c r="Q18" s="5" t="n"/>
-      <c r="R18" s="5" t="n"/>
-      <c r="S18" s="5" t="n"/>
-      <c r="T18" s="5" t="n"/>
-      <c r="U18" s="5" t="n"/>
-      <c r="V18" s="5" t="n"/>
-      <c r="W18" s="5" t="n"/>
-      <c r="X18" s="5" t="n"/>
-      <c r="Y18" s="5" t="n"/>
-    </row>
-    <row r="19" customFormat="1" s="6">
-      <c r="A19" s="15" t="inlineStr">
+      <c r="I18" s="4" t="n"/>
+      <c r="J18" s="4" t="n"/>
+      <c r="K18" s="4" t="n"/>
+      <c r="L18" s="4" t="n"/>
+      <c r="M18" s="4" t="n"/>
+      <c r="N18" s="4" t="n"/>
+      <c r="O18" s="4" t="n"/>
+      <c r="P18" s="4" t="n"/>
+      <c r="Q18" s="4" t="n"/>
+      <c r="R18" s="4" t="n"/>
+      <c r="S18" s="4" t="n"/>
+      <c r="T18" s="4" t="n"/>
+      <c r="U18" s="4" t="n"/>
+      <c r="V18" s="4" t="n"/>
+      <c r="W18" s="4" t="n"/>
+      <c r="X18" s="4" t="n"/>
+      <c r="Y18" s="4" t="n"/>
+    </row>
+    <row r="19" customFormat="1" s="5">
+      <c r="A19" s="16" t="inlineStr">
         <is>
           <t>ГФФ</t>
         </is>
       </c>
-      <c r="B19" s="16" t="inlineStr">
+      <c r="B19" s="17" t="inlineStr">
         <is>
           <t>Барнаш</t>
         </is>
       </c>
-      <c r="C19" s="15" t="inlineStr">
+      <c r="C19" s="16" t="inlineStr">
         <is>
           <t>Ярослав</t>
         </is>
       </c>
-      <c r="D19" s="15" t="inlineStr">
+      <c r="D19" s="16" t="inlineStr">
         <is>
           <t>Валерьевич</t>
         </is>
       </c>
-      <c r="E19" s="15" t="inlineStr">
+      <c r="E19" s="16" t="inlineStr">
         <is>
           <t>лаборант-исследователь</t>
         </is>
       </c>
-      <c r="F19" s="17" t="n">
+      <c r="F19" s="18" t="n">
         <v>4848</v>
       </c>
-      <c r="G19" s="15" t="n"/>
-      <c r="H19" s="15" t="n"/>
-      <c r="I19" s="5" t="n"/>
-      <c r="J19" s="5" t="n"/>
-      <c r="K19" s="5" t="n"/>
-      <c r="L19" s="5" t="n"/>
-      <c r="M19" s="5" t="n"/>
-      <c r="N19" s="5" t="n"/>
-      <c r="O19" s="5" t="n"/>
-      <c r="P19" s="5" t="n"/>
-      <c r="Q19" s="5" t="n"/>
-      <c r="R19" s="5" t="n"/>
-      <c r="S19" s="5" t="n"/>
-      <c r="T19" s="5" t="n"/>
-      <c r="U19" s="5" t="n"/>
-      <c r="V19" s="5" t="n"/>
-      <c r="W19" s="5" t="n"/>
-      <c r="X19" s="5" t="n"/>
-      <c r="Y19" s="5" t="n"/>
-    </row>
-    <row r="20" customFormat="1" s="6">
-      <c r="A20" s="15" t="inlineStr">
+      <c r="G19" s="21" t="n"/>
+      <c r="H19" s="16" t="n"/>
+      <c r="I19" s="4" t="n"/>
+      <c r="J19" s="4" t="n"/>
+      <c r="K19" s="4" t="n"/>
+      <c r="L19" s="4" t="n"/>
+      <c r="M19" s="4" t="n"/>
+      <c r="N19" s="4" t="n"/>
+      <c r="O19" s="4" t="n"/>
+      <c r="P19" s="4" t="n"/>
+      <c r="Q19" s="4" t="n"/>
+      <c r="R19" s="4" t="n"/>
+      <c r="S19" s="4" t="n"/>
+      <c r="T19" s="4" t="n"/>
+      <c r="U19" s="4" t="n"/>
+      <c r="V19" s="4" t="n"/>
+      <c r="W19" s="4" t="n"/>
+      <c r="X19" s="4" t="n"/>
+      <c r="Y19" s="4" t="n"/>
+    </row>
+    <row r="20" customFormat="1" s="5">
+      <c r="A20" s="16" t="inlineStr">
         <is>
           <t>ГФФ</t>
         </is>
       </c>
-      <c r="B20" s="16" t="inlineStr">
+      <c r="B20" s="17" t="inlineStr">
         <is>
           <t>Зубцова</t>
         </is>
       </c>
-      <c r="C20" s="15" t="inlineStr">
+      <c r="C20" s="16" t="inlineStr">
         <is>
           <t>Юлия</t>
         </is>
       </c>
-      <c r="D20" s="15" t="inlineStr">
+      <c r="D20" s="16" t="inlineStr">
         <is>
           <t>Александровна</t>
         </is>
       </c>
-      <c r="E20" s="15" t="inlineStr">
+      <c r="E20" s="16" t="inlineStr">
         <is>
           <t>научный сотрудник</t>
         </is>
       </c>
-      <c r="F20" s="17" t="n">
+      <c r="F20" s="18" t="n">
         <v>4584</v>
       </c>
-      <c r="G20" s="15" t="n"/>
-      <c r="H20" s="15" t="n"/>
-      <c r="I20" s="5" t="n"/>
-      <c r="J20" s="5" t="n"/>
-      <c r="K20" s="5" t="n"/>
-      <c r="L20" s="5" t="n"/>
-      <c r="M20" s="5" t="n"/>
-      <c r="N20" s="5" t="n"/>
-      <c r="O20" s="5" t="n"/>
-      <c r="P20" s="5" t="n"/>
-      <c r="Q20" s="5" t="n"/>
-      <c r="R20" s="5" t="n"/>
-      <c r="S20" s="5" t="n"/>
-      <c r="T20" s="5" t="n"/>
-      <c r="U20" s="5" t="n"/>
-      <c r="V20" s="5" t="n"/>
-      <c r="W20" s="5" t="n"/>
-      <c r="X20" s="5" t="n"/>
-      <c r="Y20" s="5" t="n"/>
-    </row>
-    <row r="21" customFormat="1" s="6">
-      <c r="A21" s="15" t="inlineStr">
+      <c r="G20" s="21" t="n"/>
+      <c r="H20" s="16" t="n"/>
+      <c r="I20" s="4" t="n"/>
+      <c r="J20" s="4" t="n"/>
+      <c r="K20" s="4" t="n"/>
+      <c r="L20" s="4" t="n"/>
+      <c r="M20" s="4" t="n"/>
+      <c r="N20" s="4" t="n"/>
+      <c r="O20" s="4" t="n"/>
+      <c r="P20" s="4" t="n"/>
+      <c r="Q20" s="4" t="n"/>
+      <c r="R20" s="4" t="n"/>
+      <c r="S20" s="4" t="n"/>
+      <c r="T20" s="4" t="n"/>
+      <c r="U20" s="4" t="n"/>
+      <c r="V20" s="4" t="n"/>
+      <c r="W20" s="4" t="n"/>
+      <c r="X20" s="4" t="n"/>
+      <c r="Y20" s="4" t="n"/>
+    </row>
+    <row r="21" customFormat="1" s="5">
+      <c r="A21" s="16" t="inlineStr">
         <is>
           <t>ГФФ</t>
         </is>
       </c>
-      <c r="B21" s="16" t="inlineStr">
+      <c r="B21" s="17" t="inlineStr">
         <is>
           <t>Каманина</t>
         </is>
       </c>
-      <c r="C21" s="15" t="inlineStr">
+      <c r="C21" s="16" t="inlineStr">
         <is>
           <t>Наталия</t>
         </is>
       </c>
-      <c r="D21" s="15" t="inlineStr">
+      <c r="D21" s="16" t="inlineStr">
         <is>
           <t>Владимировна</t>
         </is>
       </c>
-      <c r="E21" s="15" t="inlineStr">
+      <c r="E21" s="16" t="inlineStr">
         <is>
           <t>вед. научный сотрудник</t>
         </is>
       </c>
-      <c r="F21" s="17" t="n">
+      <c r="F21" s="18" t="n">
         <v>4583</v>
       </c>
-      <c r="G21" s="15" t="n"/>
-      <c r="H21" s="15" t="n"/>
-      <c r="I21" s="5" t="n"/>
-      <c r="J21" s="5" t="n"/>
-      <c r="K21" s="5" t="n"/>
-      <c r="L21" s="5" t="n"/>
-      <c r="M21" s="5" t="n"/>
-      <c r="N21" s="5" t="n"/>
-      <c r="O21" s="5" t="n"/>
-      <c r="P21" s="5" t="n"/>
-      <c r="Q21" s="5" t="n"/>
-      <c r="R21" s="5" t="n"/>
-      <c r="S21" s="5" t="n"/>
-      <c r="T21" s="5" t="n"/>
-      <c r="U21" s="5" t="n"/>
-      <c r="V21" s="5" t="n"/>
-      <c r="W21" s="5" t="n"/>
-      <c r="X21" s="5" t="n"/>
-      <c r="Y21" s="5" t="n"/>
-    </row>
-    <row r="22" customFormat="1" s="6">
-      <c r="A22" s="15" t="inlineStr">
+      <c r="G21" s="21" t="n"/>
+      <c r="H21" s="16" t="n"/>
+      <c r="I21" s="4" t="n"/>
+      <c r="J21" s="4" t="n"/>
+      <c r="K21" s="4" t="n"/>
+      <c r="L21" s="4" t="n"/>
+      <c r="M21" s="4" t="n"/>
+      <c r="N21" s="4" t="n"/>
+      <c r="O21" s="4" t="n"/>
+      <c r="P21" s="4" t="n"/>
+      <c r="Q21" s="4" t="n"/>
+      <c r="R21" s="4" t="n"/>
+      <c r="S21" s="4" t="n"/>
+      <c r="T21" s="4" t="n"/>
+      <c r="U21" s="4" t="n"/>
+      <c r="V21" s="4" t="n"/>
+      <c r="W21" s="4" t="n"/>
+      <c r="X21" s="4" t="n"/>
+      <c r="Y21" s="4" t="n"/>
+    </row>
+    <row r="22" customFormat="1" s="5">
+      <c r="A22" s="16" t="inlineStr">
         <is>
           <t>ГФФ</t>
         </is>
       </c>
-      <c r="B22" s="15" t="inlineStr">
+      <c r="B22" s="16" t="inlineStr">
         <is>
           <t>Кужаков</t>
         </is>
       </c>
-      <c r="C22" s="15" t="inlineStr">
+      <c r="C22" s="16" t="inlineStr">
         <is>
           <t>Павел</t>
         </is>
       </c>
-      <c r="D22" s="15" t="inlineStr">
+      <c r="D22" s="16" t="inlineStr">
         <is>
           <t>Викторович</t>
         </is>
       </c>
-      <c r="E22" s="15" t="inlineStr">
+      <c r="E22" s="16" t="inlineStr">
         <is>
           <t>научный сотрудник</t>
         </is>
       </c>
-      <c r="F22" s="17" t="n">
+      <c r="F22" s="18" t="n">
         <v>4585</v>
       </c>
-      <c r="G22" s="15" t="n"/>
-      <c r="H22" s="15" t="n"/>
-      <c r="I22" s="5" t="n"/>
-      <c r="J22" s="5" t="n"/>
-      <c r="K22" s="5" t="n"/>
-      <c r="L22" s="5" t="n"/>
-      <c r="M22" s="5" t="n"/>
-      <c r="N22" s="5" t="n"/>
-      <c r="O22" s="5" t="n"/>
-      <c r="P22" s="5" t="n"/>
-      <c r="Q22" s="5" t="n"/>
-      <c r="R22" s="5" t="n"/>
-      <c r="S22" s="5" t="n"/>
-      <c r="T22" s="5" t="n"/>
-      <c r="U22" s="5" t="n"/>
-      <c r="V22" s="5" t="n"/>
-      <c r="W22" s="5" t="n"/>
-      <c r="X22" s="5" t="n"/>
-      <c r="Y22" s="5" t="n"/>
-    </row>
-    <row r="23" customFormat="1" s="6">
-      <c r="A23" s="15" t="inlineStr">
+      <c r="G22" s="16" t="n"/>
+      <c r="H22" s="16" t="n"/>
+      <c r="I22" s="4" t="n"/>
+      <c r="J22" s="4" t="n"/>
+      <c r="K22" s="4" t="n"/>
+      <c r="L22" s="4" t="n"/>
+      <c r="M22" s="4" t="n"/>
+      <c r="N22" s="4" t="n"/>
+      <c r="O22" s="4" t="n"/>
+      <c r="P22" s="4" t="n"/>
+      <c r="Q22" s="4" t="n"/>
+      <c r="R22" s="4" t="n"/>
+      <c r="S22" s="4" t="n"/>
+      <c r="T22" s="4" t="n"/>
+      <c r="U22" s="4" t="n"/>
+      <c r="V22" s="4" t="n"/>
+      <c r="W22" s="4" t="n"/>
+      <c r="X22" s="4" t="n"/>
+      <c r="Y22" s="4" t="n"/>
+    </row>
+    <row r="23" customFormat="1" s="5">
+      <c r="A23" s="16" t="inlineStr">
         <is>
           <t>ГФФ</t>
         </is>
       </c>
-      <c r="B23" s="16" t="inlineStr">
+      <c r="B23" s="17" t="inlineStr">
         <is>
           <t>Лихоманова</t>
         </is>
       </c>
-      <c r="C23" s="15" t="inlineStr">
+      <c r="C23" s="16" t="inlineStr">
         <is>
           <t>Светлана</t>
         </is>
       </c>
-      <c r="D23" s="15" t="inlineStr">
+      <c r="D23" s="16" t="inlineStr">
         <is>
           <t>Владимировна</t>
         </is>
       </c>
-      <c r="E23" s="15" t="inlineStr">
+      <c r="E23" s="16" t="inlineStr">
         <is>
           <t>научный сотрудник</t>
         </is>
       </c>
-      <c r="F23" s="17" t="n">
+      <c r="F23" s="18" t="n">
         <v>4669</v>
       </c>
-      <c r="G23" s="15" t="n"/>
-      <c r="H23" s="15" t="n"/>
-      <c r="I23" s="5" t="n"/>
-      <c r="J23" s="5" t="n"/>
-      <c r="K23" s="5" t="n"/>
-      <c r="L23" s="5" t="n"/>
-      <c r="M23" s="5" t="n"/>
-      <c r="N23" s="5" t="n"/>
-      <c r="O23" s="5" t="n"/>
-      <c r="P23" s="5" t="n"/>
-      <c r="Q23" s="5" t="n"/>
-      <c r="R23" s="5" t="n"/>
-      <c r="S23" s="5" t="n"/>
-      <c r="T23" s="5" t="n"/>
-      <c r="U23" s="5" t="n"/>
-      <c r="V23" s="5" t="n"/>
-      <c r="W23" s="5" t="n"/>
-      <c r="X23" s="5" t="n"/>
-      <c r="Y23" s="5" t="n"/>
-    </row>
-    <row r="24" customFormat="1" s="6">
-      <c r="A24" s="15" t="inlineStr">
+      <c r="G23" s="21" t="n"/>
+      <c r="H23" s="16" t="n"/>
+      <c r="I23" s="4" t="n"/>
+      <c r="J23" s="4" t="n"/>
+      <c r="K23" s="4" t="n"/>
+      <c r="L23" s="4" t="n"/>
+      <c r="M23" s="4" t="n"/>
+      <c r="N23" s="4" t="n"/>
+      <c r="O23" s="4" t="n"/>
+      <c r="P23" s="4" t="n"/>
+      <c r="Q23" s="4" t="n"/>
+      <c r="R23" s="4" t="n"/>
+      <c r="S23" s="4" t="n"/>
+      <c r="T23" s="4" t="n"/>
+      <c r="U23" s="4" t="n"/>
+      <c r="V23" s="4" t="n"/>
+      <c r="W23" s="4" t="n"/>
+      <c r="X23" s="4" t="n"/>
+      <c r="Y23" s="4" t="n"/>
+    </row>
+    <row r="24" customFormat="1" s="5">
+      <c r="A24" s="16" t="inlineStr">
         <is>
           <t>ГФФ</t>
         </is>
       </c>
-      <c r="B24" s="16" t="inlineStr">
+      <c r="B24" s="17" t="inlineStr">
         <is>
           <t>Тойкка</t>
         </is>
       </c>
-      <c r="C24" s="15" t="inlineStr">
+      <c r="C24" s="16" t="inlineStr">
         <is>
           <t>Андрей</t>
         </is>
       </c>
-      <c r="D24" s="15" t="inlineStr">
+      <c r="D24" s="16" t="inlineStr">
         <is>
           <t>Сергеевич</t>
         </is>
       </c>
-      <c r="E24" s="15" t="inlineStr">
+      <c r="E24" s="16" t="inlineStr">
         <is>
           <t>лаборант-исследователь</t>
         </is>
       </c>
-      <c r="F24" s="17" t="n">
+      <c r="F24" s="18" t="n">
         <v>4587</v>
       </c>
-      <c r="G24" s="15" t="n"/>
-      <c r="H24" s="15" t="n"/>
+      <c r="G24" s="21" t="n"/>
+      <c r="H24" s="16" t="inlineStr">
+        <is>
+          <t>mailto:benin@cisp.spb.ru</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="15" t="inlineStr">
+      <c r="A25" s="16" t="inlineStr">
         <is>
           <t>ГФФ</t>
         </is>
       </c>
-      <c r="B25" s="16" t="inlineStr">
+      <c r="B25" s="17" t="inlineStr">
         <is>
           <t>Федерова</t>
         </is>
       </c>
-      <c r="C25" s="15" t="inlineStr">
+      <c r="C25" s="16" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="D25" s="15" t="inlineStr">
+      <c r="D25" s="16" t="inlineStr">
         <is>
           <t>Олеговна</t>
         </is>
       </c>
-      <c r="E25" s="15" t="inlineStr">
+      <c r="E25" s="16" t="inlineStr">
         <is>
           <t>лаборант-исследователь</t>
         </is>
       </c>
-      <c r="F25" s="17" t="n">
+      <c r="F25" s="18" t="n">
         <v>5198</v>
       </c>
-      <c r="G25" s="15" t="n"/>
-      <c r="H25" s="15" t="n"/>
+      <c r="G25" s="21" t="n"/>
+      <c r="H25" s="16" t="n"/>
     </row>
     <row r="26"/>
   </sheetData>
@@ -1759,78 +1788,142 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="29.85546875" customWidth="1" style="2" min="1" max="1"/>
+    <col width="37.5546875" customWidth="1" min="1" max="1"/>
+    <col width="49.21875" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" customFormat="1" s="3">
+      <c r="A1" s="12" t="inlineStr">
+        <is>
+          <t>Краткое название</t>
+        </is>
+      </c>
+      <c r="B1" s="12" t="inlineStr">
+        <is>
+          <t>Размер</t>
+        </is>
+      </c>
+      <c r="C1" s="12" t="inlineStr">
+        <is>
+          <t>Пояснение</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="13" t="inlineStr">
         <is>
           <t>ФИО</t>
         </is>
       </c>
-      <c r="B1" t="n">
+      <c r="B2" s="13" t="n">
         <v>18</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="C2" s="13" t="inlineStr">
+        <is>
+          <t>Ширина поля 'Фамилия, имя, отчество'</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="13" t="inlineStr">
         <is>
           <t>Табельный номер</t>
         </is>
       </c>
-      <c r="B2" s="13" t="n">
+      <c r="B3" s="14" t="n">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="C3" s="13" t="inlineStr">
+        <is>
+          <t>Ширина поля 'Табельный номер'</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="13" t="inlineStr">
         <is>
           <t>Премия</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" s="13" t="n">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="C4" s="13" t="inlineStr">
+        <is>
+          <t>Ширина поля 'Премия'</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="13" t="inlineStr">
         <is>
           <t>Должность</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" s="13" t="n">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="C5" s="13" t="inlineStr">
+        <is>
+          <t>Ширина поля 'Должность'</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="13" t="inlineStr">
         <is>
           <t>Дата</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B6" s="13" t="n">
         <v>3.17</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="C6" s="13" t="inlineStr">
+        <is>
+          <t>Ширина поля 'Дата'</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="13" t="inlineStr">
         <is>
           <t>Итого</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B7" s="13" t="n">
         <v>9</v>
+      </c>
+      <c r="C7" s="13" t="inlineStr">
+        <is>
+          <t>Ширина поля 'Итого'</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="13" t="inlineStr">
+        <is>
+          <t>Количество</t>
+        </is>
+      </c>
+      <c r="B8" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" s="13" t="inlineStr">
+        <is>
+          <t>Количество работников на 1 странице</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293" verticalDpi="4294967293"/>
 </worksheet>
 </file>
--- a/PIYAF/Шаблон.XLSX
+++ b/PIYAF/Шаблон.XLSX
@@ -3,11 +3,12 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Работники" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Настройки" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Выходные" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1" refMode="R1C1" concurrentCalc="0"/>
@@ -17,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -87,6 +88,21 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -97,21 +113,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -134,7 +135,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -145,21 +146,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -532,42 +535,42 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="1">
-      <c r="A1" s="15" t="inlineStr">
+      <c r="A1" s="17" t="inlineStr">
         <is>
           <t>Группа</t>
         </is>
       </c>
-      <c r="B1" s="15" t="inlineStr">
+      <c r="B1" s="17" t="inlineStr">
         <is>
           <t>Фамилия</t>
         </is>
       </c>
-      <c r="C1" s="15" t="inlineStr">
+      <c r="C1" s="17" t="inlineStr">
         <is>
           <t>Имя</t>
         </is>
       </c>
-      <c r="D1" s="15" t="inlineStr">
+      <c r="D1" s="17" t="inlineStr">
         <is>
           <t>Отчество</t>
         </is>
       </c>
-      <c r="E1" s="15" t="inlineStr">
+      <c r="E1" s="17" t="inlineStr">
         <is>
           <t>Должность</t>
         </is>
       </c>
-      <c r="F1" s="15" t="inlineStr">
+      <c r="F1" s="17" t="inlineStr">
         <is>
           <t>Табельный номер</t>
         </is>
       </c>
-      <c r="G1" s="15" t="inlineStr">
+      <c r="G1" s="17" t="inlineStr">
         <is>
           <t>Дата рождения</t>
         </is>
       </c>
-      <c r="H1" s="15" t="inlineStr">
+      <c r="H1" s="17" t="inlineStr">
         <is>
           <t>e-mail</t>
         </is>
@@ -591,38 +594,38 @@
       <c r="Y1" s="3" t="n"/>
     </row>
     <row r="2" customFormat="1" s="5">
-      <c r="A2" s="16" t="inlineStr">
+      <c r="A2" s="18" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B2" s="17" t="inlineStr">
+      <c r="B2" s="19" t="inlineStr">
         <is>
           <t>Вилков</t>
         </is>
       </c>
-      <c r="C2" s="16" t="inlineStr">
+      <c r="C2" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">Евгений </t>
         </is>
       </c>
-      <c r="D2" s="16" t="inlineStr">
+      <c r="D2" s="18" t="inlineStr">
         <is>
           <t>Александрович</t>
         </is>
       </c>
-      <c r="E2" s="16" t="inlineStr">
+      <c r="E2" s="18" t="inlineStr">
         <is>
           <t>инженер-программист 1 категории</t>
         </is>
       </c>
-      <c r="F2" s="18" t="n">
+      <c r="F2" s="20" t="n">
         <v>1146</v>
       </c>
-      <c r="G2" s="19" t="n">
+      <c r="G2" s="21" t="n">
         <v>31382</v>
       </c>
-      <c r="H2" s="16" t="n"/>
+      <c r="H2" s="18" t="n"/>
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
@@ -642,38 +645,38 @@
       <c r="Y2" s="4" t="n"/>
     </row>
     <row r="3" customFormat="1" s="5">
-      <c r="A3" s="16" t="inlineStr">
+      <c r="A3" s="18" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B3" s="17" t="inlineStr">
+      <c r="B3" s="19" t="inlineStr">
         <is>
           <t>Гаврилова</t>
         </is>
       </c>
-      <c r="C3" s="16" t="inlineStr">
+      <c r="C3" s="18" t="inlineStr">
         <is>
           <t>Наталия</t>
         </is>
       </c>
-      <c r="D3" s="16" t="inlineStr">
+      <c r="D3" s="18" t="inlineStr">
         <is>
           <t>Николаевна</t>
         </is>
       </c>
-      <c r="E3" s="16" t="inlineStr">
+      <c r="E3" s="18" t="inlineStr">
         <is>
           <t>техник 1 категории</t>
         </is>
       </c>
-      <c r="F3" s="18" t="n">
+      <c r="F3" s="20" t="n">
         <v>1803</v>
       </c>
-      <c r="G3" s="19" t="n">
+      <c r="G3" s="21" t="n">
         <v>25776</v>
       </c>
-      <c r="H3" s="16" t="n"/>
+      <c r="H3" s="18" t="n"/>
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
@@ -693,38 +696,38 @@
       <c r="Y3" s="4" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="16" t="inlineStr">
+      <c r="A4" s="18" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B4" s="17" t="inlineStr">
+      <c r="B4" s="19" t="inlineStr">
         <is>
           <t>Гордеев</t>
         </is>
       </c>
-      <c r="C4" s="16" t="inlineStr">
+      <c r="C4" s="18" t="inlineStr">
         <is>
           <t>Сергей</t>
         </is>
       </c>
-      <c r="D4" s="16" t="inlineStr">
+      <c r="D4" s="18" t="inlineStr">
         <is>
           <t>Владимирович</t>
         </is>
       </c>
-      <c r="E4" s="16" t="inlineStr">
+      <c r="E4" s="18" t="inlineStr">
         <is>
           <t>ведущий инженер-программист</t>
         </is>
       </c>
-      <c r="F4" s="18" t="n">
+      <c r="F4" s="20" t="n">
         <v>54711</v>
       </c>
-      <c r="G4" s="19" t="n">
+      <c r="G4" s="21" t="n">
         <v>20903</v>
       </c>
-      <c r="H4" s="16" t="n"/>
+      <c r="H4" s="18" t="n"/>
       <c r="I4" s="3" t="n"/>
       <c r="J4" s="3" t="n"/>
       <c r="K4" s="3" t="n"/>
@@ -744,38 +747,38 @@
       <c r="Y4" s="3" t="n"/>
     </row>
     <row r="5" customFormat="1" s="5">
-      <c r="A5" s="16" t="inlineStr">
+      <c r="A5" s="18" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B5" s="17" t="inlineStr">
+      <c r="B5" s="19" t="inlineStr">
         <is>
           <t>Добырн</t>
         </is>
       </c>
-      <c r="C5" s="16" t="inlineStr">
+      <c r="C5" s="18" t="inlineStr">
         <is>
           <t>Владислав</t>
         </is>
       </c>
-      <c r="D5" s="16" t="inlineStr">
+      <c r="D5" s="18" t="inlineStr">
         <is>
           <t>Вениаминович</t>
         </is>
       </c>
-      <c r="E5" s="16" t="inlineStr">
+      <c r="E5" s="18" t="inlineStr">
         <is>
           <t>эксперт</t>
         </is>
       </c>
-      <c r="F5" s="18" t="n">
+      <c r="F5" s="20" t="n">
         <v>983</v>
       </c>
-      <c r="G5" s="19" t="n">
+      <c r="G5" s="21" t="n">
         <v>12513</v>
       </c>
-      <c r="H5" s="16" t="n"/>
+      <c r="H5" s="18" t="n"/>
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
       <c r="K5" s="4" t="n"/>
@@ -795,38 +798,38 @@
       <c r="Y5" s="4" t="n"/>
     </row>
     <row r="6" customFormat="1" s="5">
-      <c r="A6" s="16" t="inlineStr">
+      <c r="A6" s="18" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B6" s="17" t="inlineStr">
+      <c r="B6" s="19" t="inlineStr">
         <is>
           <t>Ермоленко</t>
         </is>
       </c>
-      <c r="C6" s="16" t="inlineStr">
+      <c r="C6" s="18" t="inlineStr">
         <is>
           <t>Оксана</t>
         </is>
       </c>
-      <c r="D6" s="16" t="inlineStr">
+      <c r="D6" s="18" t="inlineStr">
         <is>
           <t>Георгиевна</t>
         </is>
       </c>
-      <c r="E6" s="16" t="inlineStr">
+      <c r="E6" s="18" t="inlineStr">
         <is>
           <t>вед. инженер-технолог</t>
         </is>
       </c>
-      <c r="F6" s="18" t="n">
+      <c r="F6" s="20" t="n">
         <v>1804</v>
       </c>
-      <c r="G6" s="19" t="n">
+      <c r="G6" s="21" t="n">
         <v>23861</v>
       </c>
-      <c r="H6" s="16" t="n"/>
+      <c r="H6" s="18" t="n"/>
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
       <c r="K6" s="4" t="n"/>
@@ -846,38 +849,38 @@
       <c r="Y6" s="4" t="n"/>
     </row>
     <row r="7" customFormat="1" s="5">
-      <c r="A7" s="16" t="inlineStr">
+      <c r="A7" s="18" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B7" s="17" t="inlineStr">
+      <c r="B7" s="19" t="inlineStr">
         <is>
           <t>Кадыров</t>
         </is>
       </c>
-      <c r="C7" s="16" t="inlineStr">
+      <c r="C7" s="18" t="inlineStr">
         <is>
           <t>Андрей</t>
         </is>
       </c>
-      <c r="D7" s="16" t="inlineStr">
+      <c r="D7" s="18" t="inlineStr">
         <is>
           <t>Садыкович</t>
         </is>
       </c>
-      <c r="E7" s="16" t="inlineStr">
+      <c r="E7" s="18" t="inlineStr">
         <is>
           <t>зав. отделом</t>
         </is>
       </c>
-      <c r="F7" s="18" t="n">
+      <c r="F7" s="20" t="n">
         <v>3347</v>
       </c>
-      <c r="G7" s="19" t="n">
+      <c r="G7" s="21" t="n">
         <v>25733</v>
       </c>
-      <c r="H7" s="16" t="n"/>
+      <c r="H7" s="18" t="n"/>
       <c r="I7" s="4" t="n"/>
       <c r="J7" s="4" t="n"/>
       <c r="K7" s="4" t="n"/>
@@ -897,38 +900,38 @@
       <c r="Y7" s="4" t="n"/>
     </row>
     <row r="8" customFormat="1" s="5">
-      <c r="A8" s="16" t="inlineStr">
+      <c r="A8" s="18" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B8" s="17" t="inlineStr">
+      <c r="B8" s="19" t="inlineStr">
         <is>
           <t>Константинов</t>
         </is>
       </c>
-      <c r="C8" s="16" t="inlineStr">
+      <c r="C8" s="18" t="inlineStr">
         <is>
           <t>Леонид</t>
         </is>
       </c>
-      <c r="D8" s="16" t="inlineStr">
+      <c r="D8" s="18" t="inlineStr">
         <is>
           <t>Александрович</t>
         </is>
       </c>
-      <c r="E8" s="16" t="inlineStr">
+      <c r="E8" s="18" t="inlineStr">
         <is>
           <t>ведущий инженер</t>
         </is>
       </c>
-      <c r="F8" s="18" t="n">
+      <c r="F8" s="20" t="n">
         <v>2403</v>
       </c>
-      <c r="G8" s="19" t="n">
+      <c r="G8" s="21" t="n">
         <v>22113</v>
       </c>
-      <c r="H8" s="16" t="n"/>
+      <c r="H8" s="18" t="n"/>
       <c r="I8" s="4" t="n"/>
       <c r="J8" s="4" t="n"/>
       <c r="K8" s="4" t="n"/>
@@ -948,38 +951,38 @@
       <c r="Y8" s="4" t="n"/>
     </row>
     <row r="9" customFormat="1" s="5">
-      <c r="A9" s="16" t="inlineStr">
+      <c r="A9" s="18" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B9" s="17" t="inlineStr">
+      <c r="B9" s="19" t="inlineStr">
         <is>
           <t>Кормин</t>
         </is>
       </c>
-      <c r="C9" s="16" t="inlineStr">
+      <c r="C9" s="18" t="inlineStr">
         <is>
           <t>Владимир</t>
         </is>
       </c>
-      <c r="D9" s="16" t="inlineStr">
+      <c r="D9" s="18" t="inlineStr">
         <is>
           <t>Евгеньевич</t>
         </is>
       </c>
-      <c r="E9" s="16" t="inlineStr">
+      <c r="E9" s="18" t="inlineStr">
         <is>
           <t>инженер-программист</t>
         </is>
       </c>
-      <c r="F9" s="18" t="n">
+      <c r="F9" s="20" t="n">
         <v>55867</v>
       </c>
-      <c r="G9" s="19" t="n">
+      <c r="G9" s="21" t="n">
         <v>28787</v>
       </c>
-      <c r="H9" s="16" t="n"/>
+      <c r="H9" s="18" t="n"/>
       <c r="I9" s="4" t="n"/>
       <c r="J9" s="4" t="n"/>
       <c r="K9" s="4" t="n"/>
@@ -999,38 +1002,38 @@
       <c r="Y9" s="4" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="16" t="inlineStr">
+      <c r="A10" s="18" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B10" s="17" t="inlineStr">
+      <c r="B10" s="19" t="inlineStr">
         <is>
           <t>Лавров</t>
         </is>
       </c>
-      <c r="C10" s="16" t="inlineStr">
+      <c r="C10" s="18" t="inlineStr">
         <is>
           <t>Юрий</t>
         </is>
       </c>
-      <c r="D10" s="16" t="inlineStr">
+      <c r="D10" s="18" t="inlineStr">
         <is>
           <t>Михайлович</t>
         </is>
       </c>
-      <c r="E10" s="16" t="inlineStr">
+      <c r="E10" s="18" t="inlineStr">
         <is>
           <t>эксперт</t>
         </is>
       </c>
-      <c r="F10" s="18" t="n">
+      <c r="F10" s="20" t="n">
         <v>1777</v>
       </c>
-      <c r="G10" s="19" t="n">
+      <c r="G10" s="21" t="n">
         <v>22779</v>
       </c>
-      <c r="H10" s="16" t="n"/>
+      <c r="H10" s="18" t="n"/>
       <c r="I10" s="3" t="n"/>
       <c r="J10" s="3" t="n"/>
       <c r="K10" s="3" t="n"/>
@@ -1050,38 +1053,38 @@
       <c r="Y10" s="3" t="n"/>
     </row>
     <row r="11" customFormat="1" s="5">
-      <c r="A11" s="16" t="inlineStr">
+      <c r="A11" s="18" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B11" s="17" t="inlineStr">
+      <c r="B11" s="19" t="inlineStr">
         <is>
           <t>Ладатко</t>
         </is>
       </c>
-      <c r="C11" s="16" t="inlineStr">
+      <c r="C11" s="18" t="inlineStr">
         <is>
           <t>Игорь</t>
         </is>
       </c>
-      <c r="D11" s="16" t="inlineStr">
+      <c r="D11" s="18" t="inlineStr">
         <is>
           <t>Викторович</t>
         </is>
       </c>
-      <c r="E11" s="16" t="inlineStr">
+      <c r="E11" s="18" t="inlineStr">
         <is>
           <t>инженер-программист 2 категории</t>
         </is>
       </c>
-      <c r="F11" s="18" t="n">
+      <c r="F11" s="20" t="n">
         <v>1135</v>
       </c>
-      <c r="G11" s="19" t="n">
+      <c r="G11" s="21" t="n">
         <v>27010</v>
       </c>
-      <c r="H11" s="16" t="n"/>
+      <c r="H11" s="18" t="n"/>
       <c r="I11" s="4" t="n"/>
       <c r="J11" s="4" t="n"/>
       <c r="K11" s="4" t="n"/>
@@ -1101,38 +1104,38 @@
       <c r="Y11" s="4" t="n"/>
     </row>
     <row r="12" customFormat="1" s="5">
-      <c r="A12" s="16" t="inlineStr">
+      <c r="A12" s="18" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B12" s="17" t="inlineStr">
+      <c r="B12" s="19" t="inlineStr">
         <is>
           <t>Тупиленко</t>
         </is>
       </c>
-      <c r="C12" s="16" t="inlineStr">
+      <c r="C12" s="18" t="inlineStr">
         <is>
           <t>Ольга</t>
         </is>
       </c>
-      <c r="D12" s="16" t="inlineStr">
+      <c r="D12" s="18" t="inlineStr">
         <is>
           <t>Евгеньевна</t>
         </is>
       </c>
-      <c r="E12" s="16" t="inlineStr">
+      <c r="E12" s="18" t="inlineStr">
         <is>
           <t>старший лаборант</t>
         </is>
       </c>
-      <c r="F12" s="18" t="n">
+      <c r="F12" s="20" t="n">
         <v>2946</v>
       </c>
-      <c r="G12" s="19" t="n">
+      <c r="G12" s="21" t="n">
         <v>23895</v>
       </c>
-      <c r="H12" s="16" t="n"/>
+      <c r="H12" s="18" t="n"/>
       <c r="I12" s="4" t="n"/>
       <c r="J12" s="4" t="n"/>
       <c r="K12" s="4" t="n"/>
@@ -1152,38 +1155,38 @@
       <c r="Y12" s="4" t="n"/>
     </row>
     <row r="13" customFormat="1" s="5">
-      <c r="A13" s="16" t="inlineStr">
+      <c r="A13" s="18" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B13" s="17" t="inlineStr">
+      <c r="B13" s="19" t="inlineStr">
         <is>
           <t>Турухано</t>
         </is>
       </c>
-      <c r="C13" s="16" t="inlineStr">
+      <c r="C13" s="18" t="inlineStr">
         <is>
           <t>Борис</t>
         </is>
       </c>
-      <c r="D13" s="16" t="inlineStr">
+      <c r="D13" s="18" t="inlineStr">
         <is>
           <t>Ганьевич</t>
         </is>
       </c>
-      <c r="E13" s="16" t="inlineStr">
+      <c r="E13" s="18" t="inlineStr">
         <is>
           <t>вед. научный сотрудник</t>
         </is>
       </c>
-      <c r="F13" s="18" t="n">
+      <c r="F13" s="20" t="n">
         <v>1767</v>
       </c>
-      <c r="G13" s="19" t="n">
+      <c r="G13" s="21" t="n">
         <v>13817</v>
       </c>
-      <c r="H13" s="16" t="n"/>
+      <c r="H13" s="18" t="n"/>
       <c r="I13" s="4" t="n"/>
       <c r="J13" s="4" t="n"/>
       <c r="K13" s="4" t="n"/>
@@ -1203,38 +1206,38 @@
       <c r="Y13" s="4" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="16" t="inlineStr">
+      <c r="A14" s="18" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B14" s="17" t="inlineStr">
+      <c r="B14" s="19" t="inlineStr">
         <is>
           <t>Турухано</t>
         </is>
       </c>
-      <c r="C14" s="16" t="inlineStr">
+      <c r="C14" s="18" t="inlineStr">
         <is>
           <t>Никулина</t>
         </is>
       </c>
-      <c r="D14" s="16" t="inlineStr">
+      <c r="D14" s="18" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="E14" s="16" t="inlineStr">
+      <c r="E14" s="18" t="inlineStr">
         <is>
           <t>эксперт</t>
         </is>
       </c>
-      <c r="F14" s="18" t="n">
+      <c r="F14" s="20" t="n">
         <v>162</v>
       </c>
-      <c r="G14" s="19" t="n">
+      <c r="G14" s="21" t="n">
         <v>13837</v>
       </c>
-      <c r="H14" s="16" t="n"/>
+      <c r="H14" s="18" t="n"/>
       <c r="I14" s="3" t="n"/>
       <c r="J14" s="3" t="n"/>
       <c r="K14" s="3" t="n"/>
@@ -1254,38 +1257,38 @@
       <c r="Y14" s="3" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="16" t="inlineStr">
+      <c r="A15" s="18" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B15" s="17" t="inlineStr">
+      <c r="B15" s="19" t="inlineStr">
         <is>
           <t>Ханов</t>
         </is>
       </c>
-      <c r="C15" s="16" t="inlineStr">
+      <c r="C15" s="18" t="inlineStr">
         <is>
           <t>Сергей</t>
         </is>
       </c>
-      <c r="D15" s="16" t="inlineStr">
+      <c r="D15" s="18" t="inlineStr">
         <is>
           <t>Николаевич</t>
         </is>
       </c>
-      <c r="E15" s="16" t="inlineStr">
+      <c r="E15" s="18" t="inlineStr">
         <is>
           <t>ведущий конструктор</t>
         </is>
       </c>
-      <c r="F15" s="18" t="n">
+      <c r="F15" s="20" t="n">
         <v>1792</v>
       </c>
-      <c r="G15" s="19" t="n">
+      <c r="G15" s="21" t="n">
         <v>17727</v>
       </c>
-      <c r="H15" s="16" t="n"/>
+      <c r="H15" s="18" t="n"/>
       <c r="I15" s="3" t="n"/>
       <c r="J15" s="3" t="n"/>
       <c r="K15" s="3" t="n"/>
@@ -1305,38 +1308,38 @@
       <c r="Y15" s="3" t="n"/>
     </row>
     <row r="16" customFormat="1" s="5">
-      <c r="A16" s="16" t="inlineStr">
+      <c r="A16" s="18" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B16" s="17" t="inlineStr">
+      <c r="B16" s="19" t="inlineStr">
         <is>
           <t>Христачев</t>
         </is>
       </c>
-      <c r="C16" s="16" t="inlineStr">
+      <c r="C16" s="18" t="inlineStr">
         <is>
           <t>Александр</t>
         </is>
       </c>
-      <c r="D16" s="16" t="inlineStr">
+      <c r="D16" s="18" t="inlineStr">
         <is>
           <t>Евгеньевич</t>
         </is>
       </c>
-      <c r="E16" s="16" t="inlineStr">
+      <c r="E16" s="18" t="inlineStr">
         <is>
           <t>ведущий инженер-программист</t>
         </is>
       </c>
-      <c r="F16" s="18" t="n">
+      <c r="F16" s="20" t="n">
         <v>67383</v>
       </c>
-      <c r="G16" s="19" t="n">
+      <c r="G16" s="21" t="n">
         <v>22691</v>
       </c>
-      <c r="H16" s="16" t="n"/>
+      <c r="H16" s="18" t="n"/>
       <c r="I16" s="4" t="n"/>
       <c r="J16" s="4" t="n"/>
       <c r="K16" s="4" t="n"/>
@@ -1356,38 +1359,38 @@
       <c r="Y16" s="4" t="n"/>
     </row>
     <row r="17" customFormat="1" s="5">
-      <c r="A17" s="16" t="inlineStr">
+      <c r="A17" s="18" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B17" s="17" t="inlineStr">
+      <c r="B17" s="19" t="inlineStr">
         <is>
           <t>Щипунова</t>
         </is>
       </c>
-      <c r="C17" s="16" t="inlineStr">
+      <c r="C17" s="18" t="inlineStr">
         <is>
           <t>Надежда</t>
         </is>
       </c>
-      <c r="D17" s="16" t="inlineStr">
+      <c r="D17" s="18" t="inlineStr">
         <is>
           <t>Алексеевна</t>
         </is>
       </c>
-      <c r="E17" s="16" t="inlineStr">
+      <c r="E17" s="18" t="inlineStr">
         <is>
           <t>вед. инженер-технолог</t>
         </is>
       </c>
-      <c r="F17" s="18" t="n">
+      <c r="F17" s="20" t="n">
         <v>1783</v>
       </c>
-      <c r="G17" s="19" t="n">
+      <c r="G17" s="21" t="n">
         <v>19582</v>
       </c>
-      <c r="H17" s="16" t="n"/>
+      <c r="H17" s="18" t="n"/>
       <c r="I17" s="4" t="n"/>
       <c r="J17" s="4" t="n"/>
       <c r="K17" s="4" t="n"/>
@@ -1407,36 +1410,36 @@
       <c r="Y17" s="4" t="n"/>
     </row>
     <row r="18" customFormat="1" s="5">
-      <c r="A18" s="16" t="inlineStr">
+      <c r="A18" s="18" t="inlineStr">
         <is>
           <t>ГТВ</t>
         </is>
       </c>
-      <c r="B18" s="17" t="inlineStr">
+      <c r="B18" s="19" t="inlineStr">
         <is>
           <t>Бенин</t>
         </is>
       </c>
-      <c r="C18" s="16" t="inlineStr">
+      <c r="C18" s="18" t="inlineStr">
         <is>
           <t>Александр</t>
         </is>
       </c>
-      <c r="D18" s="16" t="inlineStr">
+      <c r="D18" s="18" t="inlineStr">
         <is>
           <t>Исаакович</t>
         </is>
       </c>
-      <c r="E18" s="16" t="inlineStr">
+      <c r="E18" s="18" t="inlineStr">
         <is>
           <t>вед. научный сотрудник</t>
         </is>
       </c>
-      <c r="F18" s="18" t="n">
+      <c r="F18" s="20" t="n">
         <v>5310</v>
       </c>
-      <c r="G18" s="16" t="n"/>
-      <c r="H18" s="20" t="inlineStr">
+      <c r="G18" s="18" t="n"/>
+      <c r="H18" s="22" t="inlineStr">
         <is>
           <t>benin@cisp.spb.ru</t>
         </is>
@@ -1460,36 +1463,36 @@
       <c r="Y18" s="4" t="n"/>
     </row>
     <row r="19" customFormat="1" s="5">
-      <c r="A19" s="16" t="inlineStr">
+      <c r="A19" s="18" t="inlineStr">
         <is>
           <t>ГФФ</t>
         </is>
       </c>
-      <c r="B19" s="17" t="inlineStr">
+      <c r="B19" s="19" t="inlineStr">
         <is>
           <t>Барнаш</t>
         </is>
       </c>
-      <c r="C19" s="16" t="inlineStr">
+      <c r="C19" s="18" t="inlineStr">
         <is>
           <t>Ярослав</t>
         </is>
       </c>
-      <c r="D19" s="16" t="inlineStr">
+      <c r="D19" s="18" t="inlineStr">
         <is>
           <t>Валерьевич</t>
         </is>
       </c>
-      <c r="E19" s="16" t="inlineStr">
+      <c r="E19" s="18" t="inlineStr">
         <is>
           <t>лаборант-исследователь</t>
         </is>
       </c>
-      <c r="F19" s="18" t="n">
+      <c r="F19" s="20" t="n">
         <v>4848</v>
       </c>
-      <c r="G19" s="21" t="n"/>
-      <c r="H19" s="16" t="n"/>
+      <c r="G19" s="23" t="n"/>
+      <c r="H19" s="18" t="n"/>
       <c r="I19" s="4" t="n"/>
       <c r="J19" s="4" t="n"/>
       <c r="K19" s="4" t="n"/>
@@ -1509,36 +1512,36 @@
       <c r="Y19" s="4" t="n"/>
     </row>
     <row r="20" customFormat="1" s="5">
-      <c r="A20" s="16" t="inlineStr">
+      <c r="A20" s="18" t="inlineStr">
         <is>
           <t>ГФФ</t>
         </is>
       </c>
-      <c r="B20" s="17" t="inlineStr">
+      <c r="B20" s="19" t="inlineStr">
         <is>
           <t>Зубцова</t>
         </is>
       </c>
-      <c r="C20" s="16" t="inlineStr">
+      <c r="C20" s="18" t="inlineStr">
         <is>
           <t>Юлия</t>
         </is>
       </c>
-      <c r="D20" s="16" t="inlineStr">
+      <c r="D20" s="18" t="inlineStr">
         <is>
           <t>Александровна</t>
         </is>
       </c>
-      <c r="E20" s="16" t="inlineStr">
+      <c r="E20" s="18" t="inlineStr">
         <is>
           <t>научный сотрудник</t>
         </is>
       </c>
-      <c r="F20" s="18" t="n">
+      <c r="F20" s="20" t="n">
         <v>4584</v>
       </c>
-      <c r="G20" s="21" t="n"/>
-      <c r="H20" s="16" t="n"/>
+      <c r="G20" s="23" t="n"/>
+      <c r="H20" s="18" t="n"/>
       <c r="I20" s="4" t="n"/>
       <c r="J20" s="4" t="n"/>
       <c r="K20" s="4" t="n"/>
@@ -1558,36 +1561,36 @@
       <c r="Y20" s="4" t="n"/>
     </row>
     <row r="21" customFormat="1" s="5">
-      <c r="A21" s="16" t="inlineStr">
+      <c r="A21" s="18" t="inlineStr">
         <is>
           <t>ГФФ</t>
         </is>
       </c>
-      <c r="B21" s="17" t="inlineStr">
+      <c r="B21" s="19" t="inlineStr">
         <is>
           <t>Каманина</t>
         </is>
       </c>
-      <c r="C21" s="16" t="inlineStr">
+      <c r="C21" s="18" t="inlineStr">
         <is>
           <t>Наталия</t>
         </is>
       </c>
-      <c r="D21" s="16" t="inlineStr">
+      <c r="D21" s="18" t="inlineStr">
         <is>
           <t>Владимировна</t>
         </is>
       </c>
-      <c r="E21" s="16" t="inlineStr">
+      <c r="E21" s="18" t="inlineStr">
         <is>
           <t>вед. научный сотрудник</t>
         </is>
       </c>
-      <c r="F21" s="18" t="n">
+      <c r="F21" s="20" t="n">
         <v>4583</v>
       </c>
-      <c r="G21" s="21" t="n"/>
-      <c r="H21" s="16" t="n"/>
+      <c r="G21" s="23" t="n"/>
+      <c r="H21" s="18" t="n"/>
       <c r="I21" s="4" t="n"/>
       <c r="J21" s="4" t="n"/>
       <c r="K21" s="4" t="n"/>
@@ -1607,36 +1610,36 @@
       <c r="Y21" s="4" t="n"/>
     </row>
     <row r="22" customFormat="1" s="5">
-      <c r="A22" s="16" t="inlineStr">
+      <c r="A22" s="18" t="inlineStr">
         <is>
           <t>ГФФ</t>
         </is>
       </c>
-      <c r="B22" s="16" t="inlineStr">
+      <c r="B22" s="18" t="inlineStr">
         <is>
           <t>Кужаков</t>
         </is>
       </c>
-      <c r="C22" s="16" t="inlineStr">
+      <c r="C22" s="18" t="inlineStr">
         <is>
           <t>Павел</t>
         </is>
       </c>
-      <c r="D22" s="16" t="inlineStr">
+      <c r="D22" s="18" t="inlineStr">
         <is>
           <t>Викторович</t>
         </is>
       </c>
-      <c r="E22" s="16" t="inlineStr">
+      <c r="E22" s="18" t="inlineStr">
         <is>
           <t>научный сотрудник</t>
         </is>
       </c>
-      <c r="F22" s="18" t="n">
+      <c r="F22" s="20" t="n">
         <v>4585</v>
       </c>
-      <c r="G22" s="16" t="n"/>
-      <c r="H22" s="16" t="n"/>
+      <c r="G22" s="18" t="n"/>
+      <c r="H22" s="18" t="n"/>
       <c r="I22" s="4" t="n"/>
       <c r="J22" s="4" t="n"/>
       <c r="K22" s="4" t="n"/>
@@ -1656,36 +1659,36 @@
       <c r="Y22" s="4" t="n"/>
     </row>
     <row r="23" customFormat="1" s="5">
-      <c r="A23" s="16" t="inlineStr">
+      <c r="A23" s="18" t="inlineStr">
         <is>
           <t>ГФФ</t>
         </is>
       </c>
-      <c r="B23" s="17" t="inlineStr">
+      <c r="B23" s="19" t="inlineStr">
         <is>
           <t>Лихоманова</t>
         </is>
       </c>
-      <c r="C23" s="16" t="inlineStr">
+      <c r="C23" s="18" t="inlineStr">
         <is>
           <t>Светлана</t>
         </is>
       </c>
-      <c r="D23" s="16" t="inlineStr">
+      <c r="D23" s="18" t="inlineStr">
         <is>
           <t>Владимировна</t>
         </is>
       </c>
-      <c r="E23" s="16" t="inlineStr">
+      <c r="E23" s="18" t="inlineStr">
         <is>
           <t>научный сотрудник</t>
         </is>
       </c>
-      <c r="F23" s="18" t="n">
+      <c r="F23" s="20" t="n">
         <v>4669</v>
       </c>
-      <c r="G23" s="21" t="n"/>
-      <c r="H23" s="16" t="n"/>
+      <c r="G23" s="23" t="n"/>
+      <c r="H23" s="18" t="n"/>
       <c r="I23" s="4" t="n"/>
       <c r="J23" s="4" t="n"/>
       <c r="K23" s="4" t="n"/>
@@ -1705,72 +1708,72 @@
       <c r="Y23" s="4" t="n"/>
     </row>
     <row r="24" customFormat="1" s="5">
-      <c r="A24" s="16" t="inlineStr">
+      <c r="A24" s="18" t="inlineStr">
         <is>
           <t>ГФФ</t>
         </is>
       </c>
-      <c r="B24" s="17" t="inlineStr">
+      <c r="B24" s="19" t="inlineStr">
         <is>
           <t>Тойкка</t>
         </is>
       </c>
-      <c r="C24" s="16" t="inlineStr">
+      <c r="C24" s="18" t="inlineStr">
         <is>
           <t>Андрей</t>
         </is>
       </c>
-      <c r="D24" s="16" t="inlineStr">
+      <c r="D24" s="18" t="inlineStr">
         <is>
           <t>Сергеевич</t>
         </is>
       </c>
-      <c r="E24" s="16" t="inlineStr">
+      <c r="E24" s="18" t="inlineStr">
         <is>
           <t>лаборант-исследователь</t>
         </is>
       </c>
-      <c r="F24" s="18" t="n">
+      <c r="F24" s="20" t="n">
         <v>4587</v>
       </c>
-      <c r="G24" s="21" t="n"/>
-      <c r="H24" s="16" t="inlineStr">
+      <c r="G24" s="23" t="n"/>
+      <c r="H24" s="18" t="inlineStr">
         <is>
           <t>mailto:benin@cisp.spb.ru</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="16" t="inlineStr">
+      <c r="A25" s="18" t="inlineStr">
         <is>
           <t>ГФФ</t>
         </is>
       </c>
-      <c r="B25" s="17" t="inlineStr">
+      <c r="B25" s="19" t="inlineStr">
         <is>
           <t>Федерова</t>
         </is>
       </c>
-      <c r="C25" s="16" t="inlineStr">
+      <c r="C25" s="18" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="D25" s="16" t="inlineStr">
+      <c r="D25" s="18" t="inlineStr">
         <is>
           <t>Олеговна</t>
         </is>
       </c>
-      <c r="E25" s="16" t="inlineStr">
+      <c r="E25" s="18" t="inlineStr">
         <is>
           <t>лаборант-исследователь</t>
         </is>
       </c>
-      <c r="F25" s="18" t="n">
+      <c r="F25" s="20" t="n">
         <v>5198</v>
       </c>
-      <c r="G25" s="21" t="n"/>
-      <c r="H25" s="16" t="n"/>
+      <c r="G25" s="23" t="n"/>
+      <c r="H25" s="18" t="n"/>
     </row>
     <row r="26"/>
   </sheetData>
@@ -1790,8 +1793,8 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -1801,122 +1804,122 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="3">
-      <c r="A1" s="12" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Краткое название</t>
         </is>
       </c>
-      <c r="B1" s="12" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Размер</t>
         </is>
       </c>
-      <c r="C1" s="12" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Пояснение</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="inlineStr">
+      <c r="A2" s="7" t="inlineStr">
         <is>
           <t>ФИО</t>
         </is>
       </c>
-      <c r="B2" s="13" t="n">
+      <c r="B2" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="C2" s="13" t="inlineStr">
+      <c r="C2" s="7" t="inlineStr">
         <is>
           <t>Ширина поля 'Фамилия, имя, отчество'</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="inlineStr">
+      <c r="A3" s="7" t="inlineStr">
         <is>
           <t>Табельный номер</t>
         </is>
       </c>
-      <c r="B3" s="14" t="n">
+      <c r="B3" s="8" t="n">
         <v>5.7</v>
       </c>
-      <c r="C3" s="13" t="inlineStr">
+      <c r="C3" s="7" t="inlineStr">
         <is>
           <t>Ширина поля 'Табельный номер'</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="inlineStr">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>Премия</t>
         </is>
       </c>
-      <c r="B4" s="13" t="n">
+      <c r="B4" s="7" t="n">
         <v>6.2</v>
       </c>
-      <c r="C4" s="13" t="inlineStr">
+      <c r="C4" s="7" t="inlineStr">
         <is>
           <t>Ширина поля 'Премия'</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="inlineStr">
+      <c r="A5" s="7" t="inlineStr">
         <is>
           <t>Должность</t>
         </is>
       </c>
-      <c r="B5" s="13" t="n">
+      <c r="B5" s="7" t="n">
         <v>16.2</v>
       </c>
-      <c r="C5" s="13" t="inlineStr">
+      <c r="C5" s="7" t="inlineStr">
         <is>
           <t>Ширина поля 'Должность'</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="inlineStr">
+      <c r="A6" s="7" t="inlineStr">
         <is>
           <t>Дата</t>
         </is>
       </c>
-      <c r="B6" s="13" t="n">
+      <c r="B6" s="7" t="n">
         <v>3.17</v>
       </c>
-      <c r="C6" s="13" t="inlineStr">
+      <c r="C6" s="7" t="inlineStr">
         <is>
           <t>Ширина поля 'Дата'</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="inlineStr">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>Итого</t>
         </is>
       </c>
-      <c r="B7" s="13" t="n">
+      <c r="B7" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="C7" s="13" t="inlineStr">
+      <c r="C7" s="7" t="inlineStr">
         <is>
           <t>Ширина поля 'Итого'</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="inlineStr">
+      <c r="A8" s="7" t="inlineStr">
         <is>
           <t>Количество</t>
         </is>
       </c>
-      <c r="B8" s="13" t="n">
+      <c r="B8" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="C8" s="13" t="inlineStr">
+      <c r="C8" s="7" t="inlineStr">
         <is>
           <t>Количество работников на 1 странице</t>
         </is>
@@ -1926,4 +1929,159 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293" verticalDpi="4294967293"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="41.21875" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Выходные Сентября</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>02:09:2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>03:09:2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>09:09:2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>10:09:2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>16:09:2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>17:09:2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>23:09:2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>24:09:2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>30:09:2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Выходные Октября</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>07:10:2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>08:10:2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>14:10:2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>15:10:2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>21:10:2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>22:10:2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>28:10:2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="inlineStr">
+        <is>
+          <t>29:10:2023</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PIYAF/Шаблон.XLSX
+++ b/PIYAF/Шаблон.XLSX
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Работники" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,7 +11,7 @@
     <sheet name="Выходные" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1" refMode="R1C1" concurrentCalc="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -20,9 +20,25 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -71,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -108,6 +124,17 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -133,47 +160,68 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -518,10 +566,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y26"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -530,1255 +578,1461 @@
     <col width="19.5546875" customWidth="1" style="2" min="2" max="2"/>
     <col width="19.5546875" customWidth="1" min="3" max="4"/>
     <col width="35.5546875" customWidth="1" min="5" max="5"/>
-    <col width="19.5546875" customWidth="1" min="6" max="7"/>
-    <col width="26.44140625" customWidth="1" min="8" max="8"/>
+    <col width="19.5546875" customWidth="1" min="6" max="6"/>
+    <col width="19.5546875" customWidth="1" style="9" min="7" max="8"/>
+    <col width="19.5546875" customWidth="1" min="9" max="9"/>
+    <col width="26.44140625" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="1">
-      <c r="A1" s="17" t="inlineStr">
+    <row r="1" ht="30" customFormat="1" customHeight="1" s="1">
+      <c r="A1" s="22" t="inlineStr">
         <is>
           <t>Группа</t>
         </is>
       </c>
-      <c r="B1" s="17" t="inlineStr">
+      <c r="B1" s="22" t="inlineStr">
         <is>
           <t>Фамилия</t>
         </is>
       </c>
-      <c r="C1" s="17" t="inlineStr">
+      <c r="C1" s="22" t="inlineStr">
         <is>
           <t>Имя</t>
         </is>
       </c>
-      <c r="D1" s="17" t="inlineStr">
+      <c r="D1" s="22" t="inlineStr">
         <is>
           <t>Отчество</t>
         </is>
       </c>
-      <c r="E1" s="17" t="inlineStr">
+      <c r="E1" s="22" t="inlineStr">
         <is>
           <t>Должность</t>
         </is>
       </c>
-      <c r="F1" s="17" t="inlineStr">
+      <c r="F1" s="22" t="inlineStr">
         <is>
           <t>Табельный номер</t>
         </is>
       </c>
-      <c r="G1" s="17" t="inlineStr">
+      <c r="G1" s="23" t="inlineStr">
+        <is>
+          <t>Должен работать часов</t>
+        </is>
+      </c>
+      <c r="H1" s="24" t="inlineStr">
+        <is>
+          <t>Режим работы</t>
+        </is>
+      </c>
+      <c r="I1" s="25" t="inlineStr">
         <is>
           <t>Дата рождения</t>
         </is>
       </c>
-      <c r="H1" s="17" t="inlineStr">
+      <c r="J1" s="25" t="inlineStr">
         <is>
           <t>e-mail</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
-      <c r="O1" s="3" t="n"/>
-      <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
-      <c r="R1" s="3" t="n"/>
-      <c r="S1" s="3" t="n"/>
-      <c r="T1" s="3" t="n"/>
-      <c r="U1" s="3" t="n"/>
-      <c r="V1" s="3" t="n"/>
-      <c r="W1" s="3" t="n"/>
-      <c r="X1" s="3" t="n"/>
-      <c r="Y1" s="3" t="n"/>
-    </row>
-    <row r="2" customFormat="1" s="5">
-      <c r="A2" s="18" t="inlineStr">
+      <c r="K1" s="9" t="n"/>
+      <c r="L1" s="9" t="n"/>
+      <c r="M1" s="9" t="n"/>
+      <c r="N1" s="9" t="n"/>
+      <c r="O1" s="9" t="n"/>
+      <c r="P1" s="9" t="n"/>
+      <c r="Q1" s="9" t="n"/>
+      <c r="R1" s="9" t="n"/>
+      <c r="S1" s="9" t="n"/>
+      <c r="T1" s="9" t="n"/>
+      <c r="U1" s="9" t="n"/>
+      <c r="V1" s="9" t="n"/>
+      <c r="W1" s="9" t="n"/>
+      <c r="X1" s="9" t="n"/>
+      <c r="Y1" s="9" t="n"/>
+      <c r="Z1" s="9" t="n"/>
+      <c r="AA1" s="9" t="n"/>
+    </row>
+    <row r="2" customFormat="1" s="4">
+      <c r="A2" s="26" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B2" s="19" t="inlineStr">
+      <c r="B2" s="27" t="inlineStr">
         <is>
           <t>Вилков</t>
         </is>
       </c>
-      <c r="C2" s="18" t="inlineStr">
+      <c r="C2" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">Евгений </t>
         </is>
       </c>
-      <c r="D2" s="18" t="inlineStr">
+      <c r="D2" s="26" t="inlineStr">
         <is>
           <t>Александрович</t>
         </is>
       </c>
-      <c r="E2" s="18" t="inlineStr">
+      <c r="E2" s="26" t="inlineStr">
         <is>
           <t>инженер-программист 1 категории</t>
         </is>
       </c>
-      <c r="F2" s="20" t="n">
+      <c r="F2" s="28" t="n">
         <v>1146</v>
       </c>
-      <c r="G2" s="21" t="n">
+      <c r="G2" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" s="29" t="inlineStr">
+        <is>
+          <t>ДР</t>
+        </is>
+      </c>
+      <c r="I2" s="30" t="n">
         <v>31382</v>
       </c>
-      <c r="H2" s="18" t="n"/>
-      <c r="I2" s="4" t="n"/>
-      <c r="J2" s="4" t="n"/>
-      <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
-      <c r="O2" s="4" t="n"/>
-      <c r="P2" s="4" t="n"/>
-      <c r="Q2" s="4" t="n"/>
-      <c r="R2" s="4" t="n"/>
-      <c r="S2" s="4" t="n"/>
-      <c r="T2" s="4" t="n"/>
-      <c r="U2" s="4" t="n"/>
-      <c r="V2" s="4" t="n"/>
-      <c r="W2" s="4" t="n"/>
-      <c r="X2" s="4" t="n"/>
-      <c r="Y2" s="4" t="n"/>
-    </row>
-    <row r="3" customFormat="1" s="5">
-      <c r="A3" s="18" t="inlineStr">
+      <c r="J2" s="26" t="n"/>
+      <c r="K2" s="3" t="n"/>
+      <c r="L2" s="3" t="n"/>
+      <c r="M2" s="3" t="n"/>
+      <c r="N2" s="3" t="n"/>
+      <c r="O2" s="3" t="n"/>
+      <c r="P2" s="3" t="n"/>
+      <c r="Q2" s="3" t="n"/>
+      <c r="R2" s="3" t="n"/>
+      <c r="S2" s="3" t="n"/>
+      <c r="T2" s="3" t="n"/>
+      <c r="U2" s="3" t="n"/>
+      <c r="V2" s="3" t="n"/>
+      <c r="W2" s="3" t="n"/>
+      <c r="X2" s="3" t="n"/>
+      <c r="Y2" s="3" t="n"/>
+      <c r="Z2" s="3" t="n"/>
+      <c r="AA2" s="3" t="n"/>
+    </row>
+    <row r="3" customFormat="1" s="4">
+      <c r="A3" s="26" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B3" s="19" t="inlineStr">
+      <c r="B3" s="27" t="inlineStr">
         <is>
           <t>Гаврилова</t>
         </is>
       </c>
-      <c r="C3" s="18" t="inlineStr">
+      <c r="C3" s="26" t="inlineStr">
         <is>
           <t>Наталия</t>
         </is>
       </c>
-      <c r="D3" s="18" t="inlineStr">
+      <c r="D3" s="26" t="inlineStr">
         <is>
           <t>Николаевна</t>
         </is>
       </c>
-      <c r="E3" s="18" t="inlineStr">
+      <c r="E3" s="26" t="inlineStr">
         <is>
           <t>техник 1 категории</t>
         </is>
       </c>
-      <c r="F3" s="20" t="n">
+      <c r="F3" s="28" t="n">
         <v>1803</v>
       </c>
-      <c r="G3" s="21" t="n">
+      <c r="G3" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" s="29" t="inlineStr">
+        <is>
+          <t>ДР</t>
+        </is>
+      </c>
+      <c r="I3" s="30" t="n">
         <v>25776</v>
       </c>
-      <c r="H3" s="18" t="n"/>
-      <c r="I3" s="4" t="n"/>
-      <c r="J3" s="4" t="n"/>
-      <c r="K3" s="4" t="n"/>
-      <c r="L3" s="4" t="n"/>
-      <c r="M3" s="4" t="n"/>
-      <c r="N3" s="4" t="n"/>
-      <c r="O3" s="4" t="n"/>
-      <c r="P3" s="4" t="n"/>
-      <c r="Q3" s="4" t="n"/>
-      <c r="R3" s="4" t="n"/>
-      <c r="S3" s="4" t="n"/>
-      <c r="T3" s="4" t="n"/>
-      <c r="U3" s="4" t="n"/>
-      <c r="V3" s="4" t="n"/>
-      <c r="W3" s="4" t="n"/>
-      <c r="X3" s="4" t="n"/>
-      <c r="Y3" s="4" t="n"/>
+      <c r="J3" s="26" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="n"/>
+      <c r="M3" s="3" t="n"/>
+      <c r="N3" s="3" t="n"/>
+      <c r="O3" s="3" t="n"/>
+      <c r="P3" s="3" t="n"/>
+      <c r="Q3" s="3" t="n"/>
+      <c r="R3" s="3" t="n"/>
+      <c r="S3" s="3" t="n"/>
+      <c r="T3" s="3" t="n"/>
+      <c r="U3" s="3" t="n"/>
+      <c r="V3" s="3" t="n"/>
+      <c r="W3" s="3" t="n"/>
+      <c r="X3" s="3" t="n"/>
+      <c r="Y3" s="3" t="n"/>
+      <c r="Z3" s="3" t="n"/>
+      <c r="AA3" s="3" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="18" t="inlineStr">
+      <c r="A4" s="26" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B4" s="19" t="inlineStr">
+      <c r="B4" s="27" t="inlineStr">
         <is>
           <t>Гордеев</t>
         </is>
       </c>
-      <c r="C4" s="18" t="inlineStr">
+      <c r="C4" s="26" t="inlineStr">
         <is>
           <t>Сергей</t>
         </is>
       </c>
-      <c r="D4" s="18" t="inlineStr">
+      <c r="D4" s="26" t="inlineStr">
         <is>
           <t>Владимирович</t>
         </is>
       </c>
-      <c r="E4" s="18" t="inlineStr">
+      <c r="E4" s="26" t="inlineStr">
         <is>
           <t>ведущий инженер-программист</t>
         </is>
       </c>
-      <c r="F4" s="20" t="n">
+      <c r="F4" s="28" t="n">
         <v>54711</v>
       </c>
-      <c r="G4" s="21" t="n">
+      <c r="G4" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" s="29" t="inlineStr">
+        <is>
+          <t>ДР</t>
+        </is>
+      </c>
+      <c r="I4" s="30" t="n">
         <v>20903</v>
       </c>
-      <c r="H4" s="18" t="n"/>
-      <c r="I4" s="3" t="n"/>
-      <c r="J4" s="3" t="n"/>
-      <c r="K4" s="3" t="n"/>
-      <c r="L4" s="3" t="n"/>
-      <c r="M4" s="3" t="n"/>
-      <c r="N4" s="3" t="n"/>
-      <c r="O4" s="3" t="n"/>
-      <c r="P4" s="3" t="n"/>
-      <c r="Q4" s="3" t="n"/>
-      <c r="R4" s="3" t="n"/>
-      <c r="S4" s="3" t="n"/>
-      <c r="T4" s="3" t="n"/>
-      <c r="U4" s="3" t="n"/>
-      <c r="V4" s="3" t="n"/>
-      <c r="W4" s="3" t="n"/>
-      <c r="X4" s="3" t="n"/>
-      <c r="Y4" s="3" t="n"/>
-    </row>
-    <row r="5" customFormat="1" s="5">
-      <c r="A5" s="18" t="inlineStr">
+      <c r="J4" s="26" t="n"/>
+      <c r="K4" s="9" t="n"/>
+      <c r="L4" s="9" t="n"/>
+      <c r="M4" s="9" t="n"/>
+      <c r="N4" s="9" t="n"/>
+      <c r="O4" s="9" t="n"/>
+      <c r="P4" s="9" t="n"/>
+      <c r="Q4" s="9" t="n"/>
+      <c r="R4" s="9" t="n"/>
+      <c r="S4" s="9" t="n"/>
+      <c r="T4" s="9" t="n"/>
+      <c r="U4" s="9" t="n"/>
+      <c r="V4" s="9" t="n"/>
+      <c r="W4" s="9" t="n"/>
+      <c r="X4" s="9" t="n"/>
+      <c r="Y4" s="9" t="n"/>
+      <c r="Z4" s="9" t="n"/>
+      <c r="AA4" s="9" t="n"/>
+    </row>
+    <row r="5" customFormat="1" s="4">
+      <c r="A5" s="26" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B5" s="19" t="inlineStr">
+      <c r="B5" s="27" t="inlineStr">
         <is>
           <t>Добырн</t>
         </is>
       </c>
-      <c r="C5" s="18" t="inlineStr">
+      <c r="C5" s="26" t="inlineStr">
         <is>
           <t>Владислав</t>
         </is>
       </c>
-      <c r="D5" s="18" t="inlineStr">
+      <c r="D5" s="26" t="inlineStr">
         <is>
           <t>Вениаминович</t>
         </is>
       </c>
-      <c r="E5" s="18" t="inlineStr">
+      <c r="E5" s="26" t="inlineStr">
         <is>
           <t>эксперт</t>
         </is>
       </c>
-      <c r="F5" s="20" t="n">
+      <c r="F5" s="28" t="n">
         <v>983</v>
       </c>
-      <c r="G5" s="21" t="n">
+      <c r="G5" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" s="29" t="inlineStr">
+        <is>
+          <t>ДР</t>
+        </is>
+      </c>
+      <c r="I5" s="30" t="n">
         <v>12513</v>
       </c>
-      <c r="H5" s="18" t="n"/>
-      <c r="I5" s="4" t="n"/>
-      <c r="J5" s="4" t="n"/>
-      <c r="K5" s="4" t="n"/>
-      <c r="L5" s="4" t="n"/>
-      <c r="M5" s="4" t="n"/>
-      <c r="N5" s="4" t="n"/>
-      <c r="O5" s="4" t="n"/>
-      <c r="P5" s="4" t="n"/>
-      <c r="Q5" s="4" t="n"/>
-      <c r="R5" s="4" t="n"/>
-      <c r="S5" s="4" t="n"/>
-      <c r="T5" s="4" t="n"/>
-      <c r="U5" s="4" t="n"/>
-      <c r="V5" s="4" t="n"/>
-      <c r="W5" s="4" t="n"/>
-      <c r="X5" s="4" t="n"/>
-      <c r="Y5" s="4" t="n"/>
-    </row>
-    <row r="6" customFormat="1" s="5">
-      <c r="A6" s="18" t="inlineStr">
+      <c r="J5" s="26" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="n"/>
+      <c r="M5" s="3" t="n"/>
+      <c r="N5" s="3" t="n"/>
+      <c r="O5" s="3" t="n"/>
+      <c r="P5" s="3" t="n"/>
+      <c r="Q5" s="3" t="n"/>
+      <c r="R5" s="3" t="n"/>
+      <c r="S5" s="3" t="n"/>
+      <c r="T5" s="3" t="n"/>
+      <c r="U5" s="3" t="n"/>
+      <c r="V5" s="3" t="n"/>
+      <c r="W5" s="3" t="n"/>
+      <c r="X5" s="3" t="n"/>
+      <c r="Y5" s="3" t="n"/>
+      <c r="Z5" s="3" t="n"/>
+      <c r="AA5" s="3" t="n"/>
+    </row>
+    <row r="6" customFormat="1" s="4">
+      <c r="A6" s="26" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B6" s="19" t="inlineStr">
+      <c r="B6" s="27" t="inlineStr">
         <is>
           <t>Ермоленко</t>
         </is>
       </c>
-      <c r="C6" s="18" t="inlineStr">
+      <c r="C6" s="26" t="inlineStr">
         <is>
           <t>Оксана</t>
         </is>
       </c>
-      <c r="D6" s="18" t="inlineStr">
+      <c r="D6" s="26" t="inlineStr">
         <is>
           <t>Георгиевна</t>
         </is>
       </c>
-      <c r="E6" s="18" t="inlineStr">
+      <c r="E6" s="26" t="inlineStr">
         <is>
           <t>вед. инженер-технолог</t>
         </is>
       </c>
-      <c r="F6" s="20" t="n">
+      <c r="F6" s="28" t="n">
         <v>1804</v>
       </c>
-      <c r="G6" s="21" t="n">
+      <c r="G6" s="28" t="n">
+        <v>8</v>
+      </c>
+      <c r="H6" s="29" t="inlineStr">
+        <is>
+          <t>ДР</t>
+        </is>
+      </c>
+      <c r="I6" s="30" t="n">
         <v>23861</v>
       </c>
-      <c r="H6" s="18" t="n"/>
-      <c r="I6" s="4" t="n"/>
-      <c r="J6" s="4" t="n"/>
-      <c r="K6" s="4" t="n"/>
-      <c r="L6" s="4" t="n"/>
-      <c r="M6" s="4" t="n"/>
-      <c r="N6" s="4" t="n"/>
-      <c r="O6" s="4" t="n"/>
-      <c r="P6" s="4" t="n"/>
-      <c r="Q6" s="4" t="n"/>
-      <c r="R6" s="4" t="n"/>
-      <c r="S6" s="4" t="n"/>
-      <c r="T6" s="4" t="n"/>
-      <c r="U6" s="4" t="n"/>
-      <c r="V6" s="4" t="n"/>
-      <c r="W6" s="4" t="n"/>
-      <c r="X6" s="4" t="n"/>
-      <c r="Y6" s="4" t="n"/>
-    </row>
-    <row r="7" customFormat="1" s="5">
-      <c r="A7" s="18" t="inlineStr">
+      <c r="J6" s="26" t="n"/>
+      <c r="K6" s="3" t="n"/>
+      <c r="L6" s="3" t="n"/>
+      <c r="M6" s="3" t="n"/>
+      <c r="N6" s="3" t="n"/>
+      <c r="O6" s="3" t="n"/>
+      <c r="P6" s="3" t="n"/>
+      <c r="Q6" s="3" t="n"/>
+      <c r="R6" s="3" t="n"/>
+      <c r="S6" s="3" t="n"/>
+      <c r="T6" s="3" t="n"/>
+      <c r="U6" s="3" t="n"/>
+      <c r="V6" s="3" t="n"/>
+      <c r="W6" s="3" t="n"/>
+      <c r="X6" s="3" t="n"/>
+      <c r="Y6" s="3" t="n"/>
+      <c r="Z6" s="3" t="n"/>
+      <c r="AA6" s="3" t="n"/>
+    </row>
+    <row r="7" customFormat="1" s="4">
+      <c r="A7" s="26" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B7" s="19" t="inlineStr">
+      <c r="B7" s="27" t="inlineStr">
         <is>
           <t>Кадыров</t>
         </is>
       </c>
-      <c r="C7" s="18" t="inlineStr">
+      <c r="C7" s="26" t="inlineStr">
         <is>
           <t>Андрей</t>
         </is>
       </c>
-      <c r="D7" s="18" t="inlineStr">
+      <c r="D7" s="26" t="inlineStr">
         <is>
           <t>Садыкович</t>
         </is>
       </c>
-      <c r="E7" s="18" t="inlineStr">
+      <c r="E7" s="26" t="inlineStr">
         <is>
           <t>зав. отделом</t>
         </is>
       </c>
-      <c r="F7" s="20" t="n">
+      <c r="F7" s="28" t="n">
         <v>3347</v>
       </c>
-      <c r="G7" s="21" t="n">
+      <c r="G7" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" s="29" t="inlineStr">
+        <is>
+          <t>Ф</t>
+        </is>
+      </c>
+      <c r="I7" s="30" t="n">
         <v>25733</v>
       </c>
-      <c r="H7" s="18" t="n"/>
-      <c r="I7" s="4" t="n"/>
-      <c r="J7" s="4" t="n"/>
-      <c r="K7" s="4" t="n"/>
-      <c r="L7" s="4" t="n"/>
-      <c r="M7" s="4" t="n"/>
-      <c r="N7" s="4" t="n"/>
-      <c r="O7" s="4" t="n"/>
-      <c r="P7" s="4" t="n"/>
-      <c r="Q7" s="4" t="n"/>
-      <c r="R7" s="4" t="n"/>
-      <c r="S7" s="4" t="n"/>
-      <c r="T7" s="4" t="n"/>
-      <c r="U7" s="4" t="n"/>
-      <c r="V7" s="4" t="n"/>
-      <c r="W7" s="4" t="n"/>
-      <c r="X7" s="4" t="n"/>
-      <c r="Y7" s="4" t="n"/>
-    </row>
-    <row r="8" customFormat="1" s="5">
-      <c r="A8" s="18" t="inlineStr">
+      <c r="J7" s="26" t="n"/>
+      <c r="K7" s="3" t="n"/>
+      <c r="L7" s="3" t="n"/>
+      <c r="M7" s="3" t="n"/>
+      <c r="N7" s="3" t="n"/>
+      <c r="O7" s="3" t="n"/>
+      <c r="P7" s="3" t="n"/>
+      <c r="Q7" s="3" t="n"/>
+      <c r="R7" s="3" t="n"/>
+      <c r="S7" s="3" t="n"/>
+      <c r="T7" s="3" t="n"/>
+      <c r="U7" s="3" t="n"/>
+      <c r="V7" s="3" t="n"/>
+      <c r="W7" s="3" t="n"/>
+      <c r="X7" s="3" t="n"/>
+      <c r="Y7" s="3" t="n"/>
+      <c r="Z7" s="3" t="n"/>
+      <c r="AA7" s="3" t="n"/>
+    </row>
+    <row r="8" customFormat="1" s="4">
+      <c r="A8" s="26" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B8" s="19" t="inlineStr">
+      <c r="B8" s="27" t="inlineStr">
         <is>
           <t>Константинов</t>
         </is>
       </c>
-      <c r="C8" s="18" t="inlineStr">
+      <c r="C8" s="26" t="inlineStr">
         <is>
           <t>Леонид</t>
         </is>
       </c>
-      <c r="D8" s="18" t="inlineStr">
+      <c r="D8" s="26" t="inlineStr">
         <is>
           <t>Александрович</t>
         </is>
       </c>
-      <c r="E8" s="18" t="inlineStr">
+      <c r="E8" s="26" t="inlineStr">
         <is>
           <t>ведущий инженер</t>
         </is>
       </c>
-      <c r="F8" s="20" t="n">
+      <c r="F8" s="28" t="n">
         <v>2403</v>
       </c>
-      <c r="G8" s="21" t="n">
+      <c r="G8" s="28" t="n">
+        <v>8</v>
+      </c>
+      <c r="H8" s="29" t="inlineStr">
+        <is>
+          <t>ДР</t>
+        </is>
+      </c>
+      <c r="I8" s="30" t="n">
         <v>22113</v>
       </c>
-      <c r="H8" s="18" t="n"/>
-      <c r="I8" s="4" t="n"/>
-      <c r="J8" s="4" t="n"/>
-      <c r="K8" s="4" t="n"/>
-      <c r="L8" s="4" t="n"/>
-      <c r="M8" s="4" t="n"/>
-      <c r="N8" s="4" t="n"/>
-      <c r="O8" s="4" t="n"/>
-      <c r="P8" s="4" t="n"/>
-      <c r="Q8" s="4" t="n"/>
-      <c r="R8" s="4" t="n"/>
-      <c r="S8" s="4" t="n"/>
-      <c r="T8" s="4" t="n"/>
-      <c r="U8" s="4" t="n"/>
-      <c r="V8" s="4" t="n"/>
-      <c r="W8" s="4" t="n"/>
-      <c r="X8" s="4" t="n"/>
-      <c r="Y8" s="4" t="n"/>
-    </row>
-    <row r="9" customFormat="1" s="5">
-      <c r="A9" s="18" t="inlineStr">
+      <c r="J8" s="26" t="n"/>
+      <c r="K8" s="3" t="n"/>
+      <c r="L8" s="3" t="n"/>
+      <c r="M8" s="3" t="n"/>
+      <c r="N8" s="3" t="n"/>
+      <c r="O8" s="3" t="n"/>
+      <c r="P8" s="3" t="n"/>
+      <c r="Q8" s="3" t="n"/>
+      <c r="R8" s="3" t="n"/>
+      <c r="S8" s="3" t="n"/>
+      <c r="T8" s="3" t="n"/>
+      <c r="U8" s="3" t="n"/>
+      <c r="V8" s="3" t="n"/>
+      <c r="W8" s="3" t="n"/>
+      <c r="X8" s="3" t="n"/>
+      <c r="Y8" s="3" t="n"/>
+      <c r="Z8" s="3" t="n"/>
+      <c r="AA8" s="3" t="n"/>
+    </row>
+    <row r="9" customFormat="1" s="4">
+      <c r="A9" s="26" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B9" s="19" t="inlineStr">
+      <c r="B9" s="27" t="inlineStr">
         <is>
           <t>Кормин</t>
         </is>
       </c>
-      <c r="C9" s="18" t="inlineStr">
+      <c r="C9" s="26" t="inlineStr">
         <is>
           <t>Владимир</t>
         </is>
       </c>
-      <c r="D9" s="18" t="inlineStr">
+      <c r="D9" s="26" t="inlineStr">
         <is>
           <t>Евгеньевич</t>
         </is>
       </c>
-      <c r="E9" s="18" t="inlineStr">
+      <c r="E9" s="26" t="inlineStr">
         <is>
           <t>инженер-программист</t>
         </is>
       </c>
-      <c r="F9" s="20" t="n">
+      <c r="F9" s="28" t="n">
         <v>55867</v>
       </c>
-      <c r="G9" s="21" t="n">
+      <c r="G9" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" s="29" t="inlineStr">
+        <is>
+          <t>ДР</t>
+        </is>
+      </c>
+      <c r="I9" s="30" t="n">
         <v>28787</v>
       </c>
-      <c r="H9" s="18" t="n"/>
-      <c r="I9" s="4" t="n"/>
-      <c r="J9" s="4" t="n"/>
-      <c r="K9" s="4" t="n"/>
-      <c r="L9" s="4" t="n"/>
-      <c r="M9" s="4" t="n"/>
-      <c r="N9" s="4" t="n"/>
-      <c r="O9" s="4" t="n"/>
-      <c r="P9" s="4" t="n"/>
-      <c r="Q9" s="4" t="n"/>
-      <c r="R9" s="4" t="n"/>
-      <c r="S9" s="4" t="n"/>
-      <c r="T9" s="4" t="n"/>
-      <c r="U9" s="4" t="n"/>
-      <c r="V9" s="4" t="n"/>
-      <c r="W9" s="4" t="n"/>
-      <c r="X9" s="4" t="n"/>
-      <c r="Y9" s="4" t="n"/>
+      <c r="J9" s="26" t="n"/>
+      <c r="K9" s="3" t="n"/>
+      <c r="L9" s="3" t="n"/>
+      <c r="M9" s="3" t="n"/>
+      <c r="N9" s="3" t="n"/>
+      <c r="O9" s="3" t="n"/>
+      <c r="P9" s="3" t="n"/>
+      <c r="Q9" s="3" t="n"/>
+      <c r="R9" s="3" t="n"/>
+      <c r="S9" s="3" t="n"/>
+      <c r="T9" s="3" t="n"/>
+      <c r="U9" s="3" t="n"/>
+      <c r="V9" s="3" t="n"/>
+      <c r="W9" s="3" t="n"/>
+      <c r="X9" s="3" t="n"/>
+      <c r="Y9" s="3" t="n"/>
+      <c r="Z9" s="3" t="n"/>
+      <c r="AA9" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="18" t="inlineStr">
+      <c r="A10" s="26" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B10" s="19" t="inlineStr">
+      <c r="B10" s="27" t="inlineStr">
         <is>
           <t>Лавров</t>
         </is>
       </c>
-      <c r="C10" s="18" t="inlineStr">
+      <c r="C10" s="26" t="inlineStr">
         <is>
           <t>Юрий</t>
         </is>
       </c>
-      <c r="D10" s="18" t="inlineStr">
+      <c r="D10" s="26" t="inlineStr">
         <is>
           <t>Михайлович</t>
         </is>
       </c>
-      <c r="E10" s="18" t="inlineStr">
+      <c r="E10" s="26" t="inlineStr">
         <is>
           <t>эксперт</t>
         </is>
       </c>
-      <c r="F10" s="20" t="n">
+      <c r="F10" s="28" t="n">
         <v>1777</v>
       </c>
-      <c r="G10" s="21" t="n">
+      <c r="G10" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" s="29" t="inlineStr">
+        <is>
+          <t>ДР</t>
+        </is>
+      </c>
+      <c r="I10" s="30" t="n">
         <v>22779</v>
       </c>
-      <c r="H10" s="18" t="n"/>
-      <c r="I10" s="3" t="n"/>
-      <c r="J10" s="3" t="n"/>
-      <c r="K10" s="3" t="n"/>
-      <c r="L10" s="3" t="n"/>
-      <c r="M10" s="3" t="n"/>
-      <c r="N10" s="3" t="n"/>
-      <c r="O10" s="3" t="n"/>
-      <c r="P10" s="3" t="n"/>
-      <c r="Q10" s="3" t="n"/>
-      <c r="R10" s="3" t="n"/>
-      <c r="S10" s="3" t="n"/>
-      <c r="T10" s="3" t="n"/>
-      <c r="U10" s="3" t="n"/>
-      <c r="V10" s="3" t="n"/>
-      <c r="W10" s="3" t="n"/>
-      <c r="X10" s="3" t="n"/>
-      <c r="Y10" s="3" t="n"/>
-    </row>
-    <row r="11" customFormat="1" s="5">
-      <c r="A11" s="18" t="inlineStr">
+      <c r="J10" s="26" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="9" t="n"/>
+      <c r="M10" s="9" t="n"/>
+      <c r="N10" s="9" t="n"/>
+      <c r="O10" s="9" t="n"/>
+      <c r="P10" s="9" t="n"/>
+      <c r="Q10" s="9" t="n"/>
+      <c r="R10" s="9" t="n"/>
+      <c r="S10" s="9" t="n"/>
+      <c r="T10" s="9" t="n"/>
+      <c r="U10" s="9" t="n"/>
+      <c r="V10" s="9" t="n"/>
+      <c r="W10" s="9" t="n"/>
+      <c r="X10" s="9" t="n"/>
+      <c r="Y10" s="9" t="n"/>
+      <c r="Z10" s="9" t="n"/>
+      <c r="AA10" s="9" t="n"/>
+    </row>
+    <row r="11" customFormat="1" s="4">
+      <c r="A11" s="26" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B11" s="19" t="inlineStr">
+      <c r="B11" s="27" t="inlineStr">
         <is>
           <t>Ладатко</t>
         </is>
       </c>
-      <c r="C11" s="18" t="inlineStr">
+      <c r="C11" s="26" t="inlineStr">
         <is>
           <t>Игорь</t>
         </is>
       </c>
-      <c r="D11" s="18" t="inlineStr">
+      <c r="D11" s="26" t="inlineStr">
         <is>
           <t>Викторович</t>
         </is>
       </c>
-      <c r="E11" s="18" t="inlineStr">
+      <c r="E11" s="26" t="inlineStr">
         <is>
           <t>инженер-программист 2 категории</t>
         </is>
       </c>
-      <c r="F11" s="20" t="n">
+      <c r="F11" s="28" t="n">
         <v>1135</v>
       </c>
-      <c r="G11" s="21" t="n">
+      <c r="G11" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" s="29" t="inlineStr">
+        <is>
+          <t>ДР</t>
+        </is>
+      </c>
+      <c r="I11" s="30" t="n">
         <v>27010</v>
       </c>
-      <c r="H11" s="18" t="n"/>
-      <c r="I11" s="4" t="n"/>
-      <c r="J11" s="4" t="n"/>
-      <c r="K11" s="4" t="n"/>
-      <c r="L11" s="4" t="n"/>
-      <c r="M11" s="4" t="n"/>
-      <c r="N11" s="4" t="n"/>
-      <c r="O11" s="4" t="n"/>
-      <c r="P11" s="4" t="n"/>
-      <c r="Q11" s="4" t="n"/>
-      <c r="R11" s="4" t="n"/>
-      <c r="S11" s="4" t="n"/>
-      <c r="T11" s="4" t="n"/>
-      <c r="U11" s="4" t="n"/>
-      <c r="V11" s="4" t="n"/>
-      <c r="W11" s="4" t="n"/>
-      <c r="X11" s="4" t="n"/>
-      <c r="Y11" s="4" t="n"/>
-    </row>
-    <row r="12" customFormat="1" s="5">
-      <c r="A12" s="18" t="inlineStr">
+      <c r="J11" s="26" t="n"/>
+      <c r="K11" s="3" t="n"/>
+      <c r="L11" s="3" t="n"/>
+      <c r="M11" s="3" t="n"/>
+      <c r="N11" s="3" t="n"/>
+      <c r="O11" s="3" t="n"/>
+      <c r="P11" s="3" t="n"/>
+      <c r="Q11" s="3" t="n"/>
+      <c r="R11" s="3" t="n"/>
+      <c r="S11" s="3" t="n"/>
+      <c r="T11" s="3" t="n"/>
+      <c r="U11" s="3" t="n"/>
+      <c r="V11" s="3" t="n"/>
+      <c r="W11" s="3" t="n"/>
+      <c r="X11" s="3" t="n"/>
+      <c r="Y11" s="3" t="n"/>
+      <c r="Z11" s="3" t="n"/>
+      <c r="AA11" s="3" t="n"/>
+    </row>
+    <row r="12" customFormat="1" s="4">
+      <c r="A12" s="26" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B12" s="19" t="inlineStr">
+      <c r="B12" s="27" t="inlineStr">
         <is>
           <t>Тупиленко</t>
         </is>
       </c>
-      <c r="C12" s="18" t="inlineStr">
+      <c r="C12" s="26" t="inlineStr">
         <is>
           <t>Ольга</t>
         </is>
       </c>
-      <c r="D12" s="18" t="inlineStr">
+      <c r="D12" s="26" t="inlineStr">
         <is>
           <t>Евгеньевна</t>
         </is>
       </c>
-      <c r="E12" s="18" t="inlineStr">
+      <c r="E12" s="26" t="inlineStr">
         <is>
           <t>старший лаборант</t>
         </is>
       </c>
-      <c r="F12" s="20" t="n">
+      <c r="F12" s="28" t="n">
         <v>2946</v>
       </c>
-      <c r="G12" s="21" t="n">
+      <c r="G12" s="28" t="n">
+        <v>8</v>
+      </c>
+      <c r="H12" s="29" t="inlineStr">
+        <is>
+          <t>ДР</t>
+        </is>
+      </c>
+      <c r="I12" s="30" t="n">
         <v>23895</v>
       </c>
-      <c r="H12" s="18" t="n"/>
-      <c r="I12" s="4" t="n"/>
-      <c r="J12" s="4" t="n"/>
-      <c r="K12" s="4" t="n"/>
-      <c r="L12" s="4" t="n"/>
-      <c r="M12" s="4" t="n"/>
-      <c r="N12" s="4" t="n"/>
-      <c r="O12" s="4" t="n"/>
-      <c r="P12" s="4" t="n"/>
-      <c r="Q12" s="4" t="n"/>
-      <c r="R12" s="4" t="n"/>
-      <c r="S12" s="4" t="n"/>
-      <c r="T12" s="4" t="n"/>
-      <c r="U12" s="4" t="n"/>
-      <c r="V12" s="4" t="n"/>
-      <c r="W12" s="4" t="n"/>
-      <c r="X12" s="4" t="n"/>
-      <c r="Y12" s="4" t="n"/>
-    </row>
-    <row r="13" customFormat="1" s="5">
-      <c r="A13" s="18" t="inlineStr">
+      <c r="J12" s="26" t="n"/>
+      <c r="K12" s="3" t="n"/>
+      <c r="L12" s="3" t="n"/>
+      <c r="M12" s="3" t="n"/>
+      <c r="N12" s="3" t="n"/>
+      <c r="O12" s="3" t="n"/>
+      <c r="P12" s="3" t="n"/>
+      <c r="Q12" s="3" t="n"/>
+      <c r="R12" s="3" t="n"/>
+      <c r="S12" s="3" t="n"/>
+      <c r="T12" s="3" t="n"/>
+      <c r="U12" s="3" t="n"/>
+      <c r="V12" s="3" t="n"/>
+      <c r="W12" s="3" t="n"/>
+      <c r="X12" s="3" t="n"/>
+      <c r="Y12" s="3" t="n"/>
+      <c r="Z12" s="3" t="n"/>
+      <c r="AA12" s="3" t="n"/>
+    </row>
+    <row r="13" customFormat="1" s="4">
+      <c r="A13" s="26" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B13" s="19" t="inlineStr">
+      <c r="B13" s="27" t="inlineStr">
         <is>
           <t>Турухано</t>
         </is>
       </c>
-      <c r="C13" s="18" t="inlineStr">
+      <c r="C13" s="26" t="inlineStr">
         <is>
           <t>Борис</t>
         </is>
       </c>
-      <c r="D13" s="18" t="inlineStr">
+      <c r="D13" s="26" t="inlineStr">
         <is>
           <t>Ганьевич</t>
         </is>
       </c>
-      <c r="E13" s="18" t="inlineStr">
+      <c r="E13" s="26" t="inlineStr">
         <is>
           <t>вед. научный сотрудник</t>
         </is>
       </c>
-      <c r="F13" s="20" t="n">
+      <c r="F13" s="28" t="n">
         <v>1767</v>
       </c>
-      <c r="G13" s="21" t="n">
+      <c r="G13" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" s="29" t="inlineStr">
+        <is>
+          <t>ДР</t>
+        </is>
+      </c>
+      <c r="I13" s="30" t="n">
         <v>13817</v>
       </c>
-      <c r="H13" s="18" t="n"/>
-      <c r="I13" s="4" t="n"/>
-      <c r="J13" s="4" t="n"/>
-      <c r="K13" s="4" t="n"/>
-      <c r="L13" s="4" t="n"/>
-      <c r="M13" s="4" t="n"/>
-      <c r="N13" s="4" t="n"/>
-      <c r="O13" s="4" t="n"/>
-      <c r="P13" s="4" t="n"/>
-      <c r="Q13" s="4" t="n"/>
-      <c r="R13" s="4" t="n"/>
-      <c r="S13" s="4" t="n"/>
-      <c r="T13" s="4" t="n"/>
-      <c r="U13" s="4" t="n"/>
-      <c r="V13" s="4" t="n"/>
-      <c r="W13" s="4" t="n"/>
-      <c r="X13" s="4" t="n"/>
-      <c r="Y13" s="4" t="n"/>
+      <c r="J13" s="26" t="n"/>
+      <c r="K13" s="3" t="n"/>
+      <c r="L13" s="3" t="n"/>
+      <c r="M13" s="3" t="n"/>
+      <c r="N13" s="3" t="n"/>
+      <c r="O13" s="3" t="n"/>
+      <c r="P13" s="3" t="n"/>
+      <c r="Q13" s="3" t="n"/>
+      <c r="R13" s="3" t="n"/>
+      <c r="S13" s="3" t="n"/>
+      <c r="T13" s="3" t="n"/>
+      <c r="U13" s="3" t="n"/>
+      <c r="V13" s="3" t="n"/>
+      <c r="W13" s="3" t="n"/>
+      <c r="X13" s="3" t="n"/>
+      <c r="Y13" s="3" t="n"/>
+      <c r="Z13" s="3" t="n"/>
+      <c r="AA13" s="3" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="18" t="inlineStr">
+      <c r="A14" s="26" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B14" s="19" t="inlineStr">
+      <c r="B14" s="27" t="inlineStr">
         <is>
           <t>Турухано</t>
         </is>
       </c>
-      <c r="C14" s="18" t="inlineStr">
+      <c r="C14" s="26" t="inlineStr">
         <is>
           <t>Никулина</t>
         </is>
       </c>
-      <c r="D14" s="18" t="inlineStr">
+      <c r="D14" s="26" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="E14" s="18" t="inlineStr">
+      <c r="E14" s="26" t="inlineStr">
         <is>
           <t>эксперт</t>
         </is>
       </c>
-      <c r="F14" s="20" t="n">
+      <c r="F14" s="28" t="n">
         <v>162</v>
       </c>
-      <c r="G14" s="21" t="n">
+      <c r="G14" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" s="29" t="inlineStr">
+        <is>
+          <t>ДР</t>
+        </is>
+      </c>
+      <c r="I14" s="30" t="n">
         <v>13837</v>
       </c>
-      <c r="H14" s="18" t="n"/>
-      <c r="I14" s="3" t="n"/>
-      <c r="J14" s="3" t="n"/>
-      <c r="K14" s="3" t="n"/>
-      <c r="L14" s="3" t="n"/>
-      <c r="M14" s="3" t="n"/>
-      <c r="N14" s="3" t="n"/>
-      <c r="O14" s="3" t="n"/>
-      <c r="P14" s="3" t="n"/>
-      <c r="Q14" s="3" t="n"/>
-      <c r="R14" s="3" t="n"/>
-      <c r="S14" s="3" t="n"/>
-      <c r="T14" s="3" t="n"/>
-      <c r="U14" s="3" t="n"/>
-      <c r="V14" s="3" t="n"/>
-      <c r="W14" s="3" t="n"/>
-      <c r="X14" s="3" t="n"/>
-      <c r="Y14" s="3" t="n"/>
+      <c r="J14" s="26" t="n"/>
+      <c r="K14" s="9" t="n"/>
+      <c r="L14" s="9" t="n"/>
+      <c r="M14" s="9" t="n"/>
+      <c r="N14" s="9" t="n"/>
+      <c r="O14" s="9" t="n"/>
+      <c r="P14" s="9" t="n"/>
+      <c r="Q14" s="9" t="n"/>
+      <c r="R14" s="9" t="n"/>
+      <c r="S14" s="9" t="n"/>
+      <c r="T14" s="9" t="n"/>
+      <c r="U14" s="9" t="n"/>
+      <c r="V14" s="9" t="n"/>
+      <c r="W14" s="9" t="n"/>
+      <c r="X14" s="9" t="n"/>
+      <c r="Y14" s="9" t="n"/>
+      <c r="Z14" s="9" t="n"/>
+      <c r="AA14" s="9" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="18" t="inlineStr">
+      <c r="A15" s="26" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B15" s="19" t="inlineStr">
+      <c r="B15" s="27" t="inlineStr">
         <is>
           <t>Ханов</t>
         </is>
       </c>
-      <c r="C15" s="18" t="inlineStr">
+      <c r="C15" s="26" t="inlineStr">
         <is>
           <t>Сергей</t>
         </is>
       </c>
-      <c r="D15" s="18" t="inlineStr">
+      <c r="D15" s="26" t="inlineStr">
         <is>
           <t>Николаевич</t>
         </is>
       </c>
-      <c r="E15" s="18" t="inlineStr">
+      <c r="E15" s="26" t="inlineStr">
         <is>
           <t>ведущий конструктор</t>
         </is>
       </c>
-      <c r="F15" s="20" t="n">
+      <c r="F15" s="28" t="n">
         <v>1792</v>
       </c>
-      <c r="G15" s="21" t="n">
+      <c r="G15" s="28" t="n">
+        <v>8</v>
+      </c>
+      <c r="H15" s="29" t="inlineStr">
+        <is>
+          <t>ДР</t>
+        </is>
+      </c>
+      <c r="I15" s="30" t="n">
         <v>17727</v>
       </c>
-      <c r="H15" s="18" t="n"/>
-      <c r="I15" s="3" t="n"/>
-      <c r="J15" s="3" t="n"/>
-      <c r="K15" s="3" t="n"/>
-      <c r="L15" s="3" t="n"/>
-      <c r="M15" s="3" t="n"/>
-      <c r="N15" s="3" t="n"/>
-      <c r="O15" s="3" t="n"/>
-      <c r="P15" s="3" t="n"/>
-      <c r="Q15" s="3" t="n"/>
-      <c r="R15" s="3" t="n"/>
-      <c r="S15" s="3" t="n"/>
-      <c r="T15" s="3" t="n"/>
-      <c r="U15" s="3" t="n"/>
-      <c r="V15" s="3" t="n"/>
-      <c r="W15" s="3" t="n"/>
-      <c r="X15" s="3" t="n"/>
-      <c r="Y15" s="3" t="n"/>
-    </row>
-    <row r="16" customFormat="1" s="5">
-      <c r="A16" s="18" t="inlineStr">
+      <c r="J15" s="26" t="n"/>
+      <c r="K15" s="9" t="n"/>
+      <c r="L15" s="9" t="n"/>
+      <c r="M15" s="9" t="n"/>
+      <c r="N15" s="9" t="n"/>
+      <c r="O15" s="9" t="n"/>
+      <c r="P15" s="9" t="n"/>
+      <c r="Q15" s="9" t="n"/>
+      <c r="R15" s="9" t="n"/>
+      <c r="S15" s="9" t="n"/>
+      <c r="T15" s="9" t="n"/>
+      <c r="U15" s="9" t="n"/>
+      <c r="V15" s="9" t="n"/>
+      <c r="W15" s="9" t="n"/>
+      <c r="X15" s="9" t="n"/>
+      <c r="Y15" s="9" t="n"/>
+      <c r="Z15" s="9" t="n"/>
+      <c r="AA15" s="9" t="n"/>
+    </row>
+    <row r="16" customFormat="1" s="4">
+      <c r="A16" s="26" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B16" s="19" t="inlineStr">
+      <c r="B16" s="27" t="inlineStr">
         <is>
           <t>Христачев</t>
         </is>
       </c>
-      <c r="C16" s="18" t="inlineStr">
+      <c r="C16" s="26" t="inlineStr">
         <is>
           <t>Александр</t>
         </is>
       </c>
-      <c r="D16" s="18" t="inlineStr">
+      <c r="D16" s="26" t="inlineStr">
         <is>
           <t>Евгеньевич</t>
         </is>
       </c>
-      <c r="E16" s="18" t="inlineStr">
+      <c r="E16" s="26" t="inlineStr">
         <is>
           <t>ведущий инженер-программист</t>
         </is>
       </c>
-      <c r="F16" s="20" t="n">
+      <c r="F16" s="28" t="n">
         <v>67383</v>
       </c>
-      <c r="G16" s="21" t="n">
+      <c r="G16" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" s="29" t="inlineStr">
+        <is>
+          <t>ДР</t>
+        </is>
+      </c>
+      <c r="I16" s="30" t="n">
         <v>22691</v>
       </c>
-      <c r="H16" s="18" t="n"/>
-      <c r="I16" s="4" t="n"/>
-      <c r="J16" s="4" t="n"/>
-      <c r="K16" s="4" t="n"/>
-      <c r="L16" s="4" t="n"/>
-      <c r="M16" s="4" t="n"/>
-      <c r="N16" s="4" t="n"/>
-      <c r="O16" s="4" t="n"/>
-      <c r="P16" s="4" t="n"/>
-      <c r="Q16" s="4" t="n"/>
-      <c r="R16" s="4" t="n"/>
-      <c r="S16" s="4" t="n"/>
-      <c r="T16" s="4" t="n"/>
-      <c r="U16" s="4" t="n"/>
-      <c r="V16" s="4" t="n"/>
-      <c r="W16" s="4" t="n"/>
-      <c r="X16" s="4" t="n"/>
-      <c r="Y16" s="4" t="n"/>
-    </row>
-    <row r="17" customFormat="1" s="5">
-      <c r="A17" s="18" t="inlineStr">
+      <c r="J16" s="26" t="n"/>
+      <c r="K16" s="3" t="n"/>
+      <c r="L16" s="3" t="n"/>
+      <c r="M16" s="3" t="n"/>
+      <c r="N16" s="3" t="n"/>
+      <c r="O16" s="3" t="n"/>
+      <c r="P16" s="3" t="n"/>
+      <c r="Q16" s="3" t="n"/>
+      <c r="R16" s="3" t="n"/>
+      <c r="S16" s="3" t="n"/>
+      <c r="T16" s="3" t="n"/>
+      <c r="U16" s="3" t="n"/>
+      <c r="V16" s="3" t="n"/>
+      <c r="W16" s="3" t="n"/>
+      <c r="X16" s="3" t="n"/>
+      <c r="Y16" s="3" t="n"/>
+      <c r="Z16" s="3" t="n"/>
+      <c r="AA16" s="3" t="n"/>
+    </row>
+    <row r="17" customFormat="1" s="4">
+      <c r="A17" s="26" t="inlineStr">
         <is>
           <t>ГЛГИИС</t>
         </is>
       </c>
-      <c r="B17" s="19" t="inlineStr">
+      <c r="B17" s="27" t="inlineStr">
         <is>
           <t>Щипунова</t>
         </is>
       </c>
-      <c r="C17" s="18" t="inlineStr">
+      <c r="C17" s="26" t="inlineStr">
         <is>
           <t>Надежда</t>
         </is>
       </c>
-      <c r="D17" s="18" t="inlineStr">
+      <c r="D17" s="26" t="inlineStr">
         <is>
           <t>Алексеевна</t>
         </is>
       </c>
-      <c r="E17" s="18" t="inlineStr">
+      <c r="E17" s="26" t="inlineStr">
         <is>
           <t>вед. инженер-технолог</t>
         </is>
       </c>
-      <c r="F17" s="20" t="n">
+      <c r="F17" s="28" t="n">
         <v>1783</v>
       </c>
-      <c r="G17" s="21" t="n">
+      <c r="G17" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" s="29" t="inlineStr">
+        <is>
+          <t>ДР</t>
+        </is>
+      </c>
+      <c r="I17" s="30" t="n">
         <v>19582</v>
       </c>
-      <c r="H17" s="18" t="n"/>
-      <c r="I17" s="4" t="n"/>
-      <c r="J17" s="4" t="n"/>
-      <c r="K17" s="4" t="n"/>
-      <c r="L17" s="4" t="n"/>
-      <c r="M17" s="4" t="n"/>
-      <c r="N17" s="4" t="n"/>
-      <c r="O17" s="4" t="n"/>
-      <c r="P17" s="4" t="n"/>
-      <c r="Q17" s="4" t="n"/>
-      <c r="R17" s="4" t="n"/>
-      <c r="S17" s="4" t="n"/>
-      <c r="T17" s="4" t="n"/>
-      <c r="U17" s="4" t="n"/>
-      <c r="V17" s="4" t="n"/>
-      <c r="W17" s="4" t="n"/>
-      <c r="X17" s="4" t="n"/>
-      <c r="Y17" s="4" t="n"/>
-    </row>
-    <row r="18" customFormat="1" s="5">
-      <c r="A18" s="18" t="inlineStr">
+      <c r="J17" s="26" t="n"/>
+      <c r="K17" s="3" t="n"/>
+      <c r="L17" s="3" t="n"/>
+      <c r="M17" s="3" t="n"/>
+      <c r="N17" s="3" t="n"/>
+      <c r="O17" s="3" t="n"/>
+      <c r="P17" s="3" t="n"/>
+      <c r="Q17" s="3" t="n"/>
+      <c r="R17" s="3" t="n"/>
+      <c r="S17" s="3" t="n"/>
+      <c r="T17" s="3" t="n"/>
+      <c r="U17" s="3" t="n"/>
+      <c r="V17" s="3" t="n"/>
+      <c r="W17" s="3" t="n"/>
+      <c r="X17" s="3" t="n"/>
+      <c r="Y17" s="3" t="n"/>
+      <c r="Z17" s="3" t="n"/>
+      <c r="AA17" s="3" t="n"/>
+    </row>
+    <row r="18" customFormat="1" s="4">
+      <c r="A18" s="26" t="inlineStr">
         <is>
           <t>ГТВ</t>
         </is>
       </c>
-      <c r="B18" s="19" t="inlineStr">
+      <c r="B18" s="27" t="inlineStr">
         <is>
           <t>Бенин</t>
         </is>
       </c>
-      <c r="C18" s="18" t="inlineStr">
+      <c r="C18" s="26" t="inlineStr">
         <is>
           <t>Александр</t>
         </is>
       </c>
-      <c r="D18" s="18" t="inlineStr">
+      <c r="D18" s="26" t="inlineStr">
         <is>
           <t>Исаакович</t>
         </is>
       </c>
-      <c r="E18" s="18" t="inlineStr">
+      <c r="E18" s="26" t="inlineStr">
         <is>
           <t>вед. научный сотрудник</t>
         </is>
       </c>
-      <c r="F18" s="20" t="n">
+      <c r="F18" s="28" t="n">
         <v>5310</v>
       </c>
-      <c r="G18" s="18" t="n"/>
-      <c r="H18" s="22" t="inlineStr">
+      <c r="G18" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" s="29" t="inlineStr">
+        <is>
+          <t>ДР</t>
+        </is>
+      </c>
+      <c r="I18" s="26" t="n"/>
+      <c r="J18" s="31" t="inlineStr">
         <is>
           <t>benin@cisp.spb.ru</t>
         </is>
       </c>
-      <c r="I18" s="4" t="n"/>
-      <c r="J18" s="4" t="n"/>
-      <c r="K18" s="4" t="n"/>
-      <c r="L18" s="4" t="n"/>
-      <c r="M18" s="4" t="n"/>
-      <c r="N18" s="4" t="n"/>
-      <c r="O18" s="4" t="n"/>
-      <c r="P18" s="4" t="n"/>
-      <c r="Q18" s="4" t="n"/>
-      <c r="R18" s="4" t="n"/>
-      <c r="S18" s="4" t="n"/>
-      <c r="T18" s="4" t="n"/>
-      <c r="U18" s="4" t="n"/>
-      <c r="V18" s="4" t="n"/>
-      <c r="W18" s="4" t="n"/>
-      <c r="X18" s="4" t="n"/>
-      <c r="Y18" s="4" t="n"/>
-    </row>
-    <row r="19" customFormat="1" s="5">
-      <c r="A19" s="18" t="inlineStr">
+      <c r="K18" s="3" t="n"/>
+      <c r="L18" s="3" t="n"/>
+      <c r="M18" s="3" t="n"/>
+      <c r="N18" s="3" t="n"/>
+      <c r="O18" s="3" t="n"/>
+      <c r="P18" s="3" t="n"/>
+      <c r="Q18" s="3" t="n"/>
+      <c r="R18" s="3" t="n"/>
+      <c r="S18" s="3" t="n"/>
+      <c r="T18" s="3" t="n"/>
+      <c r="U18" s="3" t="n"/>
+      <c r="V18" s="3" t="n"/>
+      <c r="W18" s="3" t="n"/>
+      <c r="X18" s="3" t="n"/>
+      <c r="Y18" s="3" t="n"/>
+      <c r="Z18" s="3" t="n"/>
+      <c r="AA18" s="3" t="n"/>
+    </row>
+    <row r="19" customFormat="1" s="4">
+      <c r="A19" s="26" t="inlineStr">
         <is>
           <t>ГФФ</t>
         </is>
       </c>
-      <c r="B19" s="19" t="inlineStr">
+      <c r="B19" s="27" t="inlineStr">
         <is>
           <t>Барнаш</t>
         </is>
       </c>
-      <c r="C19" s="18" t="inlineStr">
+      <c r="C19" s="26" t="inlineStr">
         <is>
           <t>Ярослав</t>
         </is>
       </c>
-      <c r="D19" s="18" t="inlineStr">
+      <c r="D19" s="26" t="inlineStr">
         <is>
           <t>Валерьевич</t>
         </is>
       </c>
-      <c r="E19" s="18" t="inlineStr">
+      <c r="E19" s="26" t="inlineStr">
         <is>
           <t>лаборант-исследователь</t>
         </is>
       </c>
-      <c r="F19" s="20" t="n">
+      <c r="F19" s="28" t="n">
         <v>4848</v>
       </c>
-      <c r="G19" s="23" t="n"/>
-      <c r="H19" s="18" t="n"/>
-      <c r="I19" s="4" t="n"/>
-      <c r="J19" s="4" t="n"/>
-      <c r="K19" s="4" t="n"/>
-      <c r="L19" s="4" t="n"/>
-      <c r="M19" s="4" t="n"/>
-      <c r="N19" s="4" t="n"/>
-      <c r="O19" s="4" t="n"/>
-      <c r="P19" s="4" t="n"/>
-      <c r="Q19" s="4" t="n"/>
-      <c r="R19" s="4" t="n"/>
-      <c r="S19" s="4" t="n"/>
-      <c r="T19" s="4" t="n"/>
-      <c r="U19" s="4" t="n"/>
-      <c r="V19" s="4" t="n"/>
-      <c r="W19" s="4" t="n"/>
-      <c r="X19" s="4" t="n"/>
-      <c r="Y19" s="4" t="n"/>
-    </row>
-    <row r="20" customFormat="1" s="5">
-      <c r="A20" s="18" t="inlineStr">
+      <c r="G19" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="H19" s="29" t="inlineStr">
+        <is>
+          <t>ДР</t>
+        </is>
+      </c>
+      <c r="I19" s="32" t="n"/>
+      <c r="J19" s="26" t="n"/>
+      <c r="K19" s="3" t="n"/>
+      <c r="L19" s="3" t="n"/>
+      <c r="M19" s="3" t="n"/>
+      <c r="N19" s="3" t="n"/>
+      <c r="O19" s="3" t="n"/>
+      <c r="P19" s="3" t="n"/>
+      <c r="Q19" s="3" t="n"/>
+      <c r="R19" s="3" t="n"/>
+      <c r="S19" s="3" t="n"/>
+      <c r="T19" s="3" t="n"/>
+      <c r="U19" s="3" t="n"/>
+      <c r="V19" s="3" t="n"/>
+      <c r="W19" s="3" t="n"/>
+      <c r="X19" s="3" t="n"/>
+      <c r="Y19" s="3" t="n"/>
+      <c r="Z19" s="3" t="n"/>
+      <c r="AA19" s="3" t="n"/>
+    </row>
+    <row r="20" customFormat="1" s="4">
+      <c r="A20" s="26" t="inlineStr">
         <is>
           <t>ГФФ</t>
         </is>
       </c>
-      <c r="B20" s="19" t="inlineStr">
+      <c r="B20" s="27" t="inlineStr">
         <is>
           <t>Зубцова</t>
         </is>
       </c>
-      <c r="C20" s="18" t="inlineStr">
+      <c r="C20" s="26" t="inlineStr">
         <is>
           <t>Юлия</t>
         </is>
       </c>
-      <c r="D20" s="18" t="inlineStr">
+      <c r="D20" s="26" t="inlineStr">
         <is>
           <t>Александровна</t>
         </is>
       </c>
-      <c r="E20" s="18" t="inlineStr">
+      <c r="E20" s="26" t="inlineStr">
         <is>
           <t>научный сотрудник</t>
         </is>
       </c>
-      <c r="F20" s="20" t="n">
+      <c r="F20" s="28" t="n">
         <v>4584</v>
       </c>
-      <c r="G20" s="23" t="n"/>
-      <c r="H20" s="18" t="n"/>
-      <c r="I20" s="4" t="n"/>
-      <c r="J20" s="4" t="n"/>
-      <c r="K20" s="4" t="n"/>
-      <c r="L20" s="4" t="n"/>
-      <c r="M20" s="4" t="n"/>
-      <c r="N20" s="4" t="n"/>
-      <c r="O20" s="4" t="n"/>
-      <c r="P20" s="4" t="n"/>
-      <c r="Q20" s="4" t="n"/>
-      <c r="R20" s="4" t="n"/>
-      <c r="S20" s="4" t="n"/>
-      <c r="T20" s="4" t="n"/>
-      <c r="U20" s="4" t="n"/>
-      <c r="V20" s="4" t="n"/>
-      <c r="W20" s="4" t="n"/>
-      <c r="X20" s="4" t="n"/>
-      <c r="Y20" s="4" t="n"/>
-    </row>
-    <row r="21" customFormat="1" s="5">
-      <c r="A21" s="18" t="inlineStr">
+      <c r="G20" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="H20" s="29" t="inlineStr">
+        <is>
+          <t>ДР</t>
+        </is>
+      </c>
+      <c r="I20" s="32" t="n"/>
+      <c r="J20" s="26" t="n"/>
+      <c r="K20" s="3" t="n"/>
+      <c r="L20" s="3" t="n"/>
+      <c r="M20" s="3" t="n"/>
+      <c r="N20" s="3" t="n"/>
+      <c r="O20" s="3" t="n"/>
+      <c r="P20" s="3" t="n"/>
+      <c r="Q20" s="3" t="n"/>
+      <c r="R20" s="3" t="n"/>
+      <c r="S20" s="3" t="n"/>
+      <c r="T20" s="3" t="n"/>
+      <c r="U20" s="3" t="n"/>
+      <c r="V20" s="3" t="n"/>
+      <c r="W20" s="3" t="n"/>
+      <c r="X20" s="3" t="n"/>
+      <c r="Y20" s="3" t="n"/>
+      <c r="Z20" s="3" t="n"/>
+      <c r="AA20" s="3" t="n"/>
+    </row>
+    <row r="21" customFormat="1" s="4">
+      <c r="A21" s="26" t="inlineStr">
         <is>
           <t>ГФФ</t>
         </is>
       </c>
-      <c r="B21" s="19" t="inlineStr">
+      <c r="B21" s="27" t="inlineStr">
         <is>
           <t>Каманина</t>
         </is>
       </c>
-      <c r="C21" s="18" t="inlineStr">
+      <c r="C21" s="26" t="inlineStr">
         <is>
           <t>Наталия</t>
         </is>
       </c>
-      <c r="D21" s="18" t="inlineStr">
+      <c r="D21" s="26" t="inlineStr">
         <is>
           <t>Владимировна</t>
         </is>
       </c>
-      <c r="E21" s="18" t="inlineStr">
+      <c r="E21" s="26" t="inlineStr">
         <is>
           <t>вед. научный сотрудник</t>
         </is>
       </c>
-      <c r="F21" s="20" t="n">
+      <c r="F21" s="28" t="n">
         <v>4583</v>
       </c>
-      <c r="G21" s="23" t="n"/>
-      <c r="H21" s="18" t="n"/>
-      <c r="I21" s="4" t="n"/>
-      <c r="J21" s="4" t="n"/>
-      <c r="K21" s="4" t="n"/>
-      <c r="L21" s="4" t="n"/>
-      <c r="M21" s="4" t="n"/>
-      <c r="N21" s="4" t="n"/>
-      <c r="O21" s="4" t="n"/>
-      <c r="P21" s="4" t="n"/>
-      <c r="Q21" s="4" t="n"/>
-      <c r="R21" s="4" t="n"/>
-      <c r="S21" s="4" t="n"/>
-      <c r="T21" s="4" t="n"/>
-      <c r="U21" s="4" t="n"/>
-      <c r="V21" s="4" t="n"/>
-      <c r="W21" s="4" t="n"/>
-      <c r="X21" s="4" t="n"/>
-      <c r="Y21" s="4" t="n"/>
-    </row>
-    <row r="22" customFormat="1" s="5">
-      <c r="A22" s="18" t="inlineStr">
+      <c r="G21" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="H21" s="29" t="inlineStr">
+        <is>
+          <t>ДР</t>
+        </is>
+      </c>
+      <c r="I21" s="32" t="n"/>
+      <c r="J21" s="26" t="n"/>
+      <c r="K21" s="3" t="n"/>
+      <c r="L21" s="3" t="n"/>
+      <c r="M21" s="3" t="n"/>
+      <c r="N21" s="3" t="n"/>
+      <c r="O21" s="3" t="n"/>
+      <c r="P21" s="3" t="n"/>
+      <c r="Q21" s="3" t="n"/>
+      <c r="R21" s="3" t="n"/>
+      <c r="S21" s="3" t="n"/>
+      <c r="T21" s="3" t="n"/>
+      <c r="U21" s="3" t="n"/>
+      <c r="V21" s="3" t="n"/>
+      <c r="W21" s="3" t="n"/>
+      <c r="X21" s="3" t="n"/>
+      <c r="Y21" s="3" t="n"/>
+      <c r="Z21" s="3" t="n"/>
+      <c r="AA21" s="3" t="n"/>
+    </row>
+    <row r="22" customFormat="1" s="4">
+      <c r="A22" s="26" t="inlineStr">
         <is>
           <t>ГФФ</t>
         </is>
       </c>
-      <c r="B22" s="18" t="inlineStr">
+      <c r="B22" s="26" t="inlineStr">
         <is>
           <t>Кужаков</t>
         </is>
       </c>
-      <c r="C22" s="18" t="inlineStr">
+      <c r="C22" s="26" t="inlineStr">
         <is>
           <t>Павел</t>
         </is>
       </c>
-      <c r="D22" s="18" t="inlineStr">
+      <c r="D22" s="26" t="inlineStr">
         <is>
           <t>Викторович</t>
         </is>
       </c>
-      <c r="E22" s="18" t="inlineStr">
+      <c r="E22" s="26" t="inlineStr">
         <is>
           <t>научный сотрудник</t>
         </is>
       </c>
-      <c r="F22" s="20" t="n">
+      <c r="F22" s="28" t="n">
         <v>4585</v>
       </c>
-      <c r="G22" s="18" t="n"/>
-      <c r="H22" s="18" t="n"/>
-      <c r="I22" s="4" t="n"/>
-      <c r="J22" s="4" t="n"/>
-      <c r="K22" s="4" t="n"/>
-      <c r="L22" s="4" t="n"/>
-      <c r="M22" s="4" t="n"/>
-      <c r="N22" s="4" t="n"/>
-      <c r="O22" s="4" t="n"/>
-      <c r="P22" s="4" t="n"/>
-      <c r="Q22" s="4" t="n"/>
-      <c r="R22" s="4" t="n"/>
-      <c r="S22" s="4" t="n"/>
-      <c r="T22" s="4" t="n"/>
-      <c r="U22" s="4" t="n"/>
-      <c r="V22" s="4" t="n"/>
-      <c r="W22" s="4" t="n"/>
-      <c r="X22" s="4" t="n"/>
-      <c r="Y22" s="4" t="n"/>
-    </row>
-    <row r="23" customFormat="1" s="5">
-      <c r="A23" s="18" t="inlineStr">
+      <c r="G22" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="H22" s="29" t="inlineStr">
+        <is>
+          <t>ДР</t>
+        </is>
+      </c>
+      <c r="I22" s="26" t="n"/>
+      <c r="J22" s="26" t="n"/>
+      <c r="K22" s="3" t="n"/>
+      <c r="L22" s="3" t="n"/>
+      <c r="M22" s="3" t="n"/>
+      <c r="N22" s="3" t="n"/>
+      <c r="O22" s="3" t="n"/>
+      <c r="P22" s="3" t="n"/>
+      <c r="Q22" s="3" t="n"/>
+      <c r="R22" s="3" t="n"/>
+      <c r="S22" s="3" t="n"/>
+      <c r="T22" s="3" t="n"/>
+      <c r="U22" s="3" t="n"/>
+      <c r="V22" s="3" t="n"/>
+      <c r="W22" s="3" t="n"/>
+      <c r="X22" s="3" t="n"/>
+      <c r="Y22" s="3" t="n"/>
+      <c r="Z22" s="3" t="n"/>
+      <c r="AA22" s="3" t="n"/>
+    </row>
+    <row r="23" customFormat="1" s="4">
+      <c r="A23" s="26" t="inlineStr">
         <is>
           <t>ГФФ</t>
         </is>
       </c>
-      <c r="B23" s="19" t="inlineStr">
+      <c r="B23" s="27" t="inlineStr">
         <is>
           <t>Лихоманова</t>
         </is>
       </c>
-      <c r="C23" s="18" t="inlineStr">
+      <c r="C23" s="26" t="inlineStr">
         <is>
           <t>Светлана</t>
         </is>
       </c>
-      <c r="D23" s="18" t="inlineStr">
+      <c r="D23" s="26" t="inlineStr">
         <is>
           <t>Владимировна</t>
         </is>
       </c>
-      <c r="E23" s="18" t="inlineStr">
+      <c r="E23" s="26" t="inlineStr">
         <is>
           <t>научный сотрудник</t>
         </is>
       </c>
-      <c r="F23" s="20" t="n">
+      <c r="F23" s="28" t="n">
         <v>4669</v>
       </c>
-      <c r="G23" s="23" t="n"/>
-      <c r="H23" s="18" t="n"/>
-      <c r="I23" s="4" t="n"/>
-      <c r="J23" s="4" t="n"/>
-      <c r="K23" s="4" t="n"/>
-      <c r="L23" s="4" t="n"/>
-      <c r="M23" s="4" t="n"/>
-      <c r="N23" s="4" t="n"/>
-      <c r="O23" s="4" t="n"/>
-      <c r="P23" s="4" t="n"/>
-      <c r="Q23" s="4" t="n"/>
-      <c r="R23" s="4" t="n"/>
-      <c r="S23" s="4" t="n"/>
-      <c r="T23" s="4" t="n"/>
-      <c r="U23" s="4" t="n"/>
-      <c r="V23" s="4" t="n"/>
-      <c r="W23" s="4" t="n"/>
-      <c r="X23" s="4" t="n"/>
-      <c r="Y23" s="4" t="n"/>
-    </row>
-    <row r="24" customFormat="1" s="5">
-      <c r="A24" s="18" t="inlineStr">
+      <c r="G23" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="H23" s="29" t="inlineStr">
+        <is>
+          <t>ДР</t>
+        </is>
+      </c>
+      <c r="I23" s="32" t="n"/>
+      <c r="J23" s="26" t="n"/>
+      <c r="K23" s="3" t="n"/>
+      <c r="L23" s="3" t="n"/>
+      <c r="M23" s="3" t="n"/>
+      <c r="N23" s="3" t="n"/>
+      <c r="O23" s="3" t="n"/>
+      <c r="P23" s="3" t="n"/>
+      <c r="Q23" s="3" t="n"/>
+      <c r="R23" s="3" t="n"/>
+      <c r="S23" s="3" t="n"/>
+      <c r="T23" s="3" t="n"/>
+      <c r="U23" s="3" t="n"/>
+      <c r="V23" s="3" t="n"/>
+      <c r="W23" s="3" t="n"/>
+      <c r="X23" s="3" t="n"/>
+      <c r="Y23" s="3" t="n"/>
+      <c r="Z23" s="3" t="n"/>
+      <c r="AA23" s="3" t="n"/>
+    </row>
+    <row r="24" customFormat="1" s="4">
+      <c r="A24" s="26" t="inlineStr">
         <is>
           <t>ГФФ</t>
         </is>
       </c>
-      <c r="B24" s="19" t="inlineStr">
+      <c r="B24" s="27" t="inlineStr">
         <is>
           <t>Тойкка</t>
         </is>
       </c>
-      <c r="C24" s="18" t="inlineStr">
+      <c r="C24" s="26" t="inlineStr">
         <is>
           <t>Андрей</t>
         </is>
       </c>
-      <c r="D24" s="18" t="inlineStr">
+      <c r="D24" s="26" t="inlineStr">
         <is>
           <t>Сергеевич</t>
         </is>
       </c>
-      <c r="E24" s="18" t="inlineStr">
+      <c r="E24" s="26" t="inlineStr">
         <is>
           <t>лаборант-исследователь</t>
         </is>
       </c>
-      <c r="F24" s="20" t="n">
+      <c r="F24" s="28" t="n">
         <v>4587</v>
       </c>
-      <c r="G24" s="23" t="n"/>
-      <c r="H24" s="18" t="inlineStr">
+      <c r="G24" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="H24" s="29" t="inlineStr">
+        <is>
+          <t>ДР</t>
+        </is>
+      </c>
+      <c r="I24" s="32" t="n"/>
+      <c r="J24" s="26" t="inlineStr">
         <is>
           <t>mailto:benin@cisp.spb.ru</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="18" t="inlineStr">
+      <c r="A25" s="26" t="inlineStr">
         <is>
           <t>ГФФ</t>
         </is>
       </c>
-      <c r="B25" s="19" t="inlineStr">
+      <c r="B25" s="27" t="inlineStr">
         <is>
           <t>Федерова</t>
         </is>
       </c>
-      <c r="C25" s="18" t="inlineStr">
+      <c r="C25" s="26" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="D25" s="18" t="inlineStr">
+      <c r="D25" s="26" t="inlineStr">
         <is>
           <t>Олеговна</t>
         </is>
       </c>
-      <c r="E25" s="18" t="inlineStr">
+      <c r="E25" s="26" t="inlineStr">
         <is>
           <t>лаборант-исследователь</t>
         </is>
       </c>
-      <c r="F25" s="20" t="n">
+      <c r="F25" s="28" t="n">
         <v>5198</v>
       </c>
-      <c r="G25" s="23" t="n"/>
-      <c r="H25" s="18" t="n"/>
-    </row>
-    <row r="26"/>
+      <c r="G25" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="H25" s="29" t="inlineStr">
+        <is>
+          <t>ДР</t>
+        </is>
+      </c>
+      <c r="I25" s="32" t="n"/>
+      <c r="J25" s="26" t="n"/>
+    </row>
+    <row r="26">
+      <c r="G26" s="10" t="n"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H18" r:id="rId1"/>
+    <hyperlink ref="J18" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
@@ -1793,133 +2047,133 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="37.5546875" customWidth="1" min="1" max="1"/>
-    <col width="49.21875" customWidth="1" min="3" max="3"/>
+    <col width="49.33203125" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="3">
-      <c r="A1" s="6" t="inlineStr">
+    <row r="1" customFormat="1" s="9">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Краткое название</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Размер</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Пояснение</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>ФИО</t>
         </is>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="C2" s="7" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>Ширина поля 'Фамилия, имя, отчество'</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>Табельный номер</t>
         </is>
       </c>
-      <c r="B3" s="8" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="B3" s="7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>Ширина поля 'Табельный номер'</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>Премия</t>
         </is>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="6" t="n">
         <v>6.2</v>
       </c>
-      <c r="C4" s="7" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>Ширина поля 'Премия'</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>Должность</t>
         </is>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="6" t="n">
         <v>16.2</v>
       </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>Ширина поля 'Должность'</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Дата</t>
         </is>
       </c>
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="6" t="n">
         <v>3.17</v>
       </c>
-      <c r="C6" s="7" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>Ширина поля 'Дата'</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="inlineStr">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>Итого</t>
         </is>
       </c>
-      <c r="B7" s="7" t="n">
+      <c r="B7" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>Ширина поля 'Итого'</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>Количество</t>
         </is>
       </c>
-      <c r="B8" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" s="7" t="inlineStr">
+      <c r="B8" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>Количество работников на 1 странице</t>
         </is>
@@ -1937,15 +2191,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="41.21875" customWidth="1" min="1" max="1"/>
+    <col width="41.33203125" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2075,13 +2329,17 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="9" t="inlineStr">
+      <c r="A19" s="8" t="inlineStr">
         <is>
           <t>29:10:2023</t>
         </is>
       </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>